--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="69" yWindow="103" windowWidth="31774" windowHeight="15609" activeTab="1"/>
+    <workbookView xWindow="69" yWindow="103" windowWidth="31774" windowHeight="15609" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="総合紹介" sheetId="1" r:id="rId1"/>
-    <sheet name="TitleScene" sheetId="2" r:id="rId2"/>
-    <sheet name="MainScene" sheetId="3" r:id="rId3"/>
-    <sheet name="OverScene" sheetId="4" r:id="rId4"/>
+    <sheet name="TitleScene" sheetId="3" r:id="rId2"/>
+    <sheet name="TitleScene_画面1" sheetId="5" r:id="rId3"/>
+    <sheet name="TitleScene_画面2" sheetId="6" r:id="rId4"/>
+    <sheet name="MainScene" sheetId="2" r:id="rId5"/>
+    <sheet name="OverScene" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="53">
   <si>
     <t>ゲーム1.0のバージョンのメインシーン3つありますは</t>
     <phoneticPr fontId="1"/>
@@ -55,16 +57,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ゲームプレイシーン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>決算シーン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲームは①→②→③→①→②→③→①→...
-のルールでシーン①からシーン③までループします。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -77,6 +70,382 @@
   </si>
   <si>
     <t>【OverScene】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面①</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリ終了ボタン</t>
+    <rPh sb="3" eb="5">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セッティング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル文字</t>
+    <rPh sb="4" eb="6">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終了ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>消音</t>
+    <rPh sb="0" eb="2">
+      <t>ショウオン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>消音ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>ショウオン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セッティングウィンドウ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面②</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開始文字</t>
+    <rPh sb="0" eb="2">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム開始文字</t>
+    <rPh sb="3" eb="5">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームは①→②→③→①→②→③→①→...
+のルールでシーン①からシーン③までループします。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明：</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームプレイシーン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームプレイシーンの最初の画面です。</t>
+    <rPh sb="10" eb="12">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雲</t>
+    <rPh sb="0" eb="1">
+      <t>クモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ地面上空の雲</t>
+    <rPh sb="4" eb="6">
+      <t>ジメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウクウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>クモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ地面</t>
+    <rPh sb="4" eb="6">
+      <t>ジメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6から8が見えますが、上空に雲(7)があるので、あまり見ずらいです。</t>
+    <rPh sb="5" eb="6">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウクウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>クモ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面中ボタン以外のところにインプット処理を与えると画面イメージ２へ飛びます。</t>
+    <rPh sb="0" eb="3">
+      <t>ガメンチュウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面イメージ２</t>
+  </si>
+  <si>
+    <t>当シーンは画面イメージ１からの変化です。</t>
+    <rPh sb="0" eb="1">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面で6と7以外の表示をイメージ図上下左右の矢印に指す方向へ画面の外へ退場</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>ジョウゲサユウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヤジルシ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ソト</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>タイジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6の表示はMainSceneに入る直前に完全透明化になる</t>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>チョクゼン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カンゼン</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>トウメイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>矢印は説明用なので、実際には描画しない</t>
+    <rPh sb="0" eb="2">
+      <t>ヤジルシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ビョウガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1から6が全部画面中から消すと、MainSceneへ移動します。</t>
+    <rPh sb="5" eb="7">
+      <t>ゼンブ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MainScene</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TitleScene</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TitleScene_画面1</t>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TitleScene_画面2</t>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MainScene</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基地HP情報</t>
+    <rPh sb="0" eb="2">
+      <t>キチ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロジスティクス情報</t>
+    <rPh sb="7" eb="9">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>資源、ユニット数、生産速度</t>
+    <rPh sb="0" eb="2">
+      <t>シゲン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤースキル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤースキルボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユニットカード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユニット配置ボタン</t>
+    <rPh sb="4" eb="6">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実況演出</t>
+    <rPh sb="0" eb="2">
+      <t>ジッキョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>エンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>色々な演出すること</t>
+    <rPh sb="0" eb="2">
+      <t>イロイロ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>エンシュツ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -139,17 +508,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -164,6 +533,5639 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>239486</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="角丸四角形 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="653143" y="674914"/>
+          <a:ext cx="3505200" cy="2062843"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>272143</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>59871</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>576943</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>48985</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="角丸四角形 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="925286" y="903514"/>
+          <a:ext cx="2917371" cy="1676400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>136072</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>157843</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>125187</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="角丸四角形 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1442358" y="2013857"/>
+          <a:ext cx="1948543" cy="555171"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>615044</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>103414</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>10885</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="角丸四角形 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1268187" y="778328"/>
+          <a:ext cx="2378528" cy="582386"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>125187</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>141514</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>337458</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>16328</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="角丸四角形 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="778330" y="985157"/>
+          <a:ext cx="212271" cy="212271"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>157844</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>141514</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>370115</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>10885</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="角丸四角形 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="810987" y="1322614"/>
+          <a:ext cx="212271" cy="206828"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>468086</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>81642</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>59871</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>168727</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="角丸四角形 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3733800" y="2275113"/>
+          <a:ext cx="244928" cy="255814"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>124152</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>315829</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>103415</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="フリーフォーム 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1430438" y="1518557"/>
+          <a:ext cx="844820" cy="440872"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 191533 w 844820"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 440872"/>
+            <a:gd name="connsiteX1" fmla="*/ 191533 w 844820"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 440872"/>
+            <a:gd name="connsiteX2" fmla="*/ 305833 w 844820"/>
+            <a:gd name="connsiteY2" fmla="*/ 54429 h 440872"/>
+            <a:gd name="connsiteX3" fmla="*/ 349376 w 844820"/>
+            <a:gd name="connsiteY3" fmla="*/ 65314 h 440872"/>
+            <a:gd name="connsiteX4" fmla="*/ 392919 w 844820"/>
+            <a:gd name="connsiteY4" fmla="*/ 97972 h 440872"/>
+            <a:gd name="connsiteX5" fmla="*/ 431019 w 844820"/>
+            <a:gd name="connsiteY5" fmla="*/ 108857 h 440872"/>
+            <a:gd name="connsiteX6" fmla="*/ 496333 w 844820"/>
+            <a:gd name="connsiteY6" fmla="*/ 141514 h 440872"/>
+            <a:gd name="connsiteX7" fmla="*/ 534433 w 844820"/>
+            <a:gd name="connsiteY7" fmla="*/ 152400 h 440872"/>
+            <a:gd name="connsiteX8" fmla="*/ 621519 w 844820"/>
+            <a:gd name="connsiteY8" fmla="*/ 185057 h 440872"/>
+            <a:gd name="connsiteX9" fmla="*/ 735819 w 844820"/>
+            <a:gd name="connsiteY9" fmla="*/ 217714 h 440872"/>
+            <a:gd name="connsiteX10" fmla="*/ 779362 w 844820"/>
+            <a:gd name="connsiteY10" fmla="*/ 239486 h 440872"/>
+            <a:gd name="connsiteX11" fmla="*/ 801133 w 844820"/>
+            <a:gd name="connsiteY11" fmla="*/ 261257 h 440872"/>
+            <a:gd name="connsiteX12" fmla="*/ 812019 w 844820"/>
+            <a:gd name="connsiteY12" fmla="*/ 283029 h 440872"/>
+            <a:gd name="connsiteX13" fmla="*/ 833791 w 844820"/>
+            <a:gd name="connsiteY13" fmla="*/ 293914 h 440872"/>
+            <a:gd name="connsiteX14" fmla="*/ 844676 w 844820"/>
+            <a:gd name="connsiteY14" fmla="*/ 315686 h 440872"/>
+            <a:gd name="connsiteX15" fmla="*/ 839233 w 844820"/>
+            <a:gd name="connsiteY15" fmla="*/ 337457 h 440872"/>
+            <a:gd name="connsiteX16" fmla="*/ 790248 w 844820"/>
+            <a:gd name="connsiteY16" fmla="*/ 386443 h 440872"/>
+            <a:gd name="connsiteX17" fmla="*/ 724933 w 844820"/>
+            <a:gd name="connsiteY17" fmla="*/ 408214 h 440872"/>
+            <a:gd name="connsiteX18" fmla="*/ 703162 w 844820"/>
+            <a:gd name="connsiteY18" fmla="*/ 419100 h 440872"/>
+            <a:gd name="connsiteX19" fmla="*/ 632405 w 844820"/>
+            <a:gd name="connsiteY19" fmla="*/ 440872 h 440872"/>
+            <a:gd name="connsiteX20" fmla="*/ 403805 w 844820"/>
+            <a:gd name="connsiteY20" fmla="*/ 435429 h 440872"/>
+            <a:gd name="connsiteX21" fmla="*/ 316719 w 844820"/>
+            <a:gd name="connsiteY21" fmla="*/ 413657 h 440872"/>
+            <a:gd name="connsiteX22" fmla="*/ 11919 w 844820"/>
+            <a:gd name="connsiteY22" fmla="*/ 386443 h 440872"/>
+            <a:gd name="connsiteX23" fmla="*/ 1033 w 844820"/>
+            <a:gd name="connsiteY23" fmla="*/ 353786 h 440872"/>
+            <a:gd name="connsiteX24" fmla="*/ 6476 w 844820"/>
+            <a:gd name="connsiteY24" fmla="*/ 92529 h 440872"/>
+            <a:gd name="connsiteX25" fmla="*/ 28248 w 844820"/>
+            <a:gd name="connsiteY25" fmla="*/ 48986 h 440872"/>
+            <a:gd name="connsiteX26" fmla="*/ 39133 w 844820"/>
+            <a:gd name="connsiteY26" fmla="*/ 27214 h 440872"/>
+            <a:gd name="connsiteX27" fmla="*/ 126219 w 844820"/>
+            <a:gd name="connsiteY27" fmla="*/ 5443 h 440872"/>
+            <a:gd name="connsiteX28" fmla="*/ 267733 w 844820"/>
+            <a:gd name="connsiteY28" fmla="*/ 5443 h 440872"/>
+            <a:gd name="connsiteX29" fmla="*/ 267733 w 844820"/>
+            <a:gd name="connsiteY29" fmla="*/ 48986 h 440872"/>
+            <a:gd name="connsiteX30" fmla="*/ 801133 w 844820"/>
+            <a:gd name="connsiteY30" fmla="*/ 223157 h 440872"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX6" y="connsiteY6"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX7" y="connsiteY7"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX8" y="connsiteY8"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX9" y="connsiteY9"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX10" y="connsiteY10"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX11" y="connsiteY11"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX12" y="connsiteY12"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX13" y="connsiteY13"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX14" y="connsiteY14"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX15" y="connsiteY15"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX16" y="connsiteY16"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX17" y="connsiteY17"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX18" y="connsiteY18"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX19" y="connsiteY19"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX20" y="connsiteY20"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX21" y="connsiteY21"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX22" y="connsiteY22"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX23" y="connsiteY23"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX24" y="connsiteY24"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX25" y="connsiteY25"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX26" y="connsiteY26"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX27" y="connsiteY27"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX28" y="connsiteY28"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX29" y="connsiteY29"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX30" y="connsiteY30"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="844820" h="440872">
+              <a:moveTo>
+                <a:pt x="191533" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="191533" y="0"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="204680" y="6574"/>
+                <a:pt x="278323" y="45259"/>
+                <a:pt x="305833" y="54429"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="320026" y="59160"/>
+                <a:pt x="334862" y="61686"/>
+                <a:pt x="349376" y="65314"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="363890" y="76200"/>
+                <a:pt x="376910" y="89434"/>
+                <a:pt x="392919" y="97972"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="404573" y="104188"/>
+                <a:pt x="418846" y="103732"/>
+                <a:pt x="431019" y="108857"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="453453" y="118303"/>
+                <a:pt x="473899" y="132068"/>
+                <a:pt x="496333" y="141514"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="508506" y="146640"/>
+                <a:pt x="521958" y="148061"/>
+                <a:pt x="534433" y="152400"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="563715" y="162585"/>
+                <a:pt x="591776" y="176309"/>
+                <a:pt x="621519" y="185057"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="721224" y="214383"/>
+                <a:pt x="682858" y="204476"/>
+                <a:pt x="735819" y="217714"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="750333" y="224971"/>
+                <a:pt x="767887" y="228011"/>
+                <a:pt x="779362" y="239486"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="786619" y="246743"/>
+                <a:pt x="794975" y="253047"/>
+                <a:pt x="801133" y="261257"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="806001" y="267748"/>
+                <a:pt x="806281" y="277292"/>
+                <a:pt x="812019" y="283029"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="817756" y="288766"/>
+                <a:pt x="826534" y="290286"/>
+                <a:pt x="833791" y="293914"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="837419" y="301171"/>
+                <a:pt x="843670" y="307635"/>
+                <a:pt x="844676" y="315686"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="845604" y="323109"/>
+                <a:pt x="841859" y="330453"/>
+                <a:pt x="839233" y="337457"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="829348" y="363817"/>
+                <a:pt x="819602" y="372539"/>
+                <a:pt x="790248" y="386443"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="769508" y="396267"/>
+                <a:pt x="745459" y="397950"/>
+                <a:pt x="724933" y="408214"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="717676" y="411843"/>
+                <a:pt x="710695" y="416087"/>
+                <a:pt x="703162" y="419100"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="684334" y="426631"/>
+                <a:pt x="651196" y="435503"/>
+                <a:pt x="632405" y="440872"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="556205" y="439058"/>
+                <a:pt x="479745" y="441976"/>
+                <a:pt x="403805" y="435429"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="373993" y="432859"/>
+                <a:pt x="346482" y="416736"/>
+                <a:pt x="316719" y="413657"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="110017" y="392275"/>
+                <a:pt x="211627" y="401237"/>
+                <a:pt x="11919" y="386443"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="8290" y="375557"/>
+                <a:pt x="1245" y="365259"/>
+                <a:pt x="1033" y="353786"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="-580" y="266696"/>
+                <a:pt x="-1271" y="179288"/>
+                <a:pt x="6476" y="92529"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="7919" y="76366"/>
+                <a:pt x="20991" y="63500"/>
+                <a:pt x="28248" y="48986"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="31877" y="41729"/>
+                <a:pt x="31876" y="30842"/>
+                <a:pt x="39133" y="27214"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="73776" y="9894"/>
+                <a:pt x="71593" y="8318"/>
+                <a:pt x="126219" y="5443"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="173325" y="2964"/>
+                <a:pt x="220562" y="5443"/>
+                <a:pt x="267733" y="5443"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="267733" y="48986"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="801133" y="223157"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>6</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>135038</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>87085</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>326715</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="フリーフォーム 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2747609" y="1436914"/>
+          <a:ext cx="844820" cy="440872"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 191533 w 844820"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 440872"/>
+            <a:gd name="connsiteX1" fmla="*/ 191533 w 844820"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 440872"/>
+            <a:gd name="connsiteX2" fmla="*/ 305833 w 844820"/>
+            <a:gd name="connsiteY2" fmla="*/ 54429 h 440872"/>
+            <a:gd name="connsiteX3" fmla="*/ 349376 w 844820"/>
+            <a:gd name="connsiteY3" fmla="*/ 65314 h 440872"/>
+            <a:gd name="connsiteX4" fmla="*/ 392919 w 844820"/>
+            <a:gd name="connsiteY4" fmla="*/ 97972 h 440872"/>
+            <a:gd name="connsiteX5" fmla="*/ 431019 w 844820"/>
+            <a:gd name="connsiteY5" fmla="*/ 108857 h 440872"/>
+            <a:gd name="connsiteX6" fmla="*/ 496333 w 844820"/>
+            <a:gd name="connsiteY6" fmla="*/ 141514 h 440872"/>
+            <a:gd name="connsiteX7" fmla="*/ 534433 w 844820"/>
+            <a:gd name="connsiteY7" fmla="*/ 152400 h 440872"/>
+            <a:gd name="connsiteX8" fmla="*/ 621519 w 844820"/>
+            <a:gd name="connsiteY8" fmla="*/ 185057 h 440872"/>
+            <a:gd name="connsiteX9" fmla="*/ 735819 w 844820"/>
+            <a:gd name="connsiteY9" fmla="*/ 217714 h 440872"/>
+            <a:gd name="connsiteX10" fmla="*/ 779362 w 844820"/>
+            <a:gd name="connsiteY10" fmla="*/ 239486 h 440872"/>
+            <a:gd name="connsiteX11" fmla="*/ 801133 w 844820"/>
+            <a:gd name="connsiteY11" fmla="*/ 261257 h 440872"/>
+            <a:gd name="connsiteX12" fmla="*/ 812019 w 844820"/>
+            <a:gd name="connsiteY12" fmla="*/ 283029 h 440872"/>
+            <a:gd name="connsiteX13" fmla="*/ 833791 w 844820"/>
+            <a:gd name="connsiteY13" fmla="*/ 293914 h 440872"/>
+            <a:gd name="connsiteX14" fmla="*/ 844676 w 844820"/>
+            <a:gd name="connsiteY14" fmla="*/ 315686 h 440872"/>
+            <a:gd name="connsiteX15" fmla="*/ 839233 w 844820"/>
+            <a:gd name="connsiteY15" fmla="*/ 337457 h 440872"/>
+            <a:gd name="connsiteX16" fmla="*/ 790248 w 844820"/>
+            <a:gd name="connsiteY16" fmla="*/ 386443 h 440872"/>
+            <a:gd name="connsiteX17" fmla="*/ 724933 w 844820"/>
+            <a:gd name="connsiteY17" fmla="*/ 408214 h 440872"/>
+            <a:gd name="connsiteX18" fmla="*/ 703162 w 844820"/>
+            <a:gd name="connsiteY18" fmla="*/ 419100 h 440872"/>
+            <a:gd name="connsiteX19" fmla="*/ 632405 w 844820"/>
+            <a:gd name="connsiteY19" fmla="*/ 440872 h 440872"/>
+            <a:gd name="connsiteX20" fmla="*/ 403805 w 844820"/>
+            <a:gd name="connsiteY20" fmla="*/ 435429 h 440872"/>
+            <a:gd name="connsiteX21" fmla="*/ 316719 w 844820"/>
+            <a:gd name="connsiteY21" fmla="*/ 413657 h 440872"/>
+            <a:gd name="connsiteX22" fmla="*/ 11919 w 844820"/>
+            <a:gd name="connsiteY22" fmla="*/ 386443 h 440872"/>
+            <a:gd name="connsiteX23" fmla="*/ 1033 w 844820"/>
+            <a:gd name="connsiteY23" fmla="*/ 353786 h 440872"/>
+            <a:gd name="connsiteX24" fmla="*/ 6476 w 844820"/>
+            <a:gd name="connsiteY24" fmla="*/ 92529 h 440872"/>
+            <a:gd name="connsiteX25" fmla="*/ 28248 w 844820"/>
+            <a:gd name="connsiteY25" fmla="*/ 48986 h 440872"/>
+            <a:gd name="connsiteX26" fmla="*/ 39133 w 844820"/>
+            <a:gd name="connsiteY26" fmla="*/ 27214 h 440872"/>
+            <a:gd name="connsiteX27" fmla="*/ 126219 w 844820"/>
+            <a:gd name="connsiteY27" fmla="*/ 5443 h 440872"/>
+            <a:gd name="connsiteX28" fmla="*/ 267733 w 844820"/>
+            <a:gd name="connsiteY28" fmla="*/ 5443 h 440872"/>
+            <a:gd name="connsiteX29" fmla="*/ 267733 w 844820"/>
+            <a:gd name="connsiteY29" fmla="*/ 48986 h 440872"/>
+            <a:gd name="connsiteX30" fmla="*/ 801133 w 844820"/>
+            <a:gd name="connsiteY30" fmla="*/ 223157 h 440872"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX6" y="connsiteY6"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX7" y="connsiteY7"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX8" y="connsiteY8"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX9" y="connsiteY9"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX10" y="connsiteY10"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX11" y="connsiteY11"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX12" y="connsiteY12"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX13" y="connsiteY13"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX14" y="connsiteY14"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX15" y="connsiteY15"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX16" y="connsiteY16"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX17" y="connsiteY17"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX18" y="connsiteY18"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX19" y="connsiteY19"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX20" y="connsiteY20"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX21" y="connsiteY21"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX22" y="connsiteY22"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX23" y="connsiteY23"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX24" y="connsiteY24"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX25" y="connsiteY25"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX26" y="connsiteY26"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX27" y="connsiteY27"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX28" y="connsiteY28"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX29" y="connsiteY29"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX30" y="connsiteY30"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="844820" h="440872">
+              <a:moveTo>
+                <a:pt x="191533" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="191533" y="0"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="204680" y="6574"/>
+                <a:pt x="278323" y="45259"/>
+                <a:pt x="305833" y="54429"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="320026" y="59160"/>
+                <a:pt x="334862" y="61686"/>
+                <a:pt x="349376" y="65314"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="363890" y="76200"/>
+                <a:pt x="376910" y="89434"/>
+                <a:pt x="392919" y="97972"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="404573" y="104188"/>
+                <a:pt x="418846" y="103732"/>
+                <a:pt x="431019" y="108857"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="453453" y="118303"/>
+                <a:pt x="473899" y="132068"/>
+                <a:pt x="496333" y="141514"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="508506" y="146640"/>
+                <a:pt x="521958" y="148061"/>
+                <a:pt x="534433" y="152400"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="563715" y="162585"/>
+                <a:pt x="591776" y="176309"/>
+                <a:pt x="621519" y="185057"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="721224" y="214383"/>
+                <a:pt x="682858" y="204476"/>
+                <a:pt x="735819" y="217714"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="750333" y="224971"/>
+                <a:pt x="767887" y="228011"/>
+                <a:pt x="779362" y="239486"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="786619" y="246743"/>
+                <a:pt x="794975" y="253047"/>
+                <a:pt x="801133" y="261257"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="806001" y="267748"/>
+                <a:pt x="806281" y="277292"/>
+                <a:pt x="812019" y="283029"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="817756" y="288766"/>
+                <a:pt x="826534" y="290286"/>
+                <a:pt x="833791" y="293914"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="837419" y="301171"/>
+                <a:pt x="843670" y="307635"/>
+                <a:pt x="844676" y="315686"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="845604" y="323109"/>
+                <a:pt x="841859" y="330453"/>
+                <a:pt x="839233" y="337457"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="829348" y="363817"/>
+                <a:pt x="819602" y="372539"/>
+                <a:pt x="790248" y="386443"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="769508" y="396267"/>
+                <a:pt x="745459" y="397950"/>
+                <a:pt x="724933" y="408214"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="717676" y="411843"/>
+                <a:pt x="710695" y="416087"/>
+                <a:pt x="703162" y="419100"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="684334" y="426631"/>
+                <a:pt x="651196" y="435503"/>
+                <a:pt x="632405" y="440872"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="556205" y="439058"/>
+                <a:pt x="479745" y="441976"/>
+                <a:pt x="403805" y="435429"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="373993" y="432859"/>
+                <a:pt x="346482" y="416736"/>
+                <a:pt x="316719" y="413657"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="110017" y="392275"/>
+                <a:pt x="211627" y="401237"/>
+                <a:pt x="11919" y="386443"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="8290" y="375557"/>
+                <a:pt x="1245" y="365259"/>
+                <a:pt x="1033" y="353786"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="-580" y="266696"/>
+                <a:pt x="-1271" y="179288"/>
+                <a:pt x="6476" y="92529"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="7919" y="76366"/>
+                <a:pt x="20991" y="63500"/>
+                <a:pt x="28248" y="48986"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="31877" y="41729"/>
+                <a:pt x="31876" y="30842"/>
+                <a:pt x="39133" y="27214"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="73776" y="9894"/>
+                <a:pt x="71593" y="8318"/>
+                <a:pt x="126219" y="5443"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="173325" y="2964"/>
+                <a:pt x="220562" y="5443"/>
+                <a:pt x="267733" y="5443"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="267733" y="48986"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="801133" y="223157"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>6</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>598714</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>10906</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>185057</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>49006</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="角丸四角形 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="598714" y="5241492"/>
+          <a:ext cx="3505200" cy="2062843"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>293916</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>97972</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>598716</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>87085</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="角丸四角形 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="947059" y="5497286"/>
+          <a:ext cx="2917371" cy="1676399"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>65315</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>92550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>54430</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>141535</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="角丸四角形 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371601" y="7010421"/>
+          <a:ext cx="1948543" cy="555171"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>593272</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>65334</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>359229</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>141536</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="角丸四角形 40"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1246415" y="4958463"/>
+          <a:ext cx="2378528" cy="582387"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>478973</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>157864</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>32677</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="角丸四角形 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="478973" y="5557178"/>
+          <a:ext cx="212271" cy="212270"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>473530</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>92549</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>32658</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>130648</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="角丸四角形 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="473530" y="5829320"/>
+          <a:ext cx="212271" cy="206828"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>81662</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>321128</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>19</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="角丸四角形 43"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3995057" y="6830805"/>
+          <a:ext cx="244928" cy="255814"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>261258</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>146978</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>587829</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>119764</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="右矢印 44"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4180115" y="6896121"/>
+          <a:ext cx="979714" cy="141514"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>212271</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>59872</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="下矢印 45"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2171700" y="7451271"/>
+          <a:ext cx="130628" cy="707572"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>326569</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>495298</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="下矢印 46"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2285998" y="4414157"/>
+          <a:ext cx="168729" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>49006</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>21792</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="右矢印 47"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="0" y="5617049"/>
+          <a:ext cx="571500" cy="141514"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>21771</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>141535</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>593271</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>114320</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="右矢印 48"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="21771" y="5878306"/>
+          <a:ext cx="571500" cy="141514"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>91495</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>16328</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>283172</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>119743</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="フリーフォーム 49"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1397781" y="6090557"/>
+          <a:ext cx="844820" cy="440872"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 191533 w 844820"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 440872"/>
+            <a:gd name="connsiteX1" fmla="*/ 191533 w 844820"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 440872"/>
+            <a:gd name="connsiteX2" fmla="*/ 305833 w 844820"/>
+            <a:gd name="connsiteY2" fmla="*/ 54429 h 440872"/>
+            <a:gd name="connsiteX3" fmla="*/ 349376 w 844820"/>
+            <a:gd name="connsiteY3" fmla="*/ 65314 h 440872"/>
+            <a:gd name="connsiteX4" fmla="*/ 392919 w 844820"/>
+            <a:gd name="connsiteY4" fmla="*/ 97972 h 440872"/>
+            <a:gd name="connsiteX5" fmla="*/ 431019 w 844820"/>
+            <a:gd name="connsiteY5" fmla="*/ 108857 h 440872"/>
+            <a:gd name="connsiteX6" fmla="*/ 496333 w 844820"/>
+            <a:gd name="connsiteY6" fmla="*/ 141514 h 440872"/>
+            <a:gd name="connsiteX7" fmla="*/ 534433 w 844820"/>
+            <a:gd name="connsiteY7" fmla="*/ 152400 h 440872"/>
+            <a:gd name="connsiteX8" fmla="*/ 621519 w 844820"/>
+            <a:gd name="connsiteY8" fmla="*/ 185057 h 440872"/>
+            <a:gd name="connsiteX9" fmla="*/ 735819 w 844820"/>
+            <a:gd name="connsiteY9" fmla="*/ 217714 h 440872"/>
+            <a:gd name="connsiteX10" fmla="*/ 779362 w 844820"/>
+            <a:gd name="connsiteY10" fmla="*/ 239486 h 440872"/>
+            <a:gd name="connsiteX11" fmla="*/ 801133 w 844820"/>
+            <a:gd name="connsiteY11" fmla="*/ 261257 h 440872"/>
+            <a:gd name="connsiteX12" fmla="*/ 812019 w 844820"/>
+            <a:gd name="connsiteY12" fmla="*/ 283029 h 440872"/>
+            <a:gd name="connsiteX13" fmla="*/ 833791 w 844820"/>
+            <a:gd name="connsiteY13" fmla="*/ 293914 h 440872"/>
+            <a:gd name="connsiteX14" fmla="*/ 844676 w 844820"/>
+            <a:gd name="connsiteY14" fmla="*/ 315686 h 440872"/>
+            <a:gd name="connsiteX15" fmla="*/ 839233 w 844820"/>
+            <a:gd name="connsiteY15" fmla="*/ 337457 h 440872"/>
+            <a:gd name="connsiteX16" fmla="*/ 790248 w 844820"/>
+            <a:gd name="connsiteY16" fmla="*/ 386443 h 440872"/>
+            <a:gd name="connsiteX17" fmla="*/ 724933 w 844820"/>
+            <a:gd name="connsiteY17" fmla="*/ 408214 h 440872"/>
+            <a:gd name="connsiteX18" fmla="*/ 703162 w 844820"/>
+            <a:gd name="connsiteY18" fmla="*/ 419100 h 440872"/>
+            <a:gd name="connsiteX19" fmla="*/ 632405 w 844820"/>
+            <a:gd name="connsiteY19" fmla="*/ 440872 h 440872"/>
+            <a:gd name="connsiteX20" fmla="*/ 403805 w 844820"/>
+            <a:gd name="connsiteY20" fmla="*/ 435429 h 440872"/>
+            <a:gd name="connsiteX21" fmla="*/ 316719 w 844820"/>
+            <a:gd name="connsiteY21" fmla="*/ 413657 h 440872"/>
+            <a:gd name="connsiteX22" fmla="*/ 11919 w 844820"/>
+            <a:gd name="connsiteY22" fmla="*/ 386443 h 440872"/>
+            <a:gd name="connsiteX23" fmla="*/ 1033 w 844820"/>
+            <a:gd name="connsiteY23" fmla="*/ 353786 h 440872"/>
+            <a:gd name="connsiteX24" fmla="*/ 6476 w 844820"/>
+            <a:gd name="connsiteY24" fmla="*/ 92529 h 440872"/>
+            <a:gd name="connsiteX25" fmla="*/ 28248 w 844820"/>
+            <a:gd name="connsiteY25" fmla="*/ 48986 h 440872"/>
+            <a:gd name="connsiteX26" fmla="*/ 39133 w 844820"/>
+            <a:gd name="connsiteY26" fmla="*/ 27214 h 440872"/>
+            <a:gd name="connsiteX27" fmla="*/ 126219 w 844820"/>
+            <a:gd name="connsiteY27" fmla="*/ 5443 h 440872"/>
+            <a:gd name="connsiteX28" fmla="*/ 267733 w 844820"/>
+            <a:gd name="connsiteY28" fmla="*/ 5443 h 440872"/>
+            <a:gd name="connsiteX29" fmla="*/ 267733 w 844820"/>
+            <a:gd name="connsiteY29" fmla="*/ 48986 h 440872"/>
+            <a:gd name="connsiteX30" fmla="*/ 801133 w 844820"/>
+            <a:gd name="connsiteY30" fmla="*/ 223157 h 440872"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX6" y="connsiteY6"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX7" y="connsiteY7"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX8" y="connsiteY8"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX9" y="connsiteY9"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX10" y="connsiteY10"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX11" y="connsiteY11"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX12" y="connsiteY12"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX13" y="connsiteY13"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX14" y="connsiteY14"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX15" y="connsiteY15"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX16" y="connsiteY16"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX17" y="connsiteY17"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX18" y="connsiteY18"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX19" y="connsiteY19"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX20" y="connsiteY20"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX21" y="connsiteY21"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX22" y="connsiteY22"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX23" y="connsiteY23"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX24" y="connsiteY24"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX25" y="connsiteY25"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX26" y="connsiteY26"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX27" y="connsiteY27"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX28" y="connsiteY28"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX29" y="connsiteY29"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX30" y="connsiteY30"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="844820" h="440872">
+              <a:moveTo>
+                <a:pt x="191533" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="191533" y="0"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="204680" y="6574"/>
+                <a:pt x="278323" y="45259"/>
+                <a:pt x="305833" y="54429"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="320026" y="59160"/>
+                <a:pt x="334862" y="61686"/>
+                <a:pt x="349376" y="65314"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="363890" y="76200"/>
+                <a:pt x="376910" y="89434"/>
+                <a:pt x="392919" y="97972"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="404573" y="104188"/>
+                <a:pt x="418846" y="103732"/>
+                <a:pt x="431019" y="108857"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="453453" y="118303"/>
+                <a:pt x="473899" y="132068"/>
+                <a:pt x="496333" y="141514"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="508506" y="146640"/>
+                <a:pt x="521958" y="148061"/>
+                <a:pt x="534433" y="152400"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="563715" y="162585"/>
+                <a:pt x="591776" y="176309"/>
+                <a:pt x="621519" y="185057"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="721224" y="214383"/>
+                <a:pt x="682858" y="204476"/>
+                <a:pt x="735819" y="217714"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="750333" y="224971"/>
+                <a:pt x="767887" y="228011"/>
+                <a:pt x="779362" y="239486"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="786619" y="246743"/>
+                <a:pt x="794975" y="253047"/>
+                <a:pt x="801133" y="261257"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="806001" y="267748"/>
+                <a:pt x="806281" y="277292"/>
+                <a:pt x="812019" y="283029"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="817756" y="288766"/>
+                <a:pt x="826534" y="290286"/>
+                <a:pt x="833791" y="293914"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="837419" y="301171"/>
+                <a:pt x="843670" y="307635"/>
+                <a:pt x="844676" y="315686"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="845604" y="323109"/>
+                <a:pt x="841859" y="330453"/>
+                <a:pt x="839233" y="337457"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="829348" y="363817"/>
+                <a:pt x="819602" y="372539"/>
+                <a:pt x="790248" y="386443"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="769508" y="396267"/>
+                <a:pt x="745459" y="397950"/>
+                <a:pt x="724933" y="408214"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="717676" y="411843"/>
+                <a:pt x="710695" y="416087"/>
+                <a:pt x="703162" y="419100"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="684334" y="426631"/>
+                <a:pt x="651196" y="435503"/>
+                <a:pt x="632405" y="440872"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="556205" y="439058"/>
+                <a:pt x="479745" y="441976"/>
+                <a:pt x="403805" y="435429"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="373993" y="432859"/>
+                <a:pt x="346482" y="416736"/>
+                <a:pt x="316719" y="413657"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="110017" y="392275"/>
+                <a:pt x="211627" y="401237"/>
+                <a:pt x="11919" y="386443"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="8290" y="375557"/>
+                <a:pt x="1245" y="365259"/>
+                <a:pt x="1033" y="353786"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="-580" y="266696"/>
+                <a:pt x="-1271" y="179288"/>
+                <a:pt x="6476" y="92529"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="7919" y="76366"/>
+                <a:pt x="20991" y="63500"/>
+                <a:pt x="28248" y="48986"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="31877" y="41729"/>
+                <a:pt x="31876" y="30842"/>
+                <a:pt x="39133" y="27214"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="73776" y="9894"/>
+                <a:pt x="71593" y="8318"/>
+                <a:pt x="126219" y="5443"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="173325" y="2964"/>
+                <a:pt x="220562" y="5443"/>
+                <a:pt x="267733" y="5443"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="267733" y="48986"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="801133" y="223157"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>6</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>102381</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>103414</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>294058</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="フリーフォーム 50"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2714952" y="6008914"/>
+          <a:ext cx="844820" cy="440872"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 191533 w 844820"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 440872"/>
+            <a:gd name="connsiteX1" fmla="*/ 191533 w 844820"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 440872"/>
+            <a:gd name="connsiteX2" fmla="*/ 305833 w 844820"/>
+            <a:gd name="connsiteY2" fmla="*/ 54429 h 440872"/>
+            <a:gd name="connsiteX3" fmla="*/ 349376 w 844820"/>
+            <a:gd name="connsiteY3" fmla="*/ 65314 h 440872"/>
+            <a:gd name="connsiteX4" fmla="*/ 392919 w 844820"/>
+            <a:gd name="connsiteY4" fmla="*/ 97972 h 440872"/>
+            <a:gd name="connsiteX5" fmla="*/ 431019 w 844820"/>
+            <a:gd name="connsiteY5" fmla="*/ 108857 h 440872"/>
+            <a:gd name="connsiteX6" fmla="*/ 496333 w 844820"/>
+            <a:gd name="connsiteY6" fmla="*/ 141514 h 440872"/>
+            <a:gd name="connsiteX7" fmla="*/ 534433 w 844820"/>
+            <a:gd name="connsiteY7" fmla="*/ 152400 h 440872"/>
+            <a:gd name="connsiteX8" fmla="*/ 621519 w 844820"/>
+            <a:gd name="connsiteY8" fmla="*/ 185057 h 440872"/>
+            <a:gd name="connsiteX9" fmla="*/ 735819 w 844820"/>
+            <a:gd name="connsiteY9" fmla="*/ 217714 h 440872"/>
+            <a:gd name="connsiteX10" fmla="*/ 779362 w 844820"/>
+            <a:gd name="connsiteY10" fmla="*/ 239486 h 440872"/>
+            <a:gd name="connsiteX11" fmla="*/ 801133 w 844820"/>
+            <a:gd name="connsiteY11" fmla="*/ 261257 h 440872"/>
+            <a:gd name="connsiteX12" fmla="*/ 812019 w 844820"/>
+            <a:gd name="connsiteY12" fmla="*/ 283029 h 440872"/>
+            <a:gd name="connsiteX13" fmla="*/ 833791 w 844820"/>
+            <a:gd name="connsiteY13" fmla="*/ 293914 h 440872"/>
+            <a:gd name="connsiteX14" fmla="*/ 844676 w 844820"/>
+            <a:gd name="connsiteY14" fmla="*/ 315686 h 440872"/>
+            <a:gd name="connsiteX15" fmla="*/ 839233 w 844820"/>
+            <a:gd name="connsiteY15" fmla="*/ 337457 h 440872"/>
+            <a:gd name="connsiteX16" fmla="*/ 790248 w 844820"/>
+            <a:gd name="connsiteY16" fmla="*/ 386443 h 440872"/>
+            <a:gd name="connsiteX17" fmla="*/ 724933 w 844820"/>
+            <a:gd name="connsiteY17" fmla="*/ 408214 h 440872"/>
+            <a:gd name="connsiteX18" fmla="*/ 703162 w 844820"/>
+            <a:gd name="connsiteY18" fmla="*/ 419100 h 440872"/>
+            <a:gd name="connsiteX19" fmla="*/ 632405 w 844820"/>
+            <a:gd name="connsiteY19" fmla="*/ 440872 h 440872"/>
+            <a:gd name="connsiteX20" fmla="*/ 403805 w 844820"/>
+            <a:gd name="connsiteY20" fmla="*/ 435429 h 440872"/>
+            <a:gd name="connsiteX21" fmla="*/ 316719 w 844820"/>
+            <a:gd name="connsiteY21" fmla="*/ 413657 h 440872"/>
+            <a:gd name="connsiteX22" fmla="*/ 11919 w 844820"/>
+            <a:gd name="connsiteY22" fmla="*/ 386443 h 440872"/>
+            <a:gd name="connsiteX23" fmla="*/ 1033 w 844820"/>
+            <a:gd name="connsiteY23" fmla="*/ 353786 h 440872"/>
+            <a:gd name="connsiteX24" fmla="*/ 6476 w 844820"/>
+            <a:gd name="connsiteY24" fmla="*/ 92529 h 440872"/>
+            <a:gd name="connsiteX25" fmla="*/ 28248 w 844820"/>
+            <a:gd name="connsiteY25" fmla="*/ 48986 h 440872"/>
+            <a:gd name="connsiteX26" fmla="*/ 39133 w 844820"/>
+            <a:gd name="connsiteY26" fmla="*/ 27214 h 440872"/>
+            <a:gd name="connsiteX27" fmla="*/ 126219 w 844820"/>
+            <a:gd name="connsiteY27" fmla="*/ 5443 h 440872"/>
+            <a:gd name="connsiteX28" fmla="*/ 267733 w 844820"/>
+            <a:gd name="connsiteY28" fmla="*/ 5443 h 440872"/>
+            <a:gd name="connsiteX29" fmla="*/ 267733 w 844820"/>
+            <a:gd name="connsiteY29" fmla="*/ 48986 h 440872"/>
+            <a:gd name="connsiteX30" fmla="*/ 801133 w 844820"/>
+            <a:gd name="connsiteY30" fmla="*/ 223157 h 440872"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX6" y="connsiteY6"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX7" y="connsiteY7"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX8" y="connsiteY8"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX9" y="connsiteY9"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX10" y="connsiteY10"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX11" y="connsiteY11"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX12" y="connsiteY12"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX13" y="connsiteY13"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX14" y="connsiteY14"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX15" y="connsiteY15"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX16" y="connsiteY16"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX17" y="connsiteY17"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX18" y="connsiteY18"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX19" y="connsiteY19"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX20" y="connsiteY20"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX21" y="connsiteY21"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX22" y="connsiteY22"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX23" y="connsiteY23"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX24" y="connsiteY24"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX25" y="connsiteY25"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX26" y="connsiteY26"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX27" y="connsiteY27"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX28" y="connsiteY28"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX29" y="connsiteY29"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX30" y="connsiteY30"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="844820" h="440872">
+              <a:moveTo>
+                <a:pt x="191533" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="191533" y="0"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="204680" y="6574"/>
+                <a:pt x="278323" y="45259"/>
+                <a:pt x="305833" y="54429"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="320026" y="59160"/>
+                <a:pt x="334862" y="61686"/>
+                <a:pt x="349376" y="65314"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="363890" y="76200"/>
+                <a:pt x="376910" y="89434"/>
+                <a:pt x="392919" y="97972"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="404573" y="104188"/>
+                <a:pt x="418846" y="103732"/>
+                <a:pt x="431019" y="108857"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="453453" y="118303"/>
+                <a:pt x="473899" y="132068"/>
+                <a:pt x="496333" y="141514"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="508506" y="146640"/>
+                <a:pt x="521958" y="148061"/>
+                <a:pt x="534433" y="152400"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="563715" y="162585"/>
+                <a:pt x="591776" y="176309"/>
+                <a:pt x="621519" y="185057"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="721224" y="214383"/>
+                <a:pt x="682858" y="204476"/>
+                <a:pt x="735819" y="217714"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="750333" y="224971"/>
+                <a:pt x="767887" y="228011"/>
+                <a:pt x="779362" y="239486"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="786619" y="246743"/>
+                <a:pt x="794975" y="253047"/>
+                <a:pt x="801133" y="261257"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="806001" y="267748"/>
+                <a:pt x="806281" y="277292"/>
+                <a:pt x="812019" y="283029"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="817756" y="288766"/>
+                <a:pt x="826534" y="290286"/>
+                <a:pt x="833791" y="293914"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="837419" y="301171"/>
+                <a:pt x="843670" y="307635"/>
+                <a:pt x="844676" y="315686"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="845604" y="323109"/>
+                <a:pt x="841859" y="330453"/>
+                <a:pt x="839233" y="337457"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="829348" y="363817"/>
+                <a:pt x="819602" y="372539"/>
+                <a:pt x="790248" y="386443"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="769508" y="396267"/>
+                <a:pt x="745459" y="397950"/>
+                <a:pt x="724933" y="408214"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="717676" y="411843"/>
+                <a:pt x="710695" y="416087"/>
+                <a:pt x="703162" y="419100"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="684334" y="426631"/>
+                <a:pt x="651196" y="435503"/>
+                <a:pt x="632405" y="440872"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="556205" y="439058"/>
+                <a:pt x="479745" y="441976"/>
+                <a:pt x="403805" y="435429"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="373993" y="432859"/>
+                <a:pt x="346482" y="416736"/>
+                <a:pt x="316719" y="413657"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="110017" y="392275"/>
+                <a:pt x="211627" y="401237"/>
+                <a:pt x="11919" y="386443"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="8290" y="375557"/>
+                <a:pt x="1245" y="365259"/>
+                <a:pt x="1033" y="353786"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="-580" y="266696"/>
+                <a:pt x="-1271" y="179288"/>
+                <a:pt x="6476" y="92529"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="7919" y="76366"/>
+                <a:pt x="20991" y="63500"/>
+                <a:pt x="28248" y="48986"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="31877" y="41729"/>
+                <a:pt x="31876" y="30842"/>
+                <a:pt x="39133" y="27214"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="73776" y="9894"/>
+                <a:pt x="71593" y="8318"/>
+                <a:pt x="126219" y="5443"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="173325" y="2964"/>
+                <a:pt x="220562" y="5443"/>
+                <a:pt x="267733" y="5443"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="267733" y="48986"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="801133" y="223157"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>6</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>391886</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="805543" y="713014"/>
+          <a:ext cx="3505200" cy="2062843"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>424543</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>97971</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>87085</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="角丸四角形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1077686" y="941614"/>
+          <a:ext cx="2917371" cy="1676400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>288472</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>277587</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="角丸四角形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1594758" y="2051957"/>
+          <a:ext cx="1948543" cy="555171"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>141514</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>48985</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="角丸四角形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1420587" y="816428"/>
+          <a:ext cx="2378528" cy="582386"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>277587</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>489858</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="角丸四角形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="930730" y="1023257"/>
+          <a:ext cx="212271" cy="212271"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>310244</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>10885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>522515</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>48985</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="角丸四角形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="963387" y="1360714"/>
+          <a:ext cx="212271" cy="206828"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>620486</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>119742</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>212271</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38098</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="角丸四角形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3886200" y="2313213"/>
+          <a:ext cx="244928" cy="255814"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>276552</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>468229</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>141515</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="フリーフォーム 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1582838" y="1556657"/>
+          <a:ext cx="844820" cy="440872"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 191533 w 844820"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 440872"/>
+            <a:gd name="connsiteX1" fmla="*/ 191533 w 844820"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 440872"/>
+            <a:gd name="connsiteX2" fmla="*/ 305833 w 844820"/>
+            <a:gd name="connsiteY2" fmla="*/ 54429 h 440872"/>
+            <a:gd name="connsiteX3" fmla="*/ 349376 w 844820"/>
+            <a:gd name="connsiteY3" fmla="*/ 65314 h 440872"/>
+            <a:gd name="connsiteX4" fmla="*/ 392919 w 844820"/>
+            <a:gd name="connsiteY4" fmla="*/ 97972 h 440872"/>
+            <a:gd name="connsiteX5" fmla="*/ 431019 w 844820"/>
+            <a:gd name="connsiteY5" fmla="*/ 108857 h 440872"/>
+            <a:gd name="connsiteX6" fmla="*/ 496333 w 844820"/>
+            <a:gd name="connsiteY6" fmla="*/ 141514 h 440872"/>
+            <a:gd name="connsiteX7" fmla="*/ 534433 w 844820"/>
+            <a:gd name="connsiteY7" fmla="*/ 152400 h 440872"/>
+            <a:gd name="connsiteX8" fmla="*/ 621519 w 844820"/>
+            <a:gd name="connsiteY8" fmla="*/ 185057 h 440872"/>
+            <a:gd name="connsiteX9" fmla="*/ 735819 w 844820"/>
+            <a:gd name="connsiteY9" fmla="*/ 217714 h 440872"/>
+            <a:gd name="connsiteX10" fmla="*/ 779362 w 844820"/>
+            <a:gd name="connsiteY10" fmla="*/ 239486 h 440872"/>
+            <a:gd name="connsiteX11" fmla="*/ 801133 w 844820"/>
+            <a:gd name="connsiteY11" fmla="*/ 261257 h 440872"/>
+            <a:gd name="connsiteX12" fmla="*/ 812019 w 844820"/>
+            <a:gd name="connsiteY12" fmla="*/ 283029 h 440872"/>
+            <a:gd name="connsiteX13" fmla="*/ 833791 w 844820"/>
+            <a:gd name="connsiteY13" fmla="*/ 293914 h 440872"/>
+            <a:gd name="connsiteX14" fmla="*/ 844676 w 844820"/>
+            <a:gd name="connsiteY14" fmla="*/ 315686 h 440872"/>
+            <a:gd name="connsiteX15" fmla="*/ 839233 w 844820"/>
+            <a:gd name="connsiteY15" fmla="*/ 337457 h 440872"/>
+            <a:gd name="connsiteX16" fmla="*/ 790248 w 844820"/>
+            <a:gd name="connsiteY16" fmla="*/ 386443 h 440872"/>
+            <a:gd name="connsiteX17" fmla="*/ 724933 w 844820"/>
+            <a:gd name="connsiteY17" fmla="*/ 408214 h 440872"/>
+            <a:gd name="connsiteX18" fmla="*/ 703162 w 844820"/>
+            <a:gd name="connsiteY18" fmla="*/ 419100 h 440872"/>
+            <a:gd name="connsiteX19" fmla="*/ 632405 w 844820"/>
+            <a:gd name="connsiteY19" fmla="*/ 440872 h 440872"/>
+            <a:gd name="connsiteX20" fmla="*/ 403805 w 844820"/>
+            <a:gd name="connsiteY20" fmla="*/ 435429 h 440872"/>
+            <a:gd name="connsiteX21" fmla="*/ 316719 w 844820"/>
+            <a:gd name="connsiteY21" fmla="*/ 413657 h 440872"/>
+            <a:gd name="connsiteX22" fmla="*/ 11919 w 844820"/>
+            <a:gd name="connsiteY22" fmla="*/ 386443 h 440872"/>
+            <a:gd name="connsiteX23" fmla="*/ 1033 w 844820"/>
+            <a:gd name="connsiteY23" fmla="*/ 353786 h 440872"/>
+            <a:gd name="connsiteX24" fmla="*/ 6476 w 844820"/>
+            <a:gd name="connsiteY24" fmla="*/ 92529 h 440872"/>
+            <a:gd name="connsiteX25" fmla="*/ 28248 w 844820"/>
+            <a:gd name="connsiteY25" fmla="*/ 48986 h 440872"/>
+            <a:gd name="connsiteX26" fmla="*/ 39133 w 844820"/>
+            <a:gd name="connsiteY26" fmla="*/ 27214 h 440872"/>
+            <a:gd name="connsiteX27" fmla="*/ 126219 w 844820"/>
+            <a:gd name="connsiteY27" fmla="*/ 5443 h 440872"/>
+            <a:gd name="connsiteX28" fmla="*/ 267733 w 844820"/>
+            <a:gd name="connsiteY28" fmla="*/ 5443 h 440872"/>
+            <a:gd name="connsiteX29" fmla="*/ 267733 w 844820"/>
+            <a:gd name="connsiteY29" fmla="*/ 48986 h 440872"/>
+            <a:gd name="connsiteX30" fmla="*/ 801133 w 844820"/>
+            <a:gd name="connsiteY30" fmla="*/ 223157 h 440872"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX6" y="connsiteY6"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX7" y="connsiteY7"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX8" y="connsiteY8"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX9" y="connsiteY9"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX10" y="connsiteY10"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX11" y="connsiteY11"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX12" y="connsiteY12"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX13" y="connsiteY13"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX14" y="connsiteY14"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX15" y="connsiteY15"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX16" y="connsiteY16"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX17" y="connsiteY17"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX18" y="connsiteY18"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX19" y="connsiteY19"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX20" y="connsiteY20"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX21" y="connsiteY21"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX22" y="connsiteY22"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX23" y="connsiteY23"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX24" y="connsiteY24"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX25" y="connsiteY25"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX26" y="connsiteY26"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX27" y="connsiteY27"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX28" y="connsiteY28"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX29" y="connsiteY29"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX30" y="connsiteY30"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="844820" h="440872">
+              <a:moveTo>
+                <a:pt x="191533" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="191533" y="0"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="204680" y="6574"/>
+                <a:pt x="278323" y="45259"/>
+                <a:pt x="305833" y="54429"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="320026" y="59160"/>
+                <a:pt x="334862" y="61686"/>
+                <a:pt x="349376" y="65314"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="363890" y="76200"/>
+                <a:pt x="376910" y="89434"/>
+                <a:pt x="392919" y="97972"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="404573" y="104188"/>
+                <a:pt x="418846" y="103732"/>
+                <a:pt x="431019" y="108857"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="453453" y="118303"/>
+                <a:pt x="473899" y="132068"/>
+                <a:pt x="496333" y="141514"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="508506" y="146640"/>
+                <a:pt x="521958" y="148061"/>
+                <a:pt x="534433" y="152400"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="563715" y="162585"/>
+                <a:pt x="591776" y="176309"/>
+                <a:pt x="621519" y="185057"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="721224" y="214383"/>
+                <a:pt x="682858" y="204476"/>
+                <a:pt x="735819" y="217714"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="750333" y="224971"/>
+                <a:pt x="767887" y="228011"/>
+                <a:pt x="779362" y="239486"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="786619" y="246743"/>
+                <a:pt x="794975" y="253047"/>
+                <a:pt x="801133" y="261257"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="806001" y="267748"/>
+                <a:pt x="806281" y="277292"/>
+                <a:pt x="812019" y="283029"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="817756" y="288766"/>
+                <a:pt x="826534" y="290286"/>
+                <a:pt x="833791" y="293914"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="837419" y="301171"/>
+                <a:pt x="843670" y="307635"/>
+                <a:pt x="844676" y="315686"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="845604" y="323109"/>
+                <a:pt x="841859" y="330453"/>
+                <a:pt x="839233" y="337457"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="829348" y="363817"/>
+                <a:pt x="819602" y="372539"/>
+                <a:pt x="790248" y="386443"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="769508" y="396267"/>
+                <a:pt x="745459" y="397950"/>
+                <a:pt x="724933" y="408214"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="717676" y="411843"/>
+                <a:pt x="710695" y="416087"/>
+                <a:pt x="703162" y="419100"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="684334" y="426631"/>
+                <a:pt x="651196" y="435503"/>
+                <a:pt x="632405" y="440872"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="556205" y="439058"/>
+                <a:pt x="479745" y="441976"/>
+                <a:pt x="403805" y="435429"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="373993" y="432859"/>
+                <a:pt x="346482" y="416736"/>
+                <a:pt x="316719" y="413657"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="110017" y="392275"/>
+                <a:pt x="211627" y="401237"/>
+                <a:pt x="11919" y="386443"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="8290" y="375557"/>
+                <a:pt x="1245" y="365259"/>
+                <a:pt x="1033" y="353786"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="-580" y="266696"/>
+                <a:pt x="-1271" y="179288"/>
+                <a:pt x="6476" y="92529"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="7919" y="76366"/>
+                <a:pt x="20991" y="63500"/>
+                <a:pt x="28248" y="48986"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="31877" y="41729"/>
+                <a:pt x="31876" y="30842"/>
+                <a:pt x="39133" y="27214"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="73776" y="9894"/>
+                <a:pt x="71593" y="8318"/>
+                <a:pt x="126219" y="5443"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="173325" y="2964"/>
+                <a:pt x="220562" y="5443"/>
+                <a:pt x="267733" y="5443"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="267733" y="48986"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="801133" y="223157"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>6</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>287438</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>125185</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>479115</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>59872</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="フリーフォーム 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2900009" y="1475014"/>
+          <a:ext cx="844820" cy="440872"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 191533 w 844820"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 440872"/>
+            <a:gd name="connsiteX1" fmla="*/ 191533 w 844820"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 440872"/>
+            <a:gd name="connsiteX2" fmla="*/ 305833 w 844820"/>
+            <a:gd name="connsiteY2" fmla="*/ 54429 h 440872"/>
+            <a:gd name="connsiteX3" fmla="*/ 349376 w 844820"/>
+            <a:gd name="connsiteY3" fmla="*/ 65314 h 440872"/>
+            <a:gd name="connsiteX4" fmla="*/ 392919 w 844820"/>
+            <a:gd name="connsiteY4" fmla="*/ 97972 h 440872"/>
+            <a:gd name="connsiteX5" fmla="*/ 431019 w 844820"/>
+            <a:gd name="connsiteY5" fmla="*/ 108857 h 440872"/>
+            <a:gd name="connsiteX6" fmla="*/ 496333 w 844820"/>
+            <a:gd name="connsiteY6" fmla="*/ 141514 h 440872"/>
+            <a:gd name="connsiteX7" fmla="*/ 534433 w 844820"/>
+            <a:gd name="connsiteY7" fmla="*/ 152400 h 440872"/>
+            <a:gd name="connsiteX8" fmla="*/ 621519 w 844820"/>
+            <a:gd name="connsiteY8" fmla="*/ 185057 h 440872"/>
+            <a:gd name="connsiteX9" fmla="*/ 735819 w 844820"/>
+            <a:gd name="connsiteY9" fmla="*/ 217714 h 440872"/>
+            <a:gd name="connsiteX10" fmla="*/ 779362 w 844820"/>
+            <a:gd name="connsiteY10" fmla="*/ 239486 h 440872"/>
+            <a:gd name="connsiteX11" fmla="*/ 801133 w 844820"/>
+            <a:gd name="connsiteY11" fmla="*/ 261257 h 440872"/>
+            <a:gd name="connsiteX12" fmla="*/ 812019 w 844820"/>
+            <a:gd name="connsiteY12" fmla="*/ 283029 h 440872"/>
+            <a:gd name="connsiteX13" fmla="*/ 833791 w 844820"/>
+            <a:gd name="connsiteY13" fmla="*/ 293914 h 440872"/>
+            <a:gd name="connsiteX14" fmla="*/ 844676 w 844820"/>
+            <a:gd name="connsiteY14" fmla="*/ 315686 h 440872"/>
+            <a:gd name="connsiteX15" fmla="*/ 839233 w 844820"/>
+            <a:gd name="connsiteY15" fmla="*/ 337457 h 440872"/>
+            <a:gd name="connsiteX16" fmla="*/ 790248 w 844820"/>
+            <a:gd name="connsiteY16" fmla="*/ 386443 h 440872"/>
+            <a:gd name="connsiteX17" fmla="*/ 724933 w 844820"/>
+            <a:gd name="connsiteY17" fmla="*/ 408214 h 440872"/>
+            <a:gd name="connsiteX18" fmla="*/ 703162 w 844820"/>
+            <a:gd name="connsiteY18" fmla="*/ 419100 h 440872"/>
+            <a:gd name="connsiteX19" fmla="*/ 632405 w 844820"/>
+            <a:gd name="connsiteY19" fmla="*/ 440872 h 440872"/>
+            <a:gd name="connsiteX20" fmla="*/ 403805 w 844820"/>
+            <a:gd name="connsiteY20" fmla="*/ 435429 h 440872"/>
+            <a:gd name="connsiteX21" fmla="*/ 316719 w 844820"/>
+            <a:gd name="connsiteY21" fmla="*/ 413657 h 440872"/>
+            <a:gd name="connsiteX22" fmla="*/ 11919 w 844820"/>
+            <a:gd name="connsiteY22" fmla="*/ 386443 h 440872"/>
+            <a:gd name="connsiteX23" fmla="*/ 1033 w 844820"/>
+            <a:gd name="connsiteY23" fmla="*/ 353786 h 440872"/>
+            <a:gd name="connsiteX24" fmla="*/ 6476 w 844820"/>
+            <a:gd name="connsiteY24" fmla="*/ 92529 h 440872"/>
+            <a:gd name="connsiteX25" fmla="*/ 28248 w 844820"/>
+            <a:gd name="connsiteY25" fmla="*/ 48986 h 440872"/>
+            <a:gd name="connsiteX26" fmla="*/ 39133 w 844820"/>
+            <a:gd name="connsiteY26" fmla="*/ 27214 h 440872"/>
+            <a:gd name="connsiteX27" fmla="*/ 126219 w 844820"/>
+            <a:gd name="connsiteY27" fmla="*/ 5443 h 440872"/>
+            <a:gd name="connsiteX28" fmla="*/ 267733 w 844820"/>
+            <a:gd name="connsiteY28" fmla="*/ 5443 h 440872"/>
+            <a:gd name="connsiteX29" fmla="*/ 267733 w 844820"/>
+            <a:gd name="connsiteY29" fmla="*/ 48986 h 440872"/>
+            <a:gd name="connsiteX30" fmla="*/ 801133 w 844820"/>
+            <a:gd name="connsiteY30" fmla="*/ 223157 h 440872"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX6" y="connsiteY6"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX7" y="connsiteY7"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX8" y="connsiteY8"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX9" y="connsiteY9"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX10" y="connsiteY10"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX11" y="connsiteY11"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX12" y="connsiteY12"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX13" y="connsiteY13"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX14" y="connsiteY14"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX15" y="connsiteY15"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX16" y="connsiteY16"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX17" y="connsiteY17"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX18" y="connsiteY18"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX19" y="connsiteY19"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX20" y="connsiteY20"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX21" y="connsiteY21"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX22" y="connsiteY22"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX23" y="connsiteY23"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX24" y="connsiteY24"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX25" y="connsiteY25"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX26" y="connsiteY26"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX27" y="connsiteY27"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX28" y="connsiteY28"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX29" y="connsiteY29"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX30" y="connsiteY30"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="844820" h="440872">
+              <a:moveTo>
+                <a:pt x="191533" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="191533" y="0"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="204680" y="6574"/>
+                <a:pt x="278323" y="45259"/>
+                <a:pt x="305833" y="54429"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="320026" y="59160"/>
+                <a:pt x="334862" y="61686"/>
+                <a:pt x="349376" y="65314"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="363890" y="76200"/>
+                <a:pt x="376910" y="89434"/>
+                <a:pt x="392919" y="97972"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="404573" y="104188"/>
+                <a:pt x="418846" y="103732"/>
+                <a:pt x="431019" y="108857"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="453453" y="118303"/>
+                <a:pt x="473899" y="132068"/>
+                <a:pt x="496333" y="141514"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="508506" y="146640"/>
+                <a:pt x="521958" y="148061"/>
+                <a:pt x="534433" y="152400"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="563715" y="162585"/>
+                <a:pt x="591776" y="176309"/>
+                <a:pt x="621519" y="185057"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="721224" y="214383"/>
+                <a:pt x="682858" y="204476"/>
+                <a:pt x="735819" y="217714"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="750333" y="224971"/>
+                <a:pt x="767887" y="228011"/>
+                <a:pt x="779362" y="239486"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="786619" y="246743"/>
+                <a:pt x="794975" y="253047"/>
+                <a:pt x="801133" y="261257"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="806001" y="267748"/>
+                <a:pt x="806281" y="277292"/>
+                <a:pt x="812019" y="283029"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="817756" y="288766"/>
+                <a:pt x="826534" y="290286"/>
+                <a:pt x="833791" y="293914"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="837419" y="301171"/>
+                <a:pt x="843670" y="307635"/>
+                <a:pt x="844676" y="315686"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="845604" y="323109"/>
+                <a:pt x="841859" y="330453"/>
+                <a:pt x="839233" y="337457"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="829348" y="363817"/>
+                <a:pt x="819602" y="372539"/>
+                <a:pt x="790248" y="386443"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="769508" y="396267"/>
+                <a:pt x="745459" y="397950"/>
+                <a:pt x="724933" y="408214"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="717676" y="411843"/>
+                <a:pt x="710695" y="416087"/>
+                <a:pt x="703162" y="419100"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="684334" y="426631"/>
+                <a:pt x="651196" y="435503"/>
+                <a:pt x="632405" y="440872"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="556205" y="439058"/>
+                <a:pt x="479745" y="441976"/>
+                <a:pt x="403805" y="435429"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="373993" y="432859"/>
+                <a:pt x="346482" y="416736"/>
+                <a:pt x="316719" y="413657"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="110017" y="392275"/>
+                <a:pt x="211627" y="401237"/>
+                <a:pt x="11919" y="386443"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="8290" y="375557"/>
+                <a:pt x="1245" y="365259"/>
+                <a:pt x="1033" y="353786"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="-580" y="266696"/>
+                <a:pt x="-1271" y="179288"/>
+                <a:pt x="6476" y="92529"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="7919" y="76366"/>
+                <a:pt x="20991" y="63500"/>
+                <a:pt x="28248" y="48986"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="31877" y="41729"/>
+                <a:pt x="31876" y="30842"/>
+                <a:pt x="39133" y="27214"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="73776" y="9894"/>
+                <a:pt x="71593" y="8318"/>
+                <a:pt x="126219" y="5443"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="173325" y="2964"/>
+                <a:pt x="220562" y="5443"/>
+                <a:pt x="267733" y="5443"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="267733" y="48986"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="801133" y="223157"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>6</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>647699</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>157864</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>234042</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>27235</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1300842" y="2013878"/>
+          <a:ext cx="3505200" cy="2062843"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>647701</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>65314</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="角丸四角形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1649187" y="2269671"/>
+          <a:ext cx="2917371" cy="1676400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>70778</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>103415</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>119764</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="角丸四角形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2073729" y="3782807"/>
+          <a:ext cx="1948543" cy="555171"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>642257</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>43563</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>408214</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>119764</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="角丸四角形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1948543" y="1730849"/>
+          <a:ext cx="2378528" cy="582386"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>527958</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>136092</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>87086</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>10905</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="角丸四角形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1181101" y="2329563"/>
+          <a:ext cx="212271" cy="212271"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>522515</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>70777</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>81643</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>108877</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="角丸四角形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1175658" y="2601706"/>
+          <a:ext cx="212271" cy="206828"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>125185</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>59891</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>370113</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>146976</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="角丸四角形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4697185" y="3603191"/>
+          <a:ext cx="244928" cy="255814"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>310243</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>125207</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>636814</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>97992</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="右矢印 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4882243" y="3668507"/>
+          <a:ext cx="979714" cy="141514"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>261257</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>5443</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>391885</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="下矢印 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2873828" y="4223657"/>
+          <a:ext cx="130628" cy="707572"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>375555</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>5443</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>544284</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="下矢印 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2988126" y="1186543"/>
+          <a:ext cx="168729" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>48985</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>27235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>620485</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>20</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="右矢印 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="702128" y="2389435"/>
+          <a:ext cx="571500" cy="141514"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>70756</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>119763</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>642256</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>92549</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="右矢印 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="723899" y="2650692"/>
+          <a:ext cx="571500" cy="141514"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>140480</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>332158</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>97972</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="フリーフォーム 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2099909" y="2862943"/>
+          <a:ext cx="844820" cy="440872"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 191533 w 844820"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 440872"/>
+            <a:gd name="connsiteX1" fmla="*/ 191533 w 844820"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 440872"/>
+            <a:gd name="connsiteX2" fmla="*/ 305833 w 844820"/>
+            <a:gd name="connsiteY2" fmla="*/ 54429 h 440872"/>
+            <a:gd name="connsiteX3" fmla="*/ 349376 w 844820"/>
+            <a:gd name="connsiteY3" fmla="*/ 65314 h 440872"/>
+            <a:gd name="connsiteX4" fmla="*/ 392919 w 844820"/>
+            <a:gd name="connsiteY4" fmla="*/ 97972 h 440872"/>
+            <a:gd name="connsiteX5" fmla="*/ 431019 w 844820"/>
+            <a:gd name="connsiteY5" fmla="*/ 108857 h 440872"/>
+            <a:gd name="connsiteX6" fmla="*/ 496333 w 844820"/>
+            <a:gd name="connsiteY6" fmla="*/ 141514 h 440872"/>
+            <a:gd name="connsiteX7" fmla="*/ 534433 w 844820"/>
+            <a:gd name="connsiteY7" fmla="*/ 152400 h 440872"/>
+            <a:gd name="connsiteX8" fmla="*/ 621519 w 844820"/>
+            <a:gd name="connsiteY8" fmla="*/ 185057 h 440872"/>
+            <a:gd name="connsiteX9" fmla="*/ 735819 w 844820"/>
+            <a:gd name="connsiteY9" fmla="*/ 217714 h 440872"/>
+            <a:gd name="connsiteX10" fmla="*/ 779362 w 844820"/>
+            <a:gd name="connsiteY10" fmla="*/ 239486 h 440872"/>
+            <a:gd name="connsiteX11" fmla="*/ 801133 w 844820"/>
+            <a:gd name="connsiteY11" fmla="*/ 261257 h 440872"/>
+            <a:gd name="connsiteX12" fmla="*/ 812019 w 844820"/>
+            <a:gd name="connsiteY12" fmla="*/ 283029 h 440872"/>
+            <a:gd name="connsiteX13" fmla="*/ 833791 w 844820"/>
+            <a:gd name="connsiteY13" fmla="*/ 293914 h 440872"/>
+            <a:gd name="connsiteX14" fmla="*/ 844676 w 844820"/>
+            <a:gd name="connsiteY14" fmla="*/ 315686 h 440872"/>
+            <a:gd name="connsiteX15" fmla="*/ 839233 w 844820"/>
+            <a:gd name="connsiteY15" fmla="*/ 337457 h 440872"/>
+            <a:gd name="connsiteX16" fmla="*/ 790248 w 844820"/>
+            <a:gd name="connsiteY16" fmla="*/ 386443 h 440872"/>
+            <a:gd name="connsiteX17" fmla="*/ 724933 w 844820"/>
+            <a:gd name="connsiteY17" fmla="*/ 408214 h 440872"/>
+            <a:gd name="connsiteX18" fmla="*/ 703162 w 844820"/>
+            <a:gd name="connsiteY18" fmla="*/ 419100 h 440872"/>
+            <a:gd name="connsiteX19" fmla="*/ 632405 w 844820"/>
+            <a:gd name="connsiteY19" fmla="*/ 440872 h 440872"/>
+            <a:gd name="connsiteX20" fmla="*/ 403805 w 844820"/>
+            <a:gd name="connsiteY20" fmla="*/ 435429 h 440872"/>
+            <a:gd name="connsiteX21" fmla="*/ 316719 w 844820"/>
+            <a:gd name="connsiteY21" fmla="*/ 413657 h 440872"/>
+            <a:gd name="connsiteX22" fmla="*/ 11919 w 844820"/>
+            <a:gd name="connsiteY22" fmla="*/ 386443 h 440872"/>
+            <a:gd name="connsiteX23" fmla="*/ 1033 w 844820"/>
+            <a:gd name="connsiteY23" fmla="*/ 353786 h 440872"/>
+            <a:gd name="connsiteX24" fmla="*/ 6476 w 844820"/>
+            <a:gd name="connsiteY24" fmla="*/ 92529 h 440872"/>
+            <a:gd name="connsiteX25" fmla="*/ 28248 w 844820"/>
+            <a:gd name="connsiteY25" fmla="*/ 48986 h 440872"/>
+            <a:gd name="connsiteX26" fmla="*/ 39133 w 844820"/>
+            <a:gd name="connsiteY26" fmla="*/ 27214 h 440872"/>
+            <a:gd name="connsiteX27" fmla="*/ 126219 w 844820"/>
+            <a:gd name="connsiteY27" fmla="*/ 5443 h 440872"/>
+            <a:gd name="connsiteX28" fmla="*/ 267733 w 844820"/>
+            <a:gd name="connsiteY28" fmla="*/ 5443 h 440872"/>
+            <a:gd name="connsiteX29" fmla="*/ 267733 w 844820"/>
+            <a:gd name="connsiteY29" fmla="*/ 48986 h 440872"/>
+            <a:gd name="connsiteX30" fmla="*/ 801133 w 844820"/>
+            <a:gd name="connsiteY30" fmla="*/ 223157 h 440872"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX6" y="connsiteY6"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX7" y="connsiteY7"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX8" y="connsiteY8"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX9" y="connsiteY9"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX10" y="connsiteY10"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX11" y="connsiteY11"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX12" y="connsiteY12"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX13" y="connsiteY13"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX14" y="connsiteY14"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX15" y="connsiteY15"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX16" y="connsiteY16"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX17" y="connsiteY17"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX18" y="connsiteY18"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX19" y="connsiteY19"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX20" y="connsiteY20"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX21" y="connsiteY21"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX22" y="connsiteY22"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX23" y="connsiteY23"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX24" y="connsiteY24"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX25" y="connsiteY25"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX26" y="connsiteY26"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX27" y="connsiteY27"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX28" y="connsiteY28"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX29" y="connsiteY29"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX30" y="connsiteY30"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="844820" h="440872">
+              <a:moveTo>
+                <a:pt x="191533" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="191533" y="0"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="204680" y="6574"/>
+                <a:pt x="278323" y="45259"/>
+                <a:pt x="305833" y="54429"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="320026" y="59160"/>
+                <a:pt x="334862" y="61686"/>
+                <a:pt x="349376" y="65314"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="363890" y="76200"/>
+                <a:pt x="376910" y="89434"/>
+                <a:pt x="392919" y="97972"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="404573" y="104188"/>
+                <a:pt x="418846" y="103732"/>
+                <a:pt x="431019" y="108857"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="453453" y="118303"/>
+                <a:pt x="473899" y="132068"/>
+                <a:pt x="496333" y="141514"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="508506" y="146640"/>
+                <a:pt x="521958" y="148061"/>
+                <a:pt x="534433" y="152400"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="563715" y="162585"/>
+                <a:pt x="591776" y="176309"/>
+                <a:pt x="621519" y="185057"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="721224" y="214383"/>
+                <a:pt x="682858" y="204476"/>
+                <a:pt x="735819" y="217714"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="750333" y="224971"/>
+                <a:pt x="767887" y="228011"/>
+                <a:pt x="779362" y="239486"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="786619" y="246743"/>
+                <a:pt x="794975" y="253047"/>
+                <a:pt x="801133" y="261257"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="806001" y="267748"/>
+                <a:pt x="806281" y="277292"/>
+                <a:pt x="812019" y="283029"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="817756" y="288766"/>
+                <a:pt x="826534" y="290286"/>
+                <a:pt x="833791" y="293914"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="837419" y="301171"/>
+                <a:pt x="843670" y="307635"/>
+                <a:pt x="844676" y="315686"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="845604" y="323109"/>
+                <a:pt x="841859" y="330453"/>
+                <a:pt x="839233" y="337457"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="829348" y="363817"/>
+                <a:pt x="819602" y="372539"/>
+                <a:pt x="790248" y="386443"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="769508" y="396267"/>
+                <a:pt x="745459" y="397950"/>
+                <a:pt x="724933" y="408214"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="717676" y="411843"/>
+                <a:pt x="710695" y="416087"/>
+                <a:pt x="703162" y="419100"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="684334" y="426631"/>
+                <a:pt x="651196" y="435503"/>
+                <a:pt x="632405" y="440872"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="556205" y="439058"/>
+                <a:pt x="479745" y="441976"/>
+                <a:pt x="403805" y="435429"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="373993" y="432859"/>
+                <a:pt x="346482" y="416736"/>
+                <a:pt x="316719" y="413657"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="110017" y="392275"/>
+                <a:pt x="211627" y="401237"/>
+                <a:pt x="11919" y="386443"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="8290" y="375557"/>
+                <a:pt x="1245" y="365259"/>
+                <a:pt x="1033" y="353786"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="-580" y="266696"/>
+                <a:pt x="-1271" y="179288"/>
+                <a:pt x="6476" y="92529"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="7919" y="76366"/>
+                <a:pt x="20991" y="63500"/>
+                <a:pt x="28248" y="48986"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="31877" y="41729"/>
+                <a:pt x="31876" y="30842"/>
+                <a:pt x="39133" y="27214"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="73776" y="9894"/>
+                <a:pt x="71593" y="8318"/>
+                <a:pt x="126219" y="5443"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="173325" y="2964"/>
+                <a:pt x="220562" y="5443"/>
+                <a:pt x="267733" y="5443"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="267733" y="48986"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="801133" y="223157"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>6</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>151366</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>343043</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>16329</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="フリーフォーム 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3417080" y="2781300"/>
+          <a:ext cx="844820" cy="440872"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 191533 w 844820"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 440872"/>
+            <a:gd name="connsiteX1" fmla="*/ 191533 w 844820"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 440872"/>
+            <a:gd name="connsiteX2" fmla="*/ 305833 w 844820"/>
+            <a:gd name="connsiteY2" fmla="*/ 54429 h 440872"/>
+            <a:gd name="connsiteX3" fmla="*/ 349376 w 844820"/>
+            <a:gd name="connsiteY3" fmla="*/ 65314 h 440872"/>
+            <a:gd name="connsiteX4" fmla="*/ 392919 w 844820"/>
+            <a:gd name="connsiteY4" fmla="*/ 97972 h 440872"/>
+            <a:gd name="connsiteX5" fmla="*/ 431019 w 844820"/>
+            <a:gd name="connsiteY5" fmla="*/ 108857 h 440872"/>
+            <a:gd name="connsiteX6" fmla="*/ 496333 w 844820"/>
+            <a:gd name="connsiteY6" fmla="*/ 141514 h 440872"/>
+            <a:gd name="connsiteX7" fmla="*/ 534433 w 844820"/>
+            <a:gd name="connsiteY7" fmla="*/ 152400 h 440872"/>
+            <a:gd name="connsiteX8" fmla="*/ 621519 w 844820"/>
+            <a:gd name="connsiteY8" fmla="*/ 185057 h 440872"/>
+            <a:gd name="connsiteX9" fmla="*/ 735819 w 844820"/>
+            <a:gd name="connsiteY9" fmla="*/ 217714 h 440872"/>
+            <a:gd name="connsiteX10" fmla="*/ 779362 w 844820"/>
+            <a:gd name="connsiteY10" fmla="*/ 239486 h 440872"/>
+            <a:gd name="connsiteX11" fmla="*/ 801133 w 844820"/>
+            <a:gd name="connsiteY11" fmla="*/ 261257 h 440872"/>
+            <a:gd name="connsiteX12" fmla="*/ 812019 w 844820"/>
+            <a:gd name="connsiteY12" fmla="*/ 283029 h 440872"/>
+            <a:gd name="connsiteX13" fmla="*/ 833791 w 844820"/>
+            <a:gd name="connsiteY13" fmla="*/ 293914 h 440872"/>
+            <a:gd name="connsiteX14" fmla="*/ 844676 w 844820"/>
+            <a:gd name="connsiteY14" fmla="*/ 315686 h 440872"/>
+            <a:gd name="connsiteX15" fmla="*/ 839233 w 844820"/>
+            <a:gd name="connsiteY15" fmla="*/ 337457 h 440872"/>
+            <a:gd name="connsiteX16" fmla="*/ 790248 w 844820"/>
+            <a:gd name="connsiteY16" fmla="*/ 386443 h 440872"/>
+            <a:gd name="connsiteX17" fmla="*/ 724933 w 844820"/>
+            <a:gd name="connsiteY17" fmla="*/ 408214 h 440872"/>
+            <a:gd name="connsiteX18" fmla="*/ 703162 w 844820"/>
+            <a:gd name="connsiteY18" fmla="*/ 419100 h 440872"/>
+            <a:gd name="connsiteX19" fmla="*/ 632405 w 844820"/>
+            <a:gd name="connsiteY19" fmla="*/ 440872 h 440872"/>
+            <a:gd name="connsiteX20" fmla="*/ 403805 w 844820"/>
+            <a:gd name="connsiteY20" fmla="*/ 435429 h 440872"/>
+            <a:gd name="connsiteX21" fmla="*/ 316719 w 844820"/>
+            <a:gd name="connsiteY21" fmla="*/ 413657 h 440872"/>
+            <a:gd name="connsiteX22" fmla="*/ 11919 w 844820"/>
+            <a:gd name="connsiteY22" fmla="*/ 386443 h 440872"/>
+            <a:gd name="connsiteX23" fmla="*/ 1033 w 844820"/>
+            <a:gd name="connsiteY23" fmla="*/ 353786 h 440872"/>
+            <a:gd name="connsiteX24" fmla="*/ 6476 w 844820"/>
+            <a:gd name="connsiteY24" fmla="*/ 92529 h 440872"/>
+            <a:gd name="connsiteX25" fmla="*/ 28248 w 844820"/>
+            <a:gd name="connsiteY25" fmla="*/ 48986 h 440872"/>
+            <a:gd name="connsiteX26" fmla="*/ 39133 w 844820"/>
+            <a:gd name="connsiteY26" fmla="*/ 27214 h 440872"/>
+            <a:gd name="connsiteX27" fmla="*/ 126219 w 844820"/>
+            <a:gd name="connsiteY27" fmla="*/ 5443 h 440872"/>
+            <a:gd name="connsiteX28" fmla="*/ 267733 w 844820"/>
+            <a:gd name="connsiteY28" fmla="*/ 5443 h 440872"/>
+            <a:gd name="connsiteX29" fmla="*/ 267733 w 844820"/>
+            <a:gd name="connsiteY29" fmla="*/ 48986 h 440872"/>
+            <a:gd name="connsiteX30" fmla="*/ 801133 w 844820"/>
+            <a:gd name="connsiteY30" fmla="*/ 223157 h 440872"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX6" y="connsiteY6"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX7" y="connsiteY7"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX8" y="connsiteY8"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX9" y="connsiteY9"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX10" y="connsiteY10"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX11" y="connsiteY11"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX12" y="connsiteY12"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX13" y="connsiteY13"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX14" y="connsiteY14"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX15" y="connsiteY15"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX16" y="connsiteY16"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX17" y="connsiteY17"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX18" y="connsiteY18"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX19" y="connsiteY19"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX20" y="connsiteY20"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX21" y="connsiteY21"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX22" y="connsiteY22"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX23" y="connsiteY23"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX24" y="connsiteY24"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX25" y="connsiteY25"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX26" y="connsiteY26"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX27" y="connsiteY27"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX28" y="connsiteY28"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX29" y="connsiteY29"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX30" y="connsiteY30"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="844820" h="440872">
+              <a:moveTo>
+                <a:pt x="191533" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="191533" y="0"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="204680" y="6574"/>
+                <a:pt x="278323" y="45259"/>
+                <a:pt x="305833" y="54429"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="320026" y="59160"/>
+                <a:pt x="334862" y="61686"/>
+                <a:pt x="349376" y="65314"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="363890" y="76200"/>
+                <a:pt x="376910" y="89434"/>
+                <a:pt x="392919" y="97972"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="404573" y="104188"/>
+                <a:pt x="418846" y="103732"/>
+                <a:pt x="431019" y="108857"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="453453" y="118303"/>
+                <a:pt x="473899" y="132068"/>
+                <a:pt x="496333" y="141514"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="508506" y="146640"/>
+                <a:pt x="521958" y="148061"/>
+                <a:pt x="534433" y="152400"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="563715" y="162585"/>
+                <a:pt x="591776" y="176309"/>
+                <a:pt x="621519" y="185057"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="721224" y="214383"/>
+                <a:pt x="682858" y="204476"/>
+                <a:pt x="735819" y="217714"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="750333" y="224971"/>
+                <a:pt x="767887" y="228011"/>
+                <a:pt x="779362" y="239486"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="786619" y="246743"/>
+                <a:pt x="794975" y="253047"/>
+                <a:pt x="801133" y="261257"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="806001" y="267748"/>
+                <a:pt x="806281" y="277292"/>
+                <a:pt x="812019" y="283029"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="817756" y="288766"/>
+                <a:pt x="826534" y="290286"/>
+                <a:pt x="833791" y="293914"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="837419" y="301171"/>
+                <a:pt x="843670" y="307635"/>
+                <a:pt x="844676" y="315686"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="845604" y="323109"/>
+                <a:pt x="841859" y="330453"/>
+                <a:pt x="839233" y="337457"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="829348" y="363817"/>
+                <a:pt x="819602" y="372539"/>
+                <a:pt x="790248" y="386443"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="769508" y="396267"/>
+                <a:pt x="745459" y="397950"/>
+                <a:pt x="724933" y="408214"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="717676" y="411843"/>
+                <a:pt x="710695" y="416087"/>
+                <a:pt x="703162" y="419100"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="684334" y="426631"/>
+                <a:pt x="651196" y="435503"/>
+                <a:pt x="632405" y="440872"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="556205" y="439058"/>
+                <a:pt x="479745" y="441976"/>
+                <a:pt x="403805" y="435429"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="373993" y="432859"/>
+                <a:pt x="346482" y="416736"/>
+                <a:pt x="316719" y="413657"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="110017" y="392275"/>
+                <a:pt x="211627" y="401237"/>
+                <a:pt x="11919" y="386443"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="8290" y="375557"/>
+                <a:pt x="1245" y="365259"/>
+                <a:pt x="1033" y="353786"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="-580" y="266696"/>
+                <a:pt x="-1271" y="179288"/>
+                <a:pt x="6476" y="92529"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="7919" y="76366"/>
+                <a:pt x="20991" y="63500"/>
+                <a:pt x="28248" y="48986"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="31877" y="41729"/>
+                <a:pt x="31876" y="30842"/>
+                <a:pt x="39133" y="27214"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="73776" y="9894"/>
+                <a:pt x="71593" y="8318"/>
+                <a:pt x="126219" y="5443"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="173325" y="2964"/>
+                <a:pt x="220562" y="5443"/>
+                <a:pt x="267733" y="5443"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="267733" y="48986"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="801133" y="223157"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>6</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>146957</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>234043</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>16328</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647700" y="484414"/>
+          <a:ext cx="3505200" cy="2062843"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="角丸四角形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="919843" y="713014"/>
+          <a:ext cx="2917371" cy="1676400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>244928</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>48986</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>21771</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>108858</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="角丸四角形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1551214" y="2073729"/>
+          <a:ext cx="429986" cy="397329"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>130628</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>48986</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>560614</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>108858</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="角丸四角形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2090057" y="2073729"/>
+          <a:ext cx="429986" cy="397329"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>32658</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>462644</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>103415</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="角丸四角形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2645229" y="2068286"/>
+          <a:ext cx="429986" cy="397329"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>223157</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>141515</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>625928</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>59871</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="角丸四角形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="876300" y="1997529"/>
+          <a:ext cx="402771" cy="424542"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>348343</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>157843</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>130629</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>70757</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="角丸四角形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3614057" y="2013857"/>
+          <a:ext cx="435429" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>244928</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="角丸四角形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="898071" y="500743"/>
+          <a:ext cx="3048000" cy="364672"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>429986</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>125186</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>59872</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="角丸四角形 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3695700" y="462643"/>
+          <a:ext cx="451757" cy="440872"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>6</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -456,7 +6458,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.3" x14ac:dyDescent="0.25"/>
@@ -470,10 +6472,10 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="2"/>
       <c r="D3" t="s">
         <v>3</v>
       </c>
@@ -485,60 +6487,60 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="2"/>
       <c r="D4" t="s">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="2"/>
       <c r="D5" t="s">
         <v>3</v>
       </c>
       <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>13</v>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>14</v>
+      <c r="B14" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -553,6 +6555,8 @@
     <hyperlink ref="A10:B10" location="TitleScene!A1" display="①"/>
     <hyperlink ref="A12:B12" location="MainScene!A1" display="②"/>
     <hyperlink ref="A14:B14" location="OverScene!A1" display="③"/>
+    <hyperlink ref="B10" location="TitleScene!A1" display="【TitleScene】"/>
+    <hyperlink ref="B12" location="MainScene!A1" display="【MainScene】"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -560,33 +6564,523 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.3" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>3</v>
+      </c>
+      <c r="B52" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>4</v>
+      </c>
+      <c r="B53" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>5</v>
+      </c>
+      <c r="B54" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="A4" location="TitleScene_画面1!A1" display="画面①"/>
+    <hyperlink ref="A27" location="TitleScene_画面2!A1" display="画面②"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.3" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B31" location="MainScene_画面2!A1" display="画面イメージ２"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:E33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B41" location="MainScene!A1" display="MainScene"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="69" yWindow="103" windowWidth="31774" windowHeight="15609" activeTab="4"/>
+    <workbookView xWindow="69" yWindow="103" windowWidth="31774" windowHeight="15609"/>
   </bookViews>
   <sheets>
     <sheet name="総合紹介" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="TitleScene_画面1" sheetId="5" r:id="rId3"/>
     <sheet name="TitleScene_画面2" sheetId="6" r:id="rId4"/>
     <sheet name="MainScene" sheetId="2" r:id="rId5"/>
-    <sheet name="OverScene" sheetId="4" r:id="rId6"/>
+    <sheet name="OverScene(Credit)" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="88">
   <si>
     <t>ゲーム1.0のバージョンのメインシーン3つありますは</t>
     <phoneticPr fontId="1"/>
@@ -69,10 +69,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>【OverScene】</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>画面①</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
@@ -328,25 +324,6 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>ビョウガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1から6が全部画面中から消すと、MainSceneへ移動します。</t>
-    <rPh sb="5" eb="7">
-      <t>ゼンブ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ケ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>イドウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -429,7 +406,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>実況演出</t>
+    <t>実況演出*</t>
     <rPh sb="0" eb="2">
       <t>ジッキョウ</t>
     </rPh>
@@ -439,13 +416,422 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>色々な演出すること</t>
+    <t>色々な演出すること*</t>
     <rPh sb="0" eb="2">
       <t>イロイロ</t>
     </rPh>
     <rPh sb="3" eb="5">
       <t>エンシュツ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニュー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム勝利条件</t>
+    <rPh sb="3" eb="5">
+      <t>ショウリ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵が基地を崩壊</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キチ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ホウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OverScene</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面①</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面②</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MCVがマップに入る、展開</t>
+    <rPh sb="8" eb="9">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>テンカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1から6が全部画面中から消すとともに、MCVが展開終了後、MainSceneへ移動します。</t>
+    <rPh sb="5" eb="7">
+      <t>ゼンブ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>テンカイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間を切れる前に基地を守れば</t>
+    <rPh sb="0" eb="2">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キチ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>マモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー最初のユニット生成はロックされて、MCVしかありません。資源を払えるとハーベスター(Harvester)、バラックス(Barracks)、ウォーファクトリー(WarFactory)、ヘリパド(Helipad)、テックラボ(TechLab)</t>
+    <rPh sb="5" eb="7">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>シゲン</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ハラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セッティングボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>やり直しボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム終了ボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタンからメニューを展開して、ボタンを１１のボタンに変更</t>
+    <rPh sb="10" eb="12">
+      <t>テンカイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームに戻るボタン</t>
+    <rPh sb="4" eb="5">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セッチング画面を開く</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当ステージをやり直し</t>
+    <rPh sb="0" eb="1">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ナオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリ終了</t>
+    <rPh sb="3" eb="5">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当メニューを畳んで、画面1の状態に戻す</t>
+    <rPh sb="0" eb="1">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>タタ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面③</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニュー画面(②の7)を呼び出しボタン</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勝利/失敗</t>
+    <rPh sb="0" eb="2">
+      <t>ショウリ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勝利メッセージ</t>
+    <rPh sb="0" eb="2">
+      <t>ショウリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基地HP情報/メッセージバー</t>
+    <rPh sb="0" eb="2">
+      <t>キチ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確定ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>カクテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>場合によって、確認して次のステージへ、もう一度挑戦、タイトルへ戻す、ゲーム終了のボタンを表示</t>
+    <rPh sb="0" eb="2">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>チョウセン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Credit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>制作チームに関する情報を流れる</t>
+    <rPh sb="0" eb="2">
+      <t>セイサク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一枚の絵がついている背景、時間の流れと共にpptのように表示</t>
+    <rPh sb="0" eb="2">
+      <t>イチマイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>トモ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下から上まで制作チームに関する情報などを流れる</t>
+    <rPh sb="0" eb="1">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイサク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全ての情報を流れていたか、任意な座標にインプット処理を入れると、タイトル画面に戻ります。</t>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GameOver</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム失敗条件</t>
+    <rPh sb="3" eb="5">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【OverScene(Credit)】</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -504,7 +890,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -519,6 +905,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5651,13 +6040,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>146957</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>234043</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>16328</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5705,13 +6094,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>27214</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5763,13 +6152,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>244928</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>48986</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>21771</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>108858</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5821,13 +6210,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>130628</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>48986</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>560614</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>108858</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5879,13 +6268,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>32658</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>43543</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>462644</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>103415</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5937,13 +6326,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>223157</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>141515</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>625928</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>59871</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5995,13 +6384,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>348343</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>157843</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>130629</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>70757</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6053,13 +6442,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>244928</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>163286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>27214</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>21772</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6111,13 +6500,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>429986</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>125186</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>59872</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6157,7 +6546,1686 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>6</a:t>
+            <a:t>6*</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>642258</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>125187</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>141514</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="角丸四角形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="642258" y="2079172"/>
+          <a:ext cx="136072" cy="424542"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5442</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>21771</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>244928</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>59870</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="角丸四角形 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="658585" y="5083628"/>
+          <a:ext cx="3505200" cy="2062842"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>277585</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>81642</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>582385</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>70757</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="角丸四角形 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="930728" y="5312228"/>
+          <a:ext cx="2917371" cy="1676400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>255813</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>92529</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>32656</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="角丸四角形 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1562099" y="6672943"/>
+          <a:ext cx="429986" cy="397329"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>141513</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>92529</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="角丸四角形 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2100942" y="6672943"/>
+          <a:ext cx="429986" cy="397329"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>43543</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>87086</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>473529</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>146958</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="角丸四角形 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2656114" y="6667500"/>
+          <a:ext cx="429986" cy="397329"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>234042</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>87085</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>636813</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>103413</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="角丸四角形 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="887185" y="6836228"/>
+          <a:ext cx="402771" cy="353785"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>359228</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>141514</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="角丸四角形 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3624942" y="6613071"/>
+          <a:ext cx="435429" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>255813</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>65315</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="角丸四角形 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="908956" y="5099957"/>
+          <a:ext cx="3048000" cy="364672"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>440871</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>239485</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>103415</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="角丸四角形 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3706585" y="5061857"/>
+          <a:ext cx="451757" cy="440872"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>6*</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>97972</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>70757</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>16328</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="角丸四角形 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="653143" y="6847115"/>
+          <a:ext cx="1377043" cy="424542"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>179614</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>119743</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>397329</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="角丸四角形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="832757" y="6868886"/>
+          <a:ext cx="217715" cy="244928"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>8</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>419101</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>141514</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>43543</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="角丸四角形 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1072244" y="6890657"/>
+          <a:ext cx="277585" cy="206829"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>9</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>119744</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>429984</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>65315</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="角丸四角形 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1382485" y="6868887"/>
+          <a:ext cx="353785" cy="283028"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>10</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>576943</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>119743</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>59872</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>70757</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="角丸四角形 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1883229" y="6868886"/>
+          <a:ext cx="136072" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>11</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5442</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>21771</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>244928</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>59870</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="角丸四角形 43"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="658585" y="9808028"/>
+          <a:ext cx="3505200" cy="2062842"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>277585</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>81642</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>582385</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>70756</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="角丸四角形 44"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="930728" y="10036628"/>
+          <a:ext cx="2917371" cy="1676399"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>255813</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>92528</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>32656</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="角丸四角形 45"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1562099" y="11397342"/>
+          <a:ext cx="429986" cy="397329"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>141513</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>92528</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="角丸四角形 46"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2100942" y="11397342"/>
+          <a:ext cx="429986" cy="397329"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>43543</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>87085</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>473529</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>146957</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="角丸四角形 47"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2656114" y="11391899"/>
+          <a:ext cx="429986" cy="397329"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>234042</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>16329</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>636813</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>103413</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="角丸四角形 48"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="887185" y="11321143"/>
+          <a:ext cx="402771" cy="424541"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>359228</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>141514</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="角丸四角形 49"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3624942" y="11337471"/>
+          <a:ext cx="435429" cy="419099"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>255813</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>65314</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="角丸四角形 50"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="908956" y="9824357"/>
+          <a:ext cx="3048000" cy="364671"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>440871</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>239485</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>103414</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="角丸四角形 51"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3706585" y="9786257"/>
+          <a:ext cx="451757" cy="440871"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>6*</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>97971</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>136072</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>16327</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="角丸四角形 52"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="653143" y="11402785"/>
+          <a:ext cx="136072" cy="424542"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>511628</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>397329</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>146957</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="角丸四角形 53"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1164771" y="10352314"/>
+          <a:ext cx="2498272" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>8</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>136072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>212272</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>43544</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="角丸四角形 54"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1997529" y="10956472"/>
+          <a:ext cx="827314" cy="244929"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>9</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>239486</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38098</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="653143" y="337457"/>
+          <a:ext cx="3505200" cy="2062841"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>119743</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>92529</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>179615</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="角丸四角形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1426029" y="429986"/>
+          <a:ext cx="2019300" cy="1845128"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -6457,9 +8525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.3" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -6495,7 +8561,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -6515,7 +8581,7 @@
     </row>
     <row r="7" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -6540,7 +8606,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -6554,7 +8620,7 @@
   <hyperlinks>
     <hyperlink ref="A10:B10" location="TitleScene!A1" display="①"/>
     <hyperlink ref="A12:B12" location="MainScene!A1" display="②"/>
-    <hyperlink ref="A14:B14" location="OverScene!A1" display="③"/>
+    <hyperlink ref="A14:B14" location="'OverScene(Credit)'!A1" display="③"/>
     <hyperlink ref="B10" location="TitleScene!A1" display="【TitleScene】"/>
     <hyperlink ref="B12" location="MainScene!A1" display="【MainScene】"/>
   </hyperlinks>
@@ -6567,19 +8633,19 @@
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.3" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -6587,10 +8653,10 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -6598,10 +8664,10 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -6609,10 +8675,10 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -6620,10 +8686,10 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" t="s">
         <v>22</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -6631,10 +8697,10 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -6642,10 +8708,10 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
         <v>28</v>
-      </c>
-      <c r="D23" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -6653,15 +8719,15 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -6669,10 +8735,10 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -6680,10 +8746,10 @@
         <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -6691,10 +8757,10 @@
         <v>3</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -6702,10 +8768,10 @@
         <v>4</v>
       </c>
       <c r="B53" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" t="s">
         <v>22</v>
-      </c>
-      <c r="D53" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -6713,10 +8779,10 @@
         <v>5</v>
       </c>
       <c r="B54" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" t="s">
         <v>18</v>
-      </c>
-      <c r="D54" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -6735,14 +8801,14 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.3" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -6750,10 +8816,10 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -6761,10 +8827,10 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -6772,10 +8838,10 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -6783,10 +8849,10 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
         <v>22</v>
-      </c>
-      <c r="D22" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -6794,10 +8860,10 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -6805,10 +8871,10 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>28</v>
-      </c>
-      <c r="D24" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -6816,35 +8882,35 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -6859,17 +8925,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:E33"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.3" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -6877,10 +8943,10 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -6888,10 +8954,10 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -6899,10 +8965,10 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -6910,10 +8976,10 @@
         <v>4</v>
       </c>
       <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" t="s">
         <v>22</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -6921,10 +8987,10 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -6932,10 +8998,10 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
         <v>28</v>
-      </c>
-      <c r="D32" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -6943,51 +9009,56 @@
         <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="1" t="s">
-        <v>39</v>
+      <c r="B41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="B41" location="MainScene!A1" display="MainScene"/>
+    <hyperlink ref="B42" location="MainScene!A1" display="MainScene"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6996,85 +9067,368 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.3" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
         <v>43</v>
       </c>
+      <c r="D26" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>1</v>
       </c>
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" t="s">
-        <v>30</v>
+      <c r="B46" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>2</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B47" t="s">
+        <v>42</v>
+      </c>
+      <c r="D47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>3</v>
+      </c>
+      <c r="B48" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48" t="s">
         <v>44</v>
       </c>
-      <c r="D19" t="s">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>4</v>
+      </c>
+      <c r="B49" t="s">
+        <v>45</v>
+      </c>
+      <c r="D49" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>5</v>
+      </c>
+      <c r="B50" t="s">
+        <v>47</v>
+      </c>
+      <c r="D50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>49</v>
+      </c>
+      <c r="D51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>7</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="D52" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>8</v>
+      </c>
+      <c r="B53" t="s">
+        <v>63</v>
+      </c>
+      <c r="D53" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>9</v>
+      </c>
+      <c r="B54" t="s">
+        <v>64</v>
+      </c>
+      <c r="D54" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>10</v>
+      </c>
+      <c r="B55" t="s">
+        <v>65</v>
+      </c>
+      <c r="D55" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>11</v>
+      </c>
+      <c r="B56" t="s">
+        <v>67</v>
+      </c>
+      <c r="D56" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>72</v>
+      </c>
+      <c r="B58" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="B72" t="s">
+        <v>29</v>
+      </c>
+      <c r="D72" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>2</v>
+      </c>
+      <c r="B73" t="s">
+        <v>42</v>
+      </c>
+      <c r="D73" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>3</v>
+      </c>
+      <c r="B74" t="s">
+        <v>43</v>
+      </c>
+      <c r="D74" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>3</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>4</v>
+      </c>
+      <c r="B75" t="s">
         <v>45</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D75" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>4</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>5</v>
+      </c>
+      <c r="B76" t="s">
         <v>47</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D76" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>5</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B77" t="s">
         <v>49</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D77" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>6</v>
-      </c>
-      <c r="B23" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" t="s">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>7</v>
+      </c>
+      <c r="B78" t="s">
         <v>52</v>
+      </c>
+      <c r="D78" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>8</v>
+      </c>
+      <c r="B79" t="s">
+        <v>75</v>
+      </c>
+      <c r="D79" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>9</v>
+      </c>
+      <c r="B80" t="s">
+        <v>77</v>
+      </c>
+      <c r="D80" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="I7" location="'OverScene(Credit)'!A1" display="GameOver"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -7082,15 +9436,57 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.3" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="69" yWindow="103" windowWidth="31774" windowHeight="15609"/>
+    <workbookView xWindow="69" yWindow="103" windowWidth="31774" windowHeight="15609" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="総合紹介" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="TitleScene_画面1" sheetId="5" r:id="rId3"/>
     <sheet name="TitleScene_画面2" sheetId="6" r:id="rId4"/>
     <sheet name="MainScene" sheetId="2" r:id="rId5"/>
-    <sheet name="OverScene(Credit)" sheetId="4" r:id="rId6"/>
+    <sheet name="OverScene" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="53">
   <si>
     <t>ゲーム1.0のバージョンのメインシーン3つありますは</t>
     <phoneticPr fontId="1"/>
@@ -69,6 +69,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>【OverScene】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>画面①</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
@@ -324,6 +328,25 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>ビョウガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1から6が全部画面中から消すと、MainSceneへ移動します。</t>
+    <rPh sb="5" eb="7">
+      <t>ゼンブ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>イドウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -406,7 +429,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>実況演出*</t>
+    <t>実況演出</t>
     <rPh sb="0" eb="2">
       <t>ジッキョウ</t>
     </rPh>
@@ -416,422 +439,13 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>色々な演出すること*</t>
+    <t>色々な演出すること</t>
     <rPh sb="0" eb="2">
       <t>イロイロ</t>
     </rPh>
     <rPh sb="3" eb="5">
       <t>エンシュツ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>6*</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メニュー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>説明</t>
-    <rPh sb="0" eb="2">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲーム勝利条件</t>
-    <rPh sb="3" eb="5">
-      <t>ショウリ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ジョウケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>敵が基地を崩壊</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キチ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ホウカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OverScene</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画面①</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画面②</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MCVがマップに入る、展開</t>
-    <rPh sb="8" eb="9">
-      <t>ハイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>テンカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1から6が全部画面中から消すとともに、MCVが展開終了後、MainSceneへ移動します。</t>
-    <rPh sb="5" eb="7">
-      <t>ゼンブ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ケ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>テンカイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>時間を切れる前に基地を守れば</t>
-    <rPh sb="0" eb="2">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>キチ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>マモ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プレイヤー最初のユニット生成はロックされて、MCVしかありません。資源を払えるとハーベスター(Harvester)、バラックス(Barracks)、ウォーファクトリー(WarFactory)、ヘリパド(Helipad)、テックラボ(TechLab)</t>
-    <rPh sb="5" eb="7">
-      <t>サイショ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>シゲン</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>ハラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>セッティングボタン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>やり直しボタン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲーム終了ボタン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ボタンからメニューを展開して、ボタンを１１のボタンに変更</t>
-    <rPh sb="10" eb="12">
-      <t>テンカイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲームに戻るボタン</t>
-    <rPh sb="4" eb="5">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>セッチング画面を開く</t>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ヒラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>当ステージをやり直し</t>
-    <rPh sb="0" eb="1">
-      <t>トウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ナオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アプリ終了</t>
-    <rPh sb="3" eb="5">
-      <t>シュウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>当メニューを畳んで、画面1の状態に戻す</t>
-    <rPh sb="0" eb="1">
-      <t>トウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>タタ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画面③</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メニュー画面(②の7)を呼び出しボタン</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>勝利/失敗</t>
-    <rPh sb="0" eb="2">
-      <t>ショウリ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シッパイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>勝利メッセージ</t>
-    <rPh sb="0" eb="2">
-      <t>ショウリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>基地HP情報/メッセージバー</t>
-    <rPh sb="0" eb="2">
-      <t>キチ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>確定ボタン</t>
-    <rPh sb="0" eb="2">
-      <t>カクテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>場合によって、確認して次のステージへ、もう一度挑戦、タイトルへ戻す、ゲーム終了のボタンを表示</t>
-    <rPh sb="0" eb="2">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>イチド</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>チョウセン</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画面</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Credit</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>制作チームに関する情報を流れる</t>
-    <rPh sb="0" eb="2">
-      <t>セイサク</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ナガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>一枚の絵がついている背景、時間の流れと共にpptのように表示</t>
-    <rPh sb="0" eb="2">
-      <t>イチマイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>エ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ハイケイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ナガ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>トモ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>下から上まで制作チームに関する情報などを流れる</t>
-    <rPh sb="0" eb="1">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>セイサク</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ナガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>全ての情報を流れていたか、任意な座標にインプット処理を入れると、タイトル画面に戻ります。</t>
-    <rPh sb="0" eb="1">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ナガ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ニンイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ザヒョウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GameOver</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲーム失敗条件</t>
-    <rPh sb="3" eb="5">
-      <t>シッパイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ジョウケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【OverScene(Credit)】</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -890,7 +504,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -905,9 +519,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6040,13 +5651,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>146957</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>234043</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>16328</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6094,13 +5705,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>27214</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6152,13 +5763,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>244928</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>48986</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>21771</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>108858</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6210,13 +5821,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>130628</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>48986</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>560614</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>108858</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6268,13 +5879,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>32658</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>43543</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>462644</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>103415</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6326,13 +5937,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>223157</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>141515</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>625928</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>59871</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6384,13 +5995,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>348343</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>157843</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>130629</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>70757</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6442,13 +6053,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>244928</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>163286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>27214</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>21772</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6500,13 +6111,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>429986</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>125186</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>59872</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6546,1686 +6157,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>6*</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>642258</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>54429</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>125187</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>141514</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="角丸四角形 10"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="642258" y="2079172"/>
-          <a:ext cx="136072" cy="424542"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>7</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>5442</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>21771</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>244928</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>59870</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="角丸四角形 21"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="658585" y="5083628"/>
-          <a:ext cx="3505200" cy="2062842"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>277585</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>81642</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>582385</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>70757</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="角丸四角形 22"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="930728" y="5312228"/>
-          <a:ext cx="2917371" cy="1676400"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>1</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>255813</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>92529</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>32656</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="角丸四角形 23"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1562099" y="6672943"/>
-          <a:ext cx="429986" cy="397329"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>5</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>141513</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>92529</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>571499</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="角丸四角形 24"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2100942" y="6672943"/>
-          <a:ext cx="429986" cy="397329"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>5</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>43543</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>87086</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>473529</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>146958</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="角丸四角形 25"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2656114" y="6667500"/>
-          <a:ext cx="429986" cy="397329"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>5</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>234042</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>87085</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>636813</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>103413</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="角丸四角形 26"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="887185" y="6836228"/>
-          <a:ext cx="402771" cy="353785"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>3</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>359228</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>32657</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>141514</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="角丸四角形 27"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3624942" y="6613071"/>
-          <a:ext cx="435429" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>4</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>255813</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>65315</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="角丸四角形 28"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="908956" y="5099957"/>
-          <a:ext cx="3048000" cy="364672"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>2</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>440871</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>239485</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>103415</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="角丸四角形 29"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3706585" y="5061857"/>
-          <a:ext cx="451757" cy="440872"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>6*</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>97972</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>70757</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>16328</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="角丸四角形 30"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="653143" y="6847115"/>
-          <a:ext cx="1377043" cy="424542"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>7</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>179614</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>119743</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>397329</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="角丸四角形 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="832757" y="6868886"/>
-          <a:ext cx="217715" cy="244928"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>8</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>419101</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>141514</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>43543</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>10886</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="角丸四角形 31"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1072244" y="6890657"/>
-          <a:ext cx="277585" cy="206829"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>9</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>119744</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>429984</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>65315</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="角丸四角形 32"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1382485" y="6868887"/>
-          <a:ext cx="353785" cy="283028"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>10</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>576943</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>119743</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>59872</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>70757</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="角丸四角形 33"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1883229" y="6868886"/>
-          <a:ext cx="136072" cy="457200"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>11</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>5442</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>21771</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>244928</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>59870</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="角丸四角形 43"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="658585" y="9808028"/>
-          <a:ext cx="3505200" cy="2062842"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>277585</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>81642</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>582385</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>70756</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="角丸四角形 44"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="930728" y="10036628"/>
-          <a:ext cx="2917371" cy="1676399"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>1</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>255813</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>92528</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>32656</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="角丸四角形 45"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1562099" y="11397342"/>
-          <a:ext cx="429986" cy="397329"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>5</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>141513</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>92528</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>571499</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="角丸四角形 46"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2100942" y="11397342"/>
-          <a:ext cx="429986" cy="397329"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>5</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>43543</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>87085</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>473529</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>146957</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="角丸四角形 47"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2656114" y="11391899"/>
-          <a:ext cx="429986" cy="397329"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>5</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>234042</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>16329</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>636813</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>103413</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="角丸四角形 48"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="887185" y="11321143"/>
-          <a:ext cx="402771" cy="424541"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>3</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>359228</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>32657</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>141514</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="角丸四角形 49"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3624942" y="11337471"/>
-          <a:ext cx="435429" cy="419099"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>4</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>255813</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>65314</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="角丸四角形 50"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="908956" y="9824357"/>
-          <a:ext cx="3048000" cy="364671"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>2</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>440871</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>239485</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>103414</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="角丸四角形 51"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3706585" y="9786257"/>
-          <a:ext cx="451757" cy="440871"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>6*</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>97971</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>136072</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>16327</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="角丸四角形 52"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="653143" y="11402785"/>
-          <a:ext cx="136072" cy="424542"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>7</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>511628</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>397329</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>146957</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="角丸四角形 53"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1164771" y="10352314"/>
-          <a:ext cx="2498272" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>8</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>136072</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>212272</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>43544</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="角丸四角形 54"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1997529" y="10956472"/>
-          <a:ext cx="827314" cy="244929"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>9</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>239486</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>38098</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="角丸四角形 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="653143" y="337457"/>
-          <a:ext cx="3505200" cy="2062841"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>1</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>119743</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>92529</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>179615</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="角丸四角形 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1426029" y="429986"/>
-          <a:ext cx="2019300" cy="1845128"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>2</a:t>
+            <a:t>6</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -8525,7 +6457,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.3" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -8561,7 +6495,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -8581,7 +6515,7 @@
     </row>
     <row r="7" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -8606,7 +6540,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -8620,7 +6554,7 @@
   <hyperlinks>
     <hyperlink ref="A10:B10" location="TitleScene!A1" display="①"/>
     <hyperlink ref="A12:B12" location="MainScene!A1" display="②"/>
-    <hyperlink ref="A14:B14" location="'OverScene(Credit)'!A1" display="③"/>
+    <hyperlink ref="A14:B14" location="OverScene!A1" display="③"/>
     <hyperlink ref="B10" location="TitleScene!A1" display="【TitleScene】"/>
     <hyperlink ref="B12" location="MainScene!A1" display="【MainScene】"/>
   </hyperlinks>
@@ -8633,19 +6567,19 @@
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.3" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -8653,10 +6587,10 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -8664,10 +6598,10 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -8675,10 +6609,10 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -8686,10 +6620,10 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -8697,10 +6631,10 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -8708,10 +6642,10 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -8719,15 +6653,15 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -8735,10 +6669,10 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -8746,10 +6680,10 @@
         <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D51" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -8757,10 +6691,10 @@
         <v>3</v>
       </c>
       <c r="B52" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D52" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -8768,10 +6702,10 @@
         <v>4</v>
       </c>
       <c r="B53" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D53" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -8779,10 +6713,10 @@
         <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -8801,14 +6735,14 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I58" sqref="I58"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.3" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -8816,10 +6750,10 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -8827,10 +6761,10 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -8838,10 +6772,10 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -8849,10 +6783,10 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -8860,10 +6794,10 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -8871,10 +6805,10 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -8882,35 +6816,35 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -8925,17 +6859,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="A27" sqref="A27:E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.3" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -8943,10 +6877,10 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -8954,10 +6888,10 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -8965,10 +6899,10 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -8976,10 +6910,10 @@
         <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D30" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -8987,10 +6921,10 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D31" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -8998,10 +6932,10 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -9009,56 +6943,51 @@
         <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="1" t="s">
-        <v>37</v>
+      <c r="B41" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="B42" location="MainScene!A1" display="MainScene"/>
+    <hyperlink ref="B41" location="MainScene!A1" display="MainScene"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9067,368 +6996,85 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I80"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.3" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>24</v>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>62</v>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" t="s">
-        <v>61</v>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E7" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>85</v>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>57</v>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>1</v>
-      </c>
-      <c r="B24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>2</v>
-      </c>
-      <c r="B25" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>3</v>
-      </c>
-      <c r="B26" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>4</v>
-      </c>
-      <c r="B27" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>5</v>
-      </c>
-      <c r="B28" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
         <v>51</v>
       </c>
-      <c r="B29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>7</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="D23" t="s">
         <v>52</v>
-      </c>
-      <c r="D30" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>1</v>
-      </c>
-      <c r="B46" t="s">
-        <v>29</v>
-      </c>
-      <c r="D46" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>2</v>
-      </c>
-      <c r="B47" t="s">
-        <v>42</v>
-      </c>
-      <c r="D47" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>3</v>
-      </c>
-      <c r="B48" t="s">
-        <v>43</v>
-      </c>
-      <c r="D48" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>4</v>
-      </c>
-      <c r="B49" t="s">
-        <v>45</v>
-      </c>
-      <c r="D49" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>5</v>
-      </c>
-      <c r="B50" t="s">
-        <v>47</v>
-      </c>
-      <c r="D50" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51" t="s">
-        <v>49</v>
-      </c>
-      <c r="D51" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>7</v>
-      </c>
-      <c r="B52" t="s">
-        <v>52</v>
-      </c>
-      <c r="D52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>8</v>
-      </c>
-      <c r="B53" t="s">
-        <v>63</v>
-      </c>
-      <c r="D53" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>9</v>
-      </c>
-      <c r="B54" t="s">
-        <v>64</v>
-      </c>
-      <c r="D54" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>10</v>
-      </c>
-      <c r="B55" t="s">
-        <v>65</v>
-      </c>
-      <c r="D55" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>11</v>
-      </c>
-      <c r="B56" t="s">
-        <v>67</v>
-      </c>
-      <c r="D56" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>72</v>
-      </c>
-      <c r="B58" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>1</v>
-      </c>
-      <c r="B72" t="s">
-        <v>29</v>
-      </c>
-      <c r="D72" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>2</v>
-      </c>
-      <c r="B73" t="s">
-        <v>42</v>
-      </c>
-      <c r="D73" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>3</v>
-      </c>
-      <c r="B74" t="s">
-        <v>43</v>
-      </c>
-      <c r="D74" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>4</v>
-      </c>
-      <c r="B75" t="s">
-        <v>45</v>
-      </c>
-      <c r="D75" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>5</v>
-      </c>
-      <c r="B76" t="s">
-        <v>47</v>
-      </c>
-      <c r="D76" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B77" t="s">
-        <v>49</v>
-      </c>
-      <c r="D77" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>7</v>
-      </c>
-      <c r="B78" t="s">
-        <v>52</v>
-      </c>
-      <c r="D78" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>8</v>
-      </c>
-      <c r="B79" t="s">
-        <v>75</v>
-      </c>
-      <c r="D79" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>9</v>
-      </c>
-      <c r="B80" t="s">
-        <v>77</v>
-      </c>
-      <c r="D80" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="I7" location="'OverScene(Credit)'!A1" display="GameOver"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -9436,57 +7082,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.3" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2</v>
-      </c>
-      <c r="B19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -4,22 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="69" yWindow="103" windowWidth="31774" windowHeight="15609"/>
+    <workbookView xWindow="69" yWindow="103" windowWidth="31774" windowHeight="15609" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="総合紹介" sheetId="1" r:id="rId1"/>
-    <sheet name="TitleScene" sheetId="3" r:id="rId2"/>
-    <sheet name="TitleScene_画面1" sheetId="5" r:id="rId3"/>
-    <sheet name="TitleScene_画面2" sheetId="6" r:id="rId4"/>
-    <sheet name="MainScene" sheetId="2" r:id="rId5"/>
-    <sheet name="OverScene(Credit)" sheetId="4" r:id="rId6"/>
+    <sheet name="工程項目" sheetId="7" r:id="rId2"/>
+    <sheet name="TitleScene" sheetId="3" r:id="rId3"/>
+    <sheet name="TitleScene_画面1" sheetId="5" r:id="rId4"/>
+    <sheet name="TitleScene_画面2" sheetId="6" r:id="rId5"/>
+    <sheet name="MainScene" sheetId="2" r:id="rId6"/>
+    <sheet name="OverScene(Credit)" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="99">
   <si>
     <t>ゲーム1.0のバージョンのメインシーン3つありますは</t>
     <phoneticPr fontId="1"/>
@@ -146,11 +147,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ゲームは①→②→③→①→②→③→①→...
-のルールでシーン①からシーン③までループします。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>説明：</t>
     <rPh sb="0" eb="2">
       <t>セツメイ</t>
@@ -834,12 +830,88 @@
     <t>【OverScene(Credit)】</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ゲームは①→②→①→②→①→②→①→...
+のルールでシーン①からシーン②までループします。勝利条件に達成するのみ、③へ</t>
+    <rPh sb="46" eb="48">
+      <t>ショウリ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>タッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TitleScene</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面１演出</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>エンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面２演出</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>エンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MainScene</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>演出</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームオブジェクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面3演出</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>エンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GameOver</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面演出</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -864,6 +936,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -882,15 +962,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -901,17 +984,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
+    <cellStyle name="警告文" xfId="2" builtinId="11"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -8525,7 +8615,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.3" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -8538,10 +8630,10 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="4"/>
       <c r="D3" t="s">
         <v>3</v>
       </c>
@@ -8553,25 +8645,25 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="4"/>
       <c r="D4" t="s">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="4"/>
       <c r="D5" t="s">
         <v>3</v>
       </c>
@@ -8579,12 +8671,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>1</v>
@@ -8606,7 +8698,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -8630,17 +8722,431 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C20" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C50" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C51" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="2"/>
+      <c r="C54" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B55" s="2"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B58" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B59" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C59" t="s">
+        <v>28</v>
+      </c>
+      <c r="E59" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.3" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -8708,10 +9214,10 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
         <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -8719,10 +9225,10 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -8796,19 +9302,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I58" sqref="I58"/>
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.3" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -8871,10 +9377,10 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -8882,35 +9388,35 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -8923,7 +9429,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D42"/>
   <sheetViews>
@@ -8935,7 +9441,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -8998,10 +9504,10 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" t="s">
         <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -9009,50 +9515,50 @@
         <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -9065,53 +9571,53 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.3" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9119,10 +9625,10 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -9130,10 +9636,10 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -9141,10 +9647,10 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" t="s">
         <v>43</v>
-      </c>
-      <c r="D26" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -9152,10 +9658,10 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" t="s">
         <v>45</v>
-      </c>
-      <c r="D27" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -9163,21 +9669,21 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" t="s">
         <v>47</v>
       </c>
-      <c r="D28" t="s">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="D29" t="s">
         <v>49</v>
-      </c>
-      <c r="D29" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -9185,15 +9691,15 @@
         <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -9201,10 +9707,10 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -9212,10 +9718,10 @@
         <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -9223,10 +9729,10 @@
         <v>3</v>
       </c>
       <c r="B48" t="s">
+        <v>42</v>
+      </c>
+      <c r="D48" t="s">
         <v>43</v>
-      </c>
-      <c r="D48" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -9234,10 +9740,10 @@
         <v>4</v>
       </c>
       <c r="B49" t="s">
+        <v>44</v>
+      </c>
+      <c r="D49" t="s">
         <v>45</v>
-      </c>
-      <c r="D49" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -9245,21 +9751,21 @@
         <v>5</v>
       </c>
       <c r="B50" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50" t="s">
         <v>47</v>
       </c>
-      <c r="D50" t="s">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="D51" t="s">
         <v>49</v>
-      </c>
-      <c r="D51" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -9267,10 +9773,10 @@
         <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D52" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -9278,10 +9784,10 @@
         <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -9289,10 +9795,10 @@
         <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D54" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -9300,10 +9806,10 @@
         <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D55" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -9311,18 +9817,18 @@
         <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D56" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B58" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9330,10 +9836,10 @@
         <v>1</v>
       </c>
       <c r="B72" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D72" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -9341,10 +9847,10 @@
         <v>2</v>
       </c>
       <c r="B73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D73" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -9352,10 +9858,10 @@
         <v>3</v>
       </c>
       <c r="B74" t="s">
+        <v>42</v>
+      </c>
+      <c r="D74" t="s">
         <v>43</v>
-      </c>
-      <c r="D74" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -9363,10 +9869,10 @@
         <v>4</v>
       </c>
       <c r="B75" t="s">
+        <v>44</v>
+      </c>
+      <c r="D75" t="s">
         <v>45</v>
-      </c>
-      <c r="D75" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -9374,21 +9880,21 @@
         <v>5</v>
       </c>
       <c r="B76" t="s">
+        <v>46</v>
+      </c>
+      <c r="D76" t="s">
         <v>47</v>
       </c>
-      <c r="D76" t="s">
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B77" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B77" t="s">
+      <c r="D77" t="s">
         <v>49</v>
-      </c>
-      <c r="D77" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -9396,10 +9902,10 @@
         <v>7</v>
       </c>
       <c r="B78" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D78" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -9407,10 +9913,10 @@
         <v>8</v>
       </c>
       <c r="B79" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D79" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -9418,10 +9924,10 @@
         <v>9</v>
       </c>
       <c r="B80" t="s">
+        <v>76</v>
+      </c>
+      <c r="D80" t="s">
         <v>77</v>
-      </c>
-      <c r="D80" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -9434,38 +9940,40 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:F19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.3" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -9473,7 +9981,7 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -9481,7 +9989,7 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -4,23 +4,25 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="69" yWindow="103" windowWidth="31774" windowHeight="15609" activeTab="1"/>
+    <workbookView xWindow="69" yWindow="103" windowWidth="31774" windowHeight="15609" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="総合紹介" sheetId="1" r:id="rId1"/>
     <sheet name="工程項目" sheetId="7" r:id="rId2"/>
-    <sheet name="TitleScene" sheetId="3" r:id="rId3"/>
-    <sheet name="TitleScene_画面1" sheetId="5" r:id="rId4"/>
-    <sheet name="TitleScene_画面2" sheetId="6" r:id="rId5"/>
-    <sheet name="MainScene" sheetId="2" r:id="rId6"/>
-    <sheet name="OverScene(Credit)" sheetId="4" r:id="rId7"/>
+    <sheet name="ゲームプレイシステム" sheetId="10" r:id="rId3"/>
+    <sheet name="TitleScene" sheetId="3" r:id="rId4"/>
+    <sheet name="TitleScene_画面1" sheetId="5" r:id="rId5"/>
+    <sheet name="TitleScene_画面2" sheetId="6" r:id="rId6"/>
+    <sheet name="Titleセッチング画面" sheetId="9" r:id="rId7"/>
+    <sheet name="MainScene" sheetId="2" r:id="rId8"/>
+    <sheet name="OverScene(Credit)" sheetId="4" r:id="rId9"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="129">
   <si>
     <t>ゲーム1.0のバージョンのメインシーン3つありますは</t>
     <phoneticPr fontId="1"/>
@@ -885,10 +887,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ゲームオブジェクト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>画面3演出</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
@@ -904,6 +902,328 @@
   </si>
   <si>
     <t>画面演出</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TitleScene</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Titleセッチング画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セッチングメニュー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セッチング画面は全ての画面の手前に表示されて、表示する場合は後ろの画面を暗くして、インプット処理を無視する。</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>テマエ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ウシ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>クラ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ムシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>音量調整</t>
+    <rPh sb="0" eb="4">
+      <t>オンリョウチョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>音量調整バー①</t>
+    <rPh sb="0" eb="4">
+      <t>オンリョウチョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BGM音量調整バー</t>
+    <rPh sb="3" eb="7">
+      <t>オンリョウチョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユニット音量調整バー</t>
+    <rPh sb="4" eb="8">
+      <t>オンリョウチョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>音量調整バー②</t>
+    <rPh sb="0" eb="4">
+      <t>オンリョウチョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SE音量調整バー(爆発音など)</t>
+    <rPh sb="2" eb="6">
+      <t>オンリョウチョウセイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バクハツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>音量調整バー③</t>
+    <rPh sb="0" eb="4">
+      <t>オンリョウチョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クレジットボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム制作チーム情報など、OverSceneへ</t>
+    <rPh sb="3" eb="5">
+      <t>セイサク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OverScene</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リセットボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Titleセッチング画面</t>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共通</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TitleScene</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雲について、雲は半透明で表示されます。Y軸とX軸はランタイムで画面中生成されて、揺れること</t>
+    <rPh sb="0" eb="1">
+      <t>クモ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>クモ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ハントウメイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ジク</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ジク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ユ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基地HP情報バー/メッセージバー</t>
+    <rPh sb="0" eb="2">
+      <t>キチ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基地HP情報について、普段は基地のHP情報を表示されますが、最初ゲーム開始時は「敵の猛攻がくる、猛攻から基地を守ろう」見たいな情報を表示。</t>
+    <rPh sb="11" eb="13">
+      <t>フダン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キチ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>モウコウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>モウコウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>キチ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>マモ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロジスティクス情報画面</t>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>持ち資源</t>
+    <rPh sb="0" eb="1">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>資源のインコム速度</t>
+    <rPh sb="0" eb="2">
+      <t>シゲン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今持ちユニットの数</t>
+    <rPh sb="0" eb="1">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インコム量、量が多いほど▶の数が多くなる</t>
+    <rPh sb="4" eb="5">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤースキルボタン(タワーを生成)</t>
+    <rPh sb="16" eb="18">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユニットカード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームプレイシステム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>影響するシーンはMainSceneです。</t>
+    <rPh sb="0" eb="2">
+      <t>エイキョウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -973,7 +1293,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -989,14 +1309,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -6128,6 +6451,1735 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5443</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>130629</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>244929</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="658586" y="468086"/>
+          <a:ext cx="3505200" cy="2062843"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>277586</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>582386</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="角丸四角形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="930729" y="696686"/>
+          <a:ext cx="2917371" cy="1676400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>141515</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>119743</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>130630</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="角丸四角形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1447801" y="1807029"/>
+          <a:ext cx="1948543" cy="555171"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>620487</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>65314</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>386444</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>141515</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="角丸四角形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1273630" y="571500"/>
+          <a:ext cx="2378528" cy="582386"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>130630</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>103415</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>146957</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="角丸四角形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="783773" y="778329"/>
+          <a:ext cx="212271" cy="212271"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>163287</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>103415</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>375558</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>141514</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="角丸四角形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="816430" y="1115786"/>
+          <a:ext cx="212271" cy="206828"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>473529</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>43542</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>65314</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>130628</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="角丸四角形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3739243" y="2068285"/>
+          <a:ext cx="244928" cy="255814"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>129595</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>130629</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>321272</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>65315</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="フリーフォーム 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1435881" y="1311729"/>
+          <a:ext cx="844820" cy="440872"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 191533 w 844820"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 440872"/>
+            <a:gd name="connsiteX1" fmla="*/ 191533 w 844820"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 440872"/>
+            <a:gd name="connsiteX2" fmla="*/ 305833 w 844820"/>
+            <a:gd name="connsiteY2" fmla="*/ 54429 h 440872"/>
+            <a:gd name="connsiteX3" fmla="*/ 349376 w 844820"/>
+            <a:gd name="connsiteY3" fmla="*/ 65314 h 440872"/>
+            <a:gd name="connsiteX4" fmla="*/ 392919 w 844820"/>
+            <a:gd name="connsiteY4" fmla="*/ 97972 h 440872"/>
+            <a:gd name="connsiteX5" fmla="*/ 431019 w 844820"/>
+            <a:gd name="connsiteY5" fmla="*/ 108857 h 440872"/>
+            <a:gd name="connsiteX6" fmla="*/ 496333 w 844820"/>
+            <a:gd name="connsiteY6" fmla="*/ 141514 h 440872"/>
+            <a:gd name="connsiteX7" fmla="*/ 534433 w 844820"/>
+            <a:gd name="connsiteY7" fmla="*/ 152400 h 440872"/>
+            <a:gd name="connsiteX8" fmla="*/ 621519 w 844820"/>
+            <a:gd name="connsiteY8" fmla="*/ 185057 h 440872"/>
+            <a:gd name="connsiteX9" fmla="*/ 735819 w 844820"/>
+            <a:gd name="connsiteY9" fmla="*/ 217714 h 440872"/>
+            <a:gd name="connsiteX10" fmla="*/ 779362 w 844820"/>
+            <a:gd name="connsiteY10" fmla="*/ 239486 h 440872"/>
+            <a:gd name="connsiteX11" fmla="*/ 801133 w 844820"/>
+            <a:gd name="connsiteY11" fmla="*/ 261257 h 440872"/>
+            <a:gd name="connsiteX12" fmla="*/ 812019 w 844820"/>
+            <a:gd name="connsiteY12" fmla="*/ 283029 h 440872"/>
+            <a:gd name="connsiteX13" fmla="*/ 833791 w 844820"/>
+            <a:gd name="connsiteY13" fmla="*/ 293914 h 440872"/>
+            <a:gd name="connsiteX14" fmla="*/ 844676 w 844820"/>
+            <a:gd name="connsiteY14" fmla="*/ 315686 h 440872"/>
+            <a:gd name="connsiteX15" fmla="*/ 839233 w 844820"/>
+            <a:gd name="connsiteY15" fmla="*/ 337457 h 440872"/>
+            <a:gd name="connsiteX16" fmla="*/ 790248 w 844820"/>
+            <a:gd name="connsiteY16" fmla="*/ 386443 h 440872"/>
+            <a:gd name="connsiteX17" fmla="*/ 724933 w 844820"/>
+            <a:gd name="connsiteY17" fmla="*/ 408214 h 440872"/>
+            <a:gd name="connsiteX18" fmla="*/ 703162 w 844820"/>
+            <a:gd name="connsiteY18" fmla="*/ 419100 h 440872"/>
+            <a:gd name="connsiteX19" fmla="*/ 632405 w 844820"/>
+            <a:gd name="connsiteY19" fmla="*/ 440872 h 440872"/>
+            <a:gd name="connsiteX20" fmla="*/ 403805 w 844820"/>
+            <a:gd name="connsiteY20" fmla="*/ 435429 h 440872"/>
+            <a:gd name="connsiteX21" fmla="*/ 316719 w 844820"/>
+            <a:gd name="connsiteY21" fmla="*/ 413657 h 440872"/>
+            <a:gd name="connsiteX22" fmla="*/ 11919 w 844820"/>
+            <a:gd name="connsiteY22" fmla="*/ 386443 h 440872"/>
+            <a:gd name="connsiteX23" fmla="*/ 1033 w 844820"/>
+            <a:gd name="connsiteY23" fmla="*/ 353786 h 440872"/>
+            <a:gd name="connsiteX24" fmla="*/ 6476 w 844820"/>
+            <a:gd name="connsiteY24" fmla="*/ 92529 h 440872"/>
+            <a:gd name="connsiteX25" fmla="*/ 28248 w 844820"/>
+            <a:gd name="connsiteY25" fmla="*/ 48986 h 440872"/>
+            <a:gd name="connsiteX26" fmla="*/ 39133 w 844820"/>
+            <a:gd name="connsiteY26" fmla="*/ 27214 h 440872"/>
+            <a:gd name="connsiteX27" fmla="*/ 126219 w 844820"/>
+            <a:gd name="connsiteY27" fmla="*/ 5443 h 440872"/>
+            <a:gd name="connsiteX28" fmla="*/ 267733 w 844820"/>
+            <a:gd name="connsiteY28" fmla="*/ 5443 h 440872"/>
+            <a:gd name="connsiteX29" fmla="*/ 267733 w 844820"/>
+            <a:gd name="connsiteY29" fmla="*/ 48986 h 440872"/>
+            <a:gd name="connsiteX30" fmla="*/ 801133 w 844820"/>
+            <a:gd name="connsiteY30" fmla="*/ 223157 h 440872"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX6" y="connsiteY6"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX7" y="connsiteY7"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX8" y="connsiteY8"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX9" y="connsiteY9"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX10" y="connsiteY10"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX11" y="connsiteY11"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX12" y="connsiteY12"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX13" y="connsiteY13"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX14" y="connsiteY14"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX15" y="connsiteY15"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX16" y="connsiteY16"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX17" y="connsiteY17"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX18" y="connsiteY18"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX19" y="connsiteY19"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX20" y="connsiteY20"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX21" y="connsiteY21"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX22" y="connsiteY22"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX23" y="connsiteY23"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX24" y="connsiteY24"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX25" y="connsiteY25"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX26" y="connsiteY26"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX27" y="connsiteY27"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX28" y="connsiteY28"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX29" y="connsiteY29"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX30" y="connsiteY30"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="844820" h="440872">
+              <a:moveTo>
+                <a:pt x="191533" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="191533" y="0"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="204680" y="6574"/>
+                <a:pt x="278323" y="45259"/>
+                <a:pt x="305833" y="54429"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="320026" y="59160"/>
+                <a:pt x="334862" y="61686"/>
+                <a:pt x="349376" y="65314"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="363890" y="76200"/>
+                <a:pt x="376910" y="89434"/>
+                <a:pt x="392919" y="97972"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="404573" y="104188"/>
+                <a:pt x="418846" y="103732"/>
+                <a:pt x="431019" y="108857"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="453453" y="118303"/>
+                <a:pt x="473899" y="132068"/>
+                <a:pt x="496333" y="141514"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="508506" y="146640"/>
+                <a:pt x="521958" y="148061"/>
+                <a:pt x="534433" y="152400"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="563715" y="162585"/>
+                <a:pt x="591776" y="176309"/>
+                <a:pt x="621519" y="185057"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="721224" y="214383"/>
+                <a:pt x="682858" y="204476"/>
+                <a:pt x="735819" y="217714"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="750333" y="224971"/>
+                <a:pt x="767887" y="228011"/>
+                <a:pt x="779362" y="239486"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="786619" y="246743"/>
+                <a:pt x="794975" y="253047"/>
+                <a:pt x="801133" y="261257"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="806001" y="267748"/>
+                <a:pt x="806281" y="277292"/>
+                <a:pt x="812019" y="283029"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="817756" y="288766"/>
+                <a:pt x="826534" y="290286"/>
+                <a:pt x="833791" y="293914"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="837419" y="301171"/>
+                <a:pt x="843670" y="307635"/>
+                <a:pt x="844676" y="315686"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="845604" y="323109"/>
+                <a:pt x="841859" y="330453"/>
+                <a:pt x="839233" y="337457"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="829348" y="363817"/>
+                <a:pt x="819602" y="372539"/>
+                <a:pt x="790248" y="386443"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="769508" y="396267"/>
+                <a:pt x="745459" y="397950"/>
+                <a:pt x="724933" y="408214"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="717676" y="411843"/>
+                <a:pt x="710695" y="416087"/>
+                <a:pt x="703162" y="419100"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="684334" y="426631"/>
+                <a:pt x="651196" y="435503"/>
+                <a:pt x="632405" y="440872"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="556205" y="439058"/>
+                <a:pt x="479745" y="441976"/>
+                <a:pt x="403805" y="435429"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="373993" y="432859"/>
+                <a:pt x="346482" y="416736"/>
+                <a:pt x="316719" y="413657"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="110017" y="392275"/>
+                <a:pt x="211627" y="401237"/>
+                <a:pt x="11919" y="386443"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="8290" y="375557"/>
+                <a:pt x="1245" y="365259"/>
+                <a:pt x="1033" y="353786"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="-580" y="266696"/>
+                <a:pt x="-1271" y="179288"/>
+                <a:pt x="6476" y="92529"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="7919" y="76366"/>
+                <a:pt x="20991" y="63500"/>
+                <a:pt x="28248" y="48986"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="31877" y="41729"/>
+                <a:pt x="31876" y="30842"/>
+                <a:pt x="39133" y="27214"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="73776" y="9894"/>
+                <a:pt x="71593" y="8318"/>
+                <a:pt x="126219" y="5443"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="173325" y="2964"/>
+                <a:pt x="220562" y="5443"/>
+                <a:pt x="267733" y="5443"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="267733" y="48986"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="801133" y="223157"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>6</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>140481</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>48986</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>332158</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="フリーフォーム 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2753052" y="1230086"/>
+          <a:ext cx="844820" cy="440872"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 191533 w 844820"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 440872"/>
+            <a:gd name="connsiteX1" fmla="*/ 191533 w 844820"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 440872"/>
+            <a:gd name="connsiteX2" fmla="*/ 305833 w 844820"/>
+            <a:gd name="connsiteY2" fmla="*/ 54429 h 440872"/>
+            <a:gd name="connsiteX3" fmla="*/ 349376 w 844820"/>
+            <a:gd name="connsiteY3" fmla="*/ 65314 h 440872"/>
+            <a:gd name="connsiteX4" fmla="*/ 392919 w 844820"/>
+            <a:gd name="connsiteY4" fmla="*/ 97972 h 440872"/>
+            <a:gd name="connsiteX5" fmla="*/ 431019 w 844820"/>
+            <a:gd name="connsiteY5" fmla="*/ 108857 h 440872"/>
+            <a:gd name="connsiteX6" fmla="*/ 496333 w 844820"/>
+            <a:gd name="connsiteY6" fmla="*/ 141514 h 440872"/>
+            <a:gd name="connsiteX7" fmla="*/ 534433 w 844820"/>
+            <a:gd name="connsiteY7" fmla="*/ 152400 h 440872"/>
+            <a:gd name="connsiteX8" fmla="*/ 621519 w 844820"/>
+            <a:gd name="connsiteY8" fmla="*/ 185057 h 440872"/>
+            <a:gd name="connsiteX9" fmla="*/ 735819 w 844820"/>
+            <a:gd name="connsiteY9" fmla="*/ 217714 h 440872"/>
+            <a:gd name="connsiteX10" fmla="*/ 779362 w 844820"/>
+            <a:gd name="connsiteY10" fmla="*/ 239486 h 440872"/>
+            <a:gd name="connsiteX11" fmla="*/ 801133 w 844820"/>
+            <a:gd name="connsiteY11" fmla="*/ 261257 h 440872"/>
+            <a:gd name="connsiteX12" fmla="*/ 812019 w 844820"/>
+            <a:gd name="connsiteY12" fmla="*/ 283029 h 440872"/>
+            <a:gd name="connsiteX13" fmla="*/ 833791 w 844820"/>
+            <a:gd name="connsiteY13" fmla="*/ 293914 h 440872"/>
+            <a:gd name="connsiteX14" fmla="*/ 844676 w 844820"/>
+            <a:gd name="connsiteY14" fmla="*/ 315686 h 440872"/>
+            <a:gd name="connsiteX15" fmla="*/ 839233 w 844820"/>
+            <a:gd name="connsiteY15" fmla="*/ 337457 h 440872"/>
+            <a:gd name="connsiteX16" fmla="*/ 790248 w 844820"/>
+            <a:gd name="connsiteY16" fmla="*/ 386443 h 440872"/>
+            <a:gd name="connsiteX17" fmla="*/ 724933 w 844820"/>
+            <a:gd name="connsiteY17" fmla="*/ 408214 h 440872"/>
+            <a:gd name="connsiteX18" fmla="*/ 703162 w 844820"/>
+            <a:gd name="connsiteY18" fmla="*/ 419100 h 440872"/>
+            <a:gd name="connsiteX19" fmla="*/ 632405 w 844820"/>
+            <a:gd name="connsiteY19" fmla="*/ 440872 h 440872"/>
+            <a:gd name="connsiteX20" fmla="*/ 403805 w 844820"/>
+            <a:gd name="connsiteY20" fmla="*/ 435429 h 440872"/>
+            <a:gd name="connsiteX21" fmla="*/ 316719 w 844820"/>
+            <a:gd name="connsiteY21" fmla="*/ 413657 h 440872"/>
+            <a:gd name="connsiteX22" fmla="*/ 11919 w 844820"/>
+            <a:gd name="connsiteY22" fmla="*/ 386443 h 440872"/>
+            <a:gd name="connsiteX23" fmla="*/ 1033 w 844820"/>
+            <a:gd name="connsiteY23" fmla="*/ 353786 h 440872"/>
+            <a:gd name="connsiteX24" fmla="*/ 6476 w 844820"/>
+            <a:gd name="connsiteY24" fmla="*/ 92529 h 440872"/>
+            <a:gd name="connsiteX25" fmla="*/ 28248 w 844820"/>
+            <a:gd name="connsiteY25" fmla="*/ 48986 h 440872"/>
+            <a:gd name="connsiteX26" fmla="*/ 39133 w 844820"/>
+            <a:gd name="connsiteY26" fmla="*/ 27214 h 440872"/>
+            <a:gd name="connsiteX27" fmla="*/ 126219 w 844820"/>
+            <a:gd name="connsiteY27" fmla="*/ 5443 h 440872"/>
+            <a:gd name="connsiteX28" fmla="*/ 267733 w 844820"/>
+            <a:gd name="connsiteY28" fmla="*/ 5443 h 440872"/>
+            <a:gd name="connsiteX29" fmla="*/ 267733 w 844820"/>
+            <a:gd name="connsiteY29" fmla="*/ 48986 h 440872"/>
+            <a:gd name="connsiteX30" fmla="*/ 801133 w 844820"/>
+            <a:gd name="connsiteY30" fmla="*/ 223157 h 440872"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX6" y="connsiteY6"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX7" y="connsiteY7"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX8" y="connsiteY8"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX9" y="connsiteY9"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX10" y="connsiteY10"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX11" y="connsiteY11"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX12" y="connsiteY12"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX13" y="connsiteY13"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX14" y="connsiteY14"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX15" y="connsiteY15"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX16" y="connsiteY16"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX17" y="connsiteY17"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX18" y="connsiteY18"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX19" y="connsiteY19"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX20" y="connsiteY20"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX21" y="connsiteY21"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX22" y="connsiteY22"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX23" y="connsiteY23"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX24" y="connsiteY24"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX25" y="connsiteY25"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX26" y="connsiteY26"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX27" y="connsiteY27"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX28" y="connsiteY28"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX29" y="connsiteY29"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX30" y="connsiteY30"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="844820" h="440872">
+              <a:moveTo>
+                <a:pt x="191533" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="191533" y="0"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="204680" y="6574"/>
+                <a:pt x="278323" y="45259"/>
+                <a:pt x="305833" y="54429"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="320026" y="59160"/>
+                <a:pt x="334862" y="61686"/>
+                <a:pt x="349376" y="65314"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="363890" y="76200"/>
+                <a:pt x="376910" y="89434"/>
+                <a:pt x="392919" y="97972"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="404573" y="104188"/>
+                <a:pt x="418846" y="103732"/>
+                <a:pt x="431019" y="108857"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="453453" y="118303"/>
+                <a:pt x="473899" y="132068"/>
+                <a:pt x="496333" y="141514"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="508506" y="146640"/>
+                <a:pt x="521958" y="148061"/>
+                <a:pt x="534433" y="152400"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="563715" y="162585"/>
+                <a:pt x="591776" y="176309"/>
+                <a:pt x="621519" y="185057"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="721224" y="214383"/>
+                <a:pt x="682858" y="204476"/>
+                <a:pt x="735819" y="217714"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="750333" y="224971"/>
+                <a:pt x="767887" y="228011"/>
+                <a:pt x="779362" y="239486"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="786619" y="246743"/>
+                <a:pt x="794975" y="253047"/>
+                <a:pt x="801133" y="261257"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="806001" y="267748"/>
+                <a:pt x="806281" y="277292"/>
+                <a:pt x="812019" y="283029"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="817756" y="288766"/>
+                <a:pt x="826534" y="290286"/>
+                <a:pt x="833791" y="293914"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="837419" y="301171"/>
+                <a:pt x="843670" y="307635"/>
+                <a:pt x="844676" y="315686"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="845604" y="323109"/>
+                <a:pt x="841859" y="330453"/>
+                <a:pt x="839233" y="337457"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="829348" y="363817"/>
+                <a:pt x="819602" y="372539"/>
+                <a:pt x="790248" y="386443"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="769508" y="396267"/>
+                <a:pt x="745459" y="397950"/>
+                <a:pt x="724933" y="408214"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="717676" y="411843"/>
+                <a:pt x="710695" y="416087"/>
+                <a:pt x="703162" y="419100"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="684334" y="426631"/>
+                <a:pt x="651196" y="435503"/>
+                <a:pt x="632405" y="440872"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="556205" y="439058"/>
+                <a:pt x="479745" y="441976"/>
+                <a:pt x="403805" y="435429"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="373993" y="432859"/>
+                <a:pt x="346482" y="416736"/>
+                <a:pt x="316719" y="413657"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="110017" y="392275"/>
+                <a:pt x="211627" y="401237"/>
+                <a:pt x="11919" y="386443"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="8290" y="375557"/>
+                <a:pt x="1245" y="365259"/>
+                <a:pt x="1033" y="353786"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="-580" y="266696"/>
+                <a:pt x="-1271" y="179288"/>
+                <a:pt x="6476" y="92529"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="7919" y="76366"/>
+                <a:pt x="20991" y="63500"/>
+                <a:pt x="28248" y="48986"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="31877" y="41729"/>
+                <a:pt x="31876" y="30842"/>
+                <a:pt x="39133" y="27214"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="73776" y="9894"/>
+                <a:pt x="71593" y="8318"/>
+                <a:pt x="126219" y="5443"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="173325" y="2964"/>
+                <a:pt x="220562" y="5443"/>
+                <a:pt x="267733" y="5443"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="267733" y="48986"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="801133" y="223157"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>6</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>576944</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>157844</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>97973</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="角丸四角形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1230087" y="664030"/>
+          <a:ext cx="2378528" cy="1627414"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>250371</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>587828</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>70757</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="角丸四角形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1556657" y="685800"/>
+          <a:ext cx="337457" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>6</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>108858</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>168729</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="角丸四角形 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1534886" y="952501"/>
+          <a:ext cx="1899557" cy="174171"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>168729</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>27213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>174171</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>54427</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="角丸四角形 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2781300" y="702127"/>
+          <a:ext cx="658585" cy="195943"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>12</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>527958</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>146956</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>587830</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="角丸四角形 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2487387" y="2002970"/>
+          <a:ext cx="713014" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>14</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>206828</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>10885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>81643</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>21771</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="角丸四角形 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1513114" y="1360714"/>
+          <a:ext cx="1834243" cy="179614"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>9</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>261258</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>119743</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>598715</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>10885</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="角丸四角形 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1567544" y="1132114"/>
+          <a:ext cx="337457" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>8</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>201386</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>16328</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>97971</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="角丸四角形 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1507672" y="1556657"/>
+          <a:ext cx="468085" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>10</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>179615</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>136072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>119744</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>141515</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="角丸四角形 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1485901" y="1823358"/>
+          <a:ext cx="1899557" cy="174171"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>11</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>288472</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>157843</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>348343</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>87086</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="角丸四角形 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1594758" y="2013857"/>
+          <a:ext cx="713014" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>13</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
       <xdr:row>8</xdr:row>
@@ -8202,10 +10254,280 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>223197</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>76224</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="図 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="653143" y="14048014"/>
+          <a:ext cx="1529483" cy="919867"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>212272</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="左矢印吹き出し 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1959429" y="14254844"/>
+          <a:ext cx="865414" cy="451757"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrowCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>642257</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>201386</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="左矢印吹き出し 55"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1948543" y="14722929"/>
+          <a:ext cx="865414" cy="451757"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrowCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="右矢印吹き出し 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="114300" y="14091557"/>
+          <a:ext cx="653143" cy="489857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrowCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>125185</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>522514</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>65314</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="下矢印吹き出し 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1431471" y="13764986"/>
+          <a:ext cx="397329" cy="517071"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrowCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8630,10 +10952,10 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="6"/>
       <c r="D3" t="s">
         <v>3</v>
       </c>
@@ -8645,10 +10967,10 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="6"/>
       <c r="D4" t="s">
         <v>3</v>
       </c>
@@ -8660,10 +10982,10 @@
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="6"/>
       <c r="D5" t="s">
         <v>3</v>
       </c>
@@ -8671,12 +10993,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>1</v>
@@ -8722,11 +11044,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.3" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -8737,7 +11057,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -8755,7 +11075,7 @@
       <c r="B4" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" t="s">
         <v>14</v>
       </c>
       <c r="E4" t="s">
@@ -8799,7 +11119,7 @@
       <c r="B8" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" t="s">
         <v>26</v>
       </c>
       <c r="E8" t="s">
@@ -8826,18 +11146,18 @@
       <c r="B12" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" t="s">
         <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" t="s">
         <v>42</v>
       </c>
       <c r="E13" t="s">
@@ -8848,19 +11168,19 @@
       <c r="B14" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" t="s">
         <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>46</v>
+      <c r="C15" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="E15" t="s">
         <v>47</v>
@@ -8870,7 +11190,7 @@
       <c r="B16" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="5" t="s">
         <v>48</v>
       </c>
       <c r="E16" t="s">
@@ -8881,7 +11201,7 @@
       <c r="B17" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>74</v>
       </c>
       <c r="E17" t="s">
@@ -8892,7 +11212,7 @@
       <c r="B18" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="5" t="s">
         <v>76</v>
       </c>
       <c r="E18" t="s">
@@ -8962,7 +11282,7 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
@@ -8985,150 +11305,262 @@
       <c r="B28" s="2"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
+      <c r="C30" t="s">
+        <v>102</v>
+      </c>
+      <c r="E30" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
+      <c r="C31" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>102</v>
+      </c>
+      <c r="E32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>107</v>
+      </c>
+      <c r="E33" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>102</v>
+      </c>
+      <c r="E34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>109</v>
+      </c>
+      <c r="E35" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>110</v>
+      </c>
+      <c r="E36" t="s">
+        <v>111</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>76</v>
+      </c>
+      <c r="E37" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>113</v>
+      </c>
+      <c r="E38" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="2"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="2"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="2"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="2"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="2"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C47" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C48" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="2" t="s">
-        <v>93</v>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C50" t="s">
-        <v>91</v>
-      </c>
+      <c r="B50" s="2"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C51" t="s">
-        <v>92</v>
+      <c r="A51" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C52" t="s">
-        <v>96</v>
+      <c r="B52" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="2"/>
+      <c r="B54" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="C54" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="E54" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>95</v>
+      <c r="B56" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>88</v>
+      <c r="B57" s="4" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="2" t="s">
-        <v>93</v>
+      <c r="B58" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C58" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="4" t="s">
         <v>90</v>
       </c>
       <c r="C59" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B60" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C60" t="s">
+        <v>100</v>
+      </c>
+      <c r="E60" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B61" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C61" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B62" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C62" t="s">
         <v>28</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E62" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="I36" location="'OverScene(Credit)'!A1" display="OverScene"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
@@ -9136,20 +11568,54 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.3" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -9302,12 +11768,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.3" x14ac:dyDescent="0.25"/>
@@ -9429,12 +11895,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.3" x14ac:dyDescent="0.25"/>
@@ -9571,12 +12037,202 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I80"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D91" sqref="D91"/>
+      <selection activeCell="J58" sqref="J58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>109</v>
+      </c>
+      <c r="E27" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>12</v>
+      </c>
+      <c r="C28" t="s">
+        <v>110</v>
+      </c>
+      <c r="E28" t="s">
+        <v>111</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>13</v>
+      </c>
+      <c r="C29" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>14</v>
+      </c>
+      <c r="C30" t="s">
+        <v>113</v>
+      </c>
+      <c r="E30" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="I28" location="'OverScene(Credit)'!A1" display="OverScene"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I94"/>
+  <sheetViews>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="J85" sqref="J85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.3" x14ac:dyDescent="0.25"/>
@@ -9604,6 +12260,11 @@
         <v>60</v>
       </c>
     </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>119</v>
+      </c>
+    </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>85</v>
@@ -9928,6 +12589,43 @@
       </c>
       <c r="D80" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>1</v>
+      </c>
+      <c r="B91" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>2</v>
+      </c>
+      <c r="B92" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>3</v>
+      </c>
+      <c r="B93" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>4</v>
+      </c>
+      <c r="B94" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -9940,12 +12638,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:F19"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.3" x14ac:dyDescent="0.25"/>

--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="122">
   <si>
     <t>ゲーム1.0のバージョンのメインシーン3つありますは</t>
   </si>
@@ -246,6 +246,21 @@
     <t>セッチングメニュー</t>
   </si>
   <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>クリックだけ</t>
+  </si>
+  <si>
+    <t>Sound</t>
+  </si>
+  <si>
+    <t>アニメション</t>
+  </si>
+  <si>
     <t>ゲームプレイシステム</t>
   </si>
   <si>
@@ -382,7 +397,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -392,7 +407,6 @@
     <font>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -415,6 +429,16 @@
       <color rgb="FFFF0000"/>
       <name val="MS PGothic"/>
     </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -430,7 +454,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -455,11 +479,17 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -486,11 +516,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>-9525</xdr:colOff>
+      <xdr:colOff>-19050</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>-9525</xdr:rowOff>
+      <xdr:rowOff>-19050</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3162300" cy="2000250"/>
+    <xdr:ext cx="3181350" cy="2019300"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="Shape 3"/>
@@ -498,8 +528,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3774375" y="2789400"/>
-          <a:ext cx="3143250" cy="1981200"/>
+          <a:off x="3764850" y="2779875"/>
+          <a:ext cx="3162300" cy="2000250"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -532,6 +562,8 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Arial"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -546,11 +578,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2647950" cy="1628775"/>
+    <xdr:ext cx="2667000" cy="1647825"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="Shape 4"/>
@@ -558,8 +590,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4031550" y="2975138"/>
-          <a:ext cx="2628900" cy="1609725"/>
+          <a:off x="4022025" y="2965613"/>
+          <a:ext cx="2647950" cy="1628775"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -592,6 +624,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -615,11 +652,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1752600" cy="561975"/>
+    <xdr:ext cx="1771650" cy="581025"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="Shape 5"/>
@@ -627,8 +664,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4479225" y="3513300"/>
-          <a:ext cx="1733550" cy="533400"/>
+          <a:off x="4469700" y="3499013"/>
+          <a:ext cx="1752600" cy="561975"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -661,6 +698,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -684,11 +726,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:colOff>581025</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2124075" cy="581025"/>
+    <xdr:ext cx="2143125" cy="600075"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="Shape 6"/>
@@ -696,8 +738,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4298250" y="3499013"/>
-          <a:ext cx="2095500" cy="561975"/>
+          <a:off x="4283963" y="3489488"/>
+          <a:ext cx="2124075" cy="581025"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -730,6 +772,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -753,11 +800,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="228600" cy="228600"/>
+    <xdr:ext cx="247650" cy="247650"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="Shape 7"/>
@@ -765,8 +812,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5241225" y="3679988"/>
-          <a:ext cx="209550" cy="200025"/>
+          <a:off x="5231700" y="3665700"/>
+          <a:ext cx="228600" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -799,6 +846,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -822,11 +874,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="228600" cy="219075"/>
+    <xdr:ext cx="247650" cy="238125"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="8" name="Shape 8"/>
@@ -834,8 +886,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5241225" y="3679988"/>
-          <a:ext cx="209550" cy="200025"/>
+          <a:off x="5231700" y="3670463"/>
+          <a:ext cx="228600" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -868,6 +920,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -891,11 +948,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
+      <xdr:colOff>428625</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="200025" cy="266700"/>
+    <xdr:ext cx="219075" cy="285750"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="9" name="Shape 9"/>
@@ -903,8 +960,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5255513" y="3656175"/>
-          <a:ext cx="180975" cy="247650"/>
+          <a:off x="5245988" y="3646650"/>
+          <a:ext cx="200025" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -937,6 +994,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -960,11 +1022,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>-9525</xdr:rowOff>
+      <xdr:rowOff>-19050</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="790575" cy="447675"/>
+    <xdr:ext cx="809625" cy="466725"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="10" name="Shape 10"/>
@@ -972,8 +1034,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4960238" y="3570450"/>
-          <a:ext cx="771525" cy="419100"/>
+          <a:off x="4950713" y="3556163"/>
+          <a:ext cx="790575" cy="447675"/>
         </a:xfrm>
         <a:custGeom>
           <a:rect b="b" l="l" r="r" t="t"/>
@@ -1153,6 +1215,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -1176,11 +1243,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="790575" cy="447675"/>
+    <xdr:ext cx="809625" cy="466725"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="11" name="Shape 11"/>
@@ -1188,8 +1255,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4960238" y="3565688"/>
-          <a:ext cx="771525" cy="428625"/>
+          <a:off x="4950713" y="3556163"/>
+          <a:ext cx="790575" cy="447675"/>
         </a:xfrm>
         <a:custGeom>
           <a:rect b="b" l="l" r="r" t="t"/>
@@ -1369,6 +1436,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -1392,11 +1464,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
+      <xdr:colOff>561975</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>-9525</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3105150" cy="2000250"/>
+    <xdr:ext cx="3124200" cy="2019300"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="12" name="Shape 12"/>
@@ -1404,8 +1476,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3807713" y="2789400"/>
-          <a:ext cx="3076575" cy="1981200"/>
+          <a:off x="3793425" y="2779875"/>
+          <a:ext cx="3105150" cy="2000250"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1438,6 +1510,8 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Arial"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -1452,11 +1526,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
+      <xdr:colOff>257175</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2647950" cy="1628775"/>
+    <xdr:ext cx="2667000" cy="1647825"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="13" name="Shape 13"/>
@@ -1464,8 +1538,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4031550" y="2975138"/>
-          <a:ext cx="2628900" cy="1609725"/>
+          <a:off x="4022025" y="2965613"/>
+          <a:ext cx="2647950" cy="1628775"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1498,6 +1572,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -1521,11 +1600,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1752600" cy="552450"/>
+    <xdr:ext cx="1771650" cy="571500"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="14" name="Shape 14"/>
@@ -1533,8 +1612,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4479225" y="3513300"/>
-          <a:ext cx="1733550" cy="533400"/>
+          <a:off x="4469700" y="3503775"/>
+          <a:ext cx="1752600" cy="552450"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1567,6 +1646,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -1590,11 +1674,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:colOff>552450</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2124075" cy="581025"/>
+    <xdr:ext cx="2143125" cy="600075"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="15" name="Shape 15"/>
@@ -1602,8 +1686,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4298250" y="3499013"/>
-          <a:ext cx="2095500" cy="561975"/>
+          <a:off x="4283963" y="3489488"/>
+          <a:ext cx="2124075" cy="581025"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1636,6 +1720,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -1659,11 +1748,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:colOff>438150</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="171450" cy="228600"/>
+    <xdr:ext cx="190500" cy="247650"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="16" name="Shape 16"/>
@@ -1671,8 +1760,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5274563" y="3679988"/>
-          <a:ext cx="142875" cy="200025"/>
+          <a:off x="5260275" y="3665700"/>
+          <a:ext cx="171450" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1705,6 +1794,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -1728,11 +1822,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:colOff>438150</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="171450" cy="219075"/>
+    <xdr:ext cx="190500" cy="238125"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="17" name="Shape 17"/>
@@ -1740,8 +1834,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5274563" y="3684750"/>
-          <a:ext cx="142875" cy="190500"/>
+          <a:off x="5260275" y="3670463"/>
+          <a:ext cx="171450" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1774,6 +1868,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -1797,11 +1896,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="266700" cy="276225"/>
+    <xdr:ext cx="285750" cy="295275"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="18" name="Shape 18"/>
@@ -1809,8 +1908,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5226938" y="3656175"/>
-          <a:ext cx="238125" cy="247650"/>
+          <a:off x="5212650" y="3641888"/>
+          <a:ext cx="266700" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1843,6 +1942,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -1866,11 +1970,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="914400" cy="152400"/>
+    <xdr:ext cx="923925" cy="161925"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="19" name="Shape 19"/>
@@ -1878,8 +1982,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4893563" y="3708563"/>
-          <a:ext cx="904875" cy="142875"/>
+          <a:off x="4888800" y="3703800"/>
+          <a:ext cx="914400" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -1924,6 +2028,8 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Arial"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -1938,11 +2044,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="133350" cy="685800"/>
+    <xdr:ext cx="142875" cy="695325"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="20" name="Shape 20"/>
@@ -1950,8 +2056,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5284088" y="3441863"/>
-          <a:ext cx="123825" cy="676275"/>
+          <a:off x="5279325" y="3437100"/>
+          <a:ext cx="133350" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst>
@@ -1996,6 +2102,8 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Arial"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -2010,11 +2118,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="171450" cy="704850"/>
+    <xdr:ext cx="180975" cy="714375"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="21" name="Shape 21"/>
@@ -2022,8 +2130,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" rot="10800000">
-          <a:off x="5265038" y="3432338"/>
-          <a:ext cx="161925" cy="695325"/>
+          <a:off x="5260275" y="3427575"/>
+          <a:ext cx="171450" cy="704850"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst>
@@ -2068,6 +2176,8 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Arial"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -2084,9 +2194,9 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="571500" cy="152400"/>
+    <xdr:ext cx="581025" cy="161925"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="22" name="Shape 22"/>
@@ -2094,8 +2204,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5060250" y="3708563"/>
-          <a:ext cx="571500" cy="142875"/>
+          <a:off x="5060250" y="3703800"/>
+          <a:ext cx="571500" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -2140,6 +2250,8 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Arial"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -2154,11 +2266,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="571500" cy="152400"/>
+    <xdr:ext cx="581025" cy="161925"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="22" name="Shape 22"/>
@@ -2166,8 +2278,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5060250" y="3708563"/>
-          <a:ext cx="571500" cy="142875"/>
+          <a:off x="5060250" y="3703800"/>
+          <a:ext cx="571500" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -2212,6 +2324,8 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Arial"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -2226,11 +2340,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>-9525</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="790575" cy="447675"/>
+    <xdr:ext cx="809625" cy="466725"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="23" name="Shape 23"/>
@@ -2238,8 +2352,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4960238" y="3570450"/>
-          <a:ext cx="771525" cy="419100"/>
+          <a:off x="4950713" y="3556163"/>
+          <a:ext cx="790575" cy="447675"/>
         </a:xfrm>
         <a:custGeom>
           <a:rect b="b" l="l" r="r" t="t"/>
@@ -2419,6 +2533,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -2442,11 +2561,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="790575" cy="447675"/>
+    <xdr:ext cx="809625" cy="466725"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="24" name="Shape 24"/>
@@ -2454,8 +2573,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4960238" y="3565688"/>
-          <a:ext cx="771525" cy="428625"/>
+          <a:off x="4950713" y="3556163"/>
+          <a:ext cx="790575" cy="447675"/>
         </a:xfrm>
         <a:custGeom>
           <a:rect b="b" l="l" r="r" t="t"/>
@@ -2635,6 +2754,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -2663,11 +2787,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3162300" cy="2000250"/>
+    <xdr:ext cx="3181350" cy="2019300"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="Shape 3"/>
@@ -2675,8 +2799,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3774375" y="2789400"/>
-          <a:ext cx="3143250" cy="1981200"/>
+          <a:off x="3764850" y="2779875"/>
+          <a:ext cx="3162300" cy="2000250"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2709,6 +2833,8 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Arial"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -2723,11 +2849,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
+      <xdr:colOff>390525</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2590800" cy="1628775"/>
+    <xdr:ext cx="2609850" cy="1647825"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="25" name="Shape 25"/>
@@ -2735,8 +2861,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4064888" y="2975138"/>
-          <a:ext cx="2562225" cy="1609725"/>
+          <a:off x="4050600" y="2965613"/>
+          <a:ext cx="2590800" cy="1628775"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2769,6 +2895,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -2792,11 +2923,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1752600" cy="552450"/>
+    <xdr:ext cx="1771650" cy="571500"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="26" name="Shape 26"/>
@@ -2804,8 +2935,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4479225" y="3513300"/>
-          <a:ext cx="1733550" cy="533400"/>
+          <a:off x="4469700" y="3503775"/>
+          <a:ext cx="1752600" cy="552450"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2838,6 +2969,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -2861,11 +2997,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2181225" cy="581025"/>
+    <xdr:ext cx="2200275" cy="600075"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="27" name="Shape 27"/>
@@ -2873,8 +3009,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4264913" y="3499013"/>
-          <a:ext cx="2162175" cy="561975"/>
+          <a:off x="4255388" y="3489488"/>
+          <a:ext cx="2181225" cy="581025"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2907,6 +3043,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -2930,11 +3071,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>-9525</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="228600" cy="228600"/>
+    <xdr:ext cx="247650" cy="247650"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="28" name="Shape 28"/>
@@ -2942,8 +3083,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5241225" y="3679988"/>
-          <a:ext cx="209550" cy="200025"/>
+          <a:off x="5231700" y="3665700"/>
+          <a:ext cx="228600" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2976,6 +3117,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -2999,11 +3145,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:colOff>276225</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>-9525</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="228600" cy="219075"/>
+    <xdr:ext cx="247650" cy="238125"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="29" name="Shape 29"/>
@@ -3011,8 +3157,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5241225" y="3679988"/>
-          <a:ext cx="209550" cy="200025"/>
+          <a:off x="5231700" y="3670463"/>
+          <a:ext cx="228600" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3045,6 +3191,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -3068,11 +3219,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:colOff>581025</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="200025" cy="276225"/>
+    <xdr:ext cx="219075" cy="295275"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="30" name="Shape 30"/>
@@ -3080,8 +3231,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5255513" y="3656175"/>
-          <a:ext cx="180975" cy="247650"/>
+          <a:off x="5245988" y="3641888"/>
+          <a:ext cx="200025" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3114,6 +3265,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -3137,11 +3293,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="790575" cy="447675"/>
+    <xdr:ext cx="809625" cy="466725"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="31" name="Shape 31"/>
@@ -3149,8 +3305,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4960238" y="3570450"/>
-          <a:ext cx="771525" cy="419100"/>
+          <a:off x="4950713" y="3556163"/>
+          <a:ext cx="790575" cy="447675"/>
         </a:xfrm>
         <a:custGeom>
           <a:rect b="b" l="l" r="r" t="t"/>
@@ -3330,6 +3486,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -3353,11 +3514,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="790575" cy="447675"/>
+    <xdr:ext cx="809625" cy="466725"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="32" name="Shape 32"/>
@@ -3365,8 +3526,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4960238" y="3565688"/>
-          <a:ext cx="771525" cy="428625"/>
+          <a:off x="4950713" y="3556163"/>
+          <a:ext cx="790575" cy="447675"/>
         </a:xfrm>
         <a:custGeom>
           <a:rect b="b" l="l" r="r" t="t"/>
@@ -3546,6 +3707,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -3574,20 +3740,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
+      <xdr:colOff>609600</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3105150" cy="2000250"/>
+    <xdr:ext cx="3124200" cy="2019300"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="Shape 33"/>
+        <xdr:cNvPr id="12" name="Shape 12"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3807713" y="2789400"/>
-          <a:ext cx="3076575" cy="1981200"/>
+          <a:off x="3793425" y="2779875"/>
+          <a:ext cx="3105150" cy="2000250"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3620,6 +3786,8 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Arial"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -3634,20 +3802,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2647950" cy="1628775"/>
+    <xdr:ext cx="2667000" cy="1647825"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="Shape 34"/>
+        <xdr:cNvPr id="33" name="Shape 33"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4031550" y="2975138"/>
-          <a:ext cx="2628900" cy="1609725"/>
+          <a:off x="4022025" y="2965613"/>
+          <a:ext cx="2647950" cy="1628775"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3680,6 +3848,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -3703,20 +3876,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1752600" cy="552450"/>
+    <xdr:ext cx="1771650" cy="571500"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="Shape 35"/>
+        <xdr:cNvPr id="34" name="Shape 34"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4479225" y="3513300"/>
-          <a:ext cx="1733550" cy="533400"/>
+          <a:off x="4469700" y="3503775"/>
+          <a:ext cx="1752600" cy="552450"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3749,6 +3922,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -3772,20 +3950,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
+      <xdr:colOff>609600</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2124075" cy="581025"/>
+    <xdr:ext cx="2143125" cy="600075"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="Shape 36"/>
+        <xdr:cNvPr id="35" name="Shape 35"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4298250" y="3499013"/>
-          <a:ext cx="2095500" cy="561975"/>
+          <a:off x="4283963" y="3489488"/>
+          <a:ext cx="2124075" cy="581025"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3818,6 +3996,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -3841,20 +4024,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="171450" cy="228600"/>
+    <xdr:ext cx="190500" cy="247650"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="Shape 37"/>
+        <xdr:cNvPr id="36" name="Shape 36"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5274563" y="3679988"/>
-          <a:ext cx="142875" cy="200025"/>
+          <a:off x="5260275" y="3665700"/>
+          <a:ext cx="171450" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3887,6 +4070,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -3910,20 +4098,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
+      <xdr:colOff>485775</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="171450" cy="219075"/>
+    <xdr:ext cx="190500" cy="238125"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="Shape 38"/>
+        <xdr:cNvPr id="37" name="Shape 37"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5274563" y="3679988"/>
-          <a:ext cx="142875" cy="200025"/>
+          <a:off x="5260275" y="3670463"/>
+          <a:ext cx="171450" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3956,6 +4144,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -3979,20 +4172,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="266700" cy="266700"/>
+    <xdr:ext cx="285750" cy="285750"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="Shape 39"/>
+        <xdr:cNvPr id="38" name="Shape 38"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5226938" y="3656175"/>
-          <a:ext cx="238125" cy="247650"/>
+          <a:off x="5212650" y="3646650"/>
+          <a:ext cx="266700" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -4025,6 +4218,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -4048,20 +4246,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:colOff>295275</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="914400" cy="152400"/>
+    <xdr:ext cx="923925" cy="161925"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="Shape 40"/>
+        <xdr:cNvPr id="19" name="Shape 19"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4893563" y="3708563"/>
-          <a:ext cx="904875" cy="142875"/>
+          <a:off x="4888800" y="3703800"/>
+          <a:ext cx="914400" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -4106,6 +4304,8 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Arial"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -4120,20 +4320,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="133350" cy="685800"/>
+    <xdr:ext cx="142875" cy="695325"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="Shape 41"/>
+        <xdr:cNvPr id="20" name="Shape 20"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5284088" y="3441863"/>
-          <a:ext cx="123825" cy="676275"/>
+          <a:off x="5279325" y="3437100"/>
+          <a:ext cx="133350" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst>
@@ -4178,6 +4378,8 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Arial"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -4192,20 +4394,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:colOff>352425</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="171450" cy="704850"/>
+    <xdr:ext cx="180975" cy="714375"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="Shape 42"/>
+        <xdr:cNvPr id="21" name="Shape 21"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" rot="10800000">
-          <a:off x="5265038" y="3432338"/>
-          <a:ext cx="161925" cy="695325"/>
+          <a:off x="5260275" y="3427575"/>
+          <a:ext cx="171450" cy="704850"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst>
@@ -4250,6 +4452,8 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Arial"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -4264,11 +4468,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="571500" cy="152400"/>
+    <xdr:ext cx="581025" cy="161925"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="22" name="Shape 22"/>
@@ -4276,8 +4480,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5060250" y="3708563"/>
-          <a:ext cx="571500" cy="142875"/>
+          <a:off x="5060250" y="3703800"/>
+          <a:ext cx="571500" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -4322,6 +4526,8 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Arial"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -4336,11 +4542,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="571500" cy="152400"/>
+    <xdr:ext cx="581025" cy="161925"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="22" name="Shape 22"/>
@@ -4348,8 +4554,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5060250" y="3708563"/>
-          <a:ext cx="571500" cy="142875"/>
+          <a:off x="5060250" y="3703800"/>
+          <a:ext cx="571500" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -4394,6 +4600,8 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Arial"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -4408,20 +4616,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="790575" cy="447675"/>
+    <xdr:ext cx="809625" cy="466725"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="Shape 43"/>
+        <xdr:cNvPr id="39" name="Shape 39"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4960238" y="3565688"/>
-          <a:ext cx="771525" cy="428625"/>
+          <a:off x="4950713" y="3556163"/>
+          <a:ext cx="790575" cy="447675"/>
         </a:xfrm>
         <a:custGeom>
           <a:rect b="b" l="l" r="r" t="t"/>
@@ -4601,6 +4809,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -4624,20 +4837,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="790575" cy="447675"/>
+    <xdr:ext cx="809625" cy="466725"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="Shape 44"/>
+        <xdr:cNvPr id="40" name="Shape 40"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4960238" y="3565688"/>
-          <a:ext cx="771525" cy="428625"/>
+          <a:off x="4950713" y="3556163"/>
+          <a:ext cx="790575" cy="447675"/>
         </a:xfrm>
         <a:custGeom>
           <a:rect b="b" l="l" r="r" t="t"/>
@@ -4817,6 +5030,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -4845,11 +5063,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>-9525</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3162300" cy="2000250"/>
+    <xdr:ext cx="3181350" cy="2019300"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="Shape 3"/>
@@ -4857,8 +5075,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3774375" y="2789400"/>
-          <a:ext cx="3143250" cy="1981200"/>
+          <a:off x="3764850" y="2779875"/>
+          <a:ext cx="3162300" cy="2000250"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -4891,6 +5109,8 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Arial"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -4905,20 +5125,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>-9525</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2647950" cy="1628775"/>
+    <xdr:ext cx="2667000" cy="1647825"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="Shape 45"/>
+        <xdr:cNvPr id="41" name="Shape 41"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4031550" y="2975138"/>
-          <a:ext cx="2628900" cy="1609725"/>
+          <a:off x="4022025" y="2965613"/>
+          <a:ext cx="2647950" cy="1628775"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -4951,6 +5171,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -4974,20 +5199,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1752600" cy="561975"/>
+    <xdr:ext cx="1771650" cy="581025"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="Shape 46"/>
+        <xdr:cNvPr id="42" name="Shape 42"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4479225" y="3513300"/>
-          <a:ext cx="1733550" cy="533400"/>
+          <a:off x="4469700" y="3499013"/>
+          <a:ext cx="1752600" cy="561975"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5020,6 +5245,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -5043,20 +5273,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:colOff>581025</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2124075" cy="581025"/>
+    <xdr:ext cx="2143125" cy="600075"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="Shape 47"/>
+        <xdr:cNvPr id="43" name="Shape 43"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4298250" y="3499013"/>
-          <a:ext cx="2095500" cy="561975"/>
+          <a:off x="4283963" y="3489488"/>
+          <a:ext cx="2124075" cy="581025"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5089,6 +5319,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -5112,20 +5347,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="228600" cy="228600"/>
+    <xdr:ext cx="247650" cy="247650"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="Shape 48"/>
+        <xdr:cNvPr id="44" name="Shape 44"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5241225" y="3679988"/>
-          <a:ext cx="209550" cy="200025"/>
+          <a:off x="5231700" y="3665700"/>
+          <a:ext cx="228600" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5158,6 +5393,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -5181,20 +5421,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="228600" cy="219075"/>
+    <xdr:ext cx="247650" cy="238125"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="Shape 49"/>
+        <xdr:cNvPr id="45" name="Shape 45"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5241225" y="3684750"/>
-          <a:ext cx="209550" cy="190500"/>
+          <a:off x="5231700" y="3670463"/>
+          <a:ext cx="228600" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5227,6 +5467,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -5250,20 +5495,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:colOff>438150</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="200025" cy="266700"/>
+    <xdr:ext cx="219075" cy="285750"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="Shape 50"/>
+        <xdr:cNvPr id="46" name="Shape 46"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5255513" y="3656175"/>
-          <a:ext cx="180975" cy="247650"/>
+          <a:off x="5245988" y="3646650"/>
+          <a:ext cx="200025" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5296,6 +5541,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -5319,20 +5569,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="790575" cy="447675"/>
+    <xdr:ext cx="809625" cy="466725"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="Shape 51"/>
+        <xdr:cNvPr id="47" name="Shape 47"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4960238" y="3565688"/>
-          <a:ext cx="771525" cy="428625"/>
+          <a:off x="4950713" y="3556163"/>
+          <a:ext cx="790575" cy="447675"/>
         </a:xfrm>
         <a:custGeom>
           <a:rect b="b" l="l" r="r" t="t"/>
@@ -5512,6 +5762,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -5535,20 +5790,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="790575" cy="447675"/>
+    <xdr:ext cx="809625" cy="466725"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="Shape 52"/>
+        <xdr:cNvPr id="48" name="Shape 48"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4960238" y="3570450"/>
-          <a:ext cx="771525" cy="419100"/>
+          <a:off x="4950713" y="3556163"/>
+          <a:ext cx="790575" cy="447675"/>
         </a:xfrm>
         <a:custGeom>
           <a:rect b="b" l="l" r="r" t="t"/>
@@ -5728,6 +5983,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -5751,20 +6011,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
+      <xdr:colOff>542925</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2124075" cy="1590675"/>
+    <xdr:ext cx="2143125" cy="1609725"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="Shape 53"/>
+        <xdr:cNvPr id="49" name="Shape 49"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4298250" y="2998950"/>
-          <a:ext cx="2095500" cy="1562100"/>
+          <a:off x="4283963" y="2984663"/>
+          <a:ext cx="2124075" cy="1590675"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5797,6 +6057,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -5820,20 +6085,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>209550</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>-9525</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="361950" cy="238125"/>
+    <xdr:ext cx="381000" cy="257175"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="Shape 54"/>
+        <xdr:cNvPr id="50" name="Shape 50"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5179313" y="3670463"/>
-          <a:ext cx="333375" cy="219075"/>
+          <a:off x="5165025" y="3660938"/>
+          <a:ext cx="361950" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5866,6 +6131,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -5889,20 +6159,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1714500" cy="190500"/>
+    <xdr:ext cx="1733550" cy="209550"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="Shape 55"/>
+        <xdr:cNvPr id="51" name="Shape 51"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4503038" y="3699038"/>
-          <a:ext cx="1685925" cy="161925"/>
+          <a:off x="4488750" y="3684750"/>
+          <a:ext cx="1714500" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5935,6 +6205,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -5958,20 +6233,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="609600" cy="209550"/>
+    <xdr:ext cx="628650" cy="228600"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="Shape 56"/>
+        <xdr:cNvPr id="52" name="Shape 52"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5055488" y="3689513"/>
-          <a:ext cx="581025" cy="180975"/>
+          <a:off x="5041200" y="3675225"/>
+          <a:ext cx="609600" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -6004,6 +6279,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -6027,20 +6307,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="657225" cy="285750"/>
+    <xdr:ext cx="676275" cy="304800"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="Shape 57"/>
+        <xdr:cNvPr id="53" name="Shape 53"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5026913" y="3651413"/>
-          <a:ext cx="638175" cy="257175"/>
+          <a:off x="5017388" y="3637125"/>
+          <a:ext cx="657225" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -6073,6 +6353,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -6096,20 +6381,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>-9525</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1647825" cy="190500"/>
+    <xdr:ext cx="1666875" cy="209550"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="Shape 58"/>
+        <xdr:cNvPr id="54" name="Shape 54"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4536375" y="3694275"/>
-          <a:ext cx="1619250" cy="171450"/>
+          <a:off x="4522088" y="3684750"/>
+          <a:ext cx="1647825" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -6142,6 +6427,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -6165,20 +6455,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="361950" cy="247650"/>
+    <xdr:ext cx="381000" cy="266700"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="Shape 59"/>
+        <xdr:cNvPr id="55" name="Shape 55"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5179313" y="3670463"/>
-          <a:ext cx="333375" cy="219075"/>
+          <a:off x="5165025" y="3656175"/>
+          <a:ext cx="361950" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -6211,6 +6501,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -6234,20 +6529,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="428625" cy="238125"/>
+    <xdr:ext cx="447675" cy="257175"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="Shape 60"/>
+        <xdr:cNvPr id="56" name="Shape 56"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5145975" y="3670463"/>
-          <a:ext cx="400050" cy="219075"/>
+          <a:off x="5131688" y="3660938"/>
+          <a:ext cx="428625" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -6280,6 +6575,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -6303,20 +6603,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1714500" cy="190500"/>
+    <xdr:ext cx="1733550" cy="209550"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="Shape 61"/>
+        <xdr:cNvPr id="57" name="Shape 57"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4503038" y="3699038"/>
-          <a:ext cx="1685925" cy="161925"/>
+          <a:off x="4488750" y="3684750"/>
+          <a:ext cx="1714500" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -6349,6 +6649,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -6372,20 +6677,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="657225" cy="285750"/>
+    <xdr:ext cx="676275" cy="304800"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="62" name="Shape 62"/>
+        <xdr:cNvPr id="58" name="Shape 58"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5026913" y="3651413"/>
-          <a:ext cx="638175" cy="257175"/>
+          <a:off x="5017388" y="3637125"/>
+          <a:ext cx="657225" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -6418,6 +6723,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -6446,20 +6756,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
+      <xdr:colOff>609600</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3105150" cy="2000250"/>
+    <xdr:ext cx="3124200" cy="2019300"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="Shape 63"/>
+        <xdr:cNvPr id="59" name="Shape 59"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3807713" y="2789400"/>
-          <a:ext cx="3076575" cy="1981200"/>
+          <a:off x="3793425" y="2779875"/>
+          <a:ext cx="3105150" cy="2000250"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -6492,6 +6802,8 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Arial"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -6506,20 +6818,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2647950" cy="1628775"/>
+    <xdr:ext cx="2667000" cy="1647825"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="64" name="Shape 64"/>
+        <xdr:cNvPr id="60" name="Shape 60"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4031550" y="2975138"/>
-          <a:ext cx="2628900" cy="1609725"/>
+          <a:off x="4022025" y="2965613"/>
+          <a:ext cx="2647950" cy="1628775"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -6552,6 +6864,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -6575,20 +6892,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>209550</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="390525" cy="400050"/>
+    <xdr:ext cx="409575" cy="419100"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="65" name="Shape 65"/>
+        <xdr:cNvPr id="61" name="Shape 61"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5165025" y="3589500"/>
-          <a:ext cx="361950" cy="381000"/>
+          <a:off x="5150738" y="3579975"/>
+          <a:ext cx="390525" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -6621,6 +6938,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -6644,20 +6966,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="447675" cy="400050"/>
+    <xdr:ext cx="466725" cy="419100"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="66" name="Shape 66"/>
+        <xdr:cNvPr id="62" name="Shape 62"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5131688" y="3589500"/>
-          <a:ext cx="428625" cy="381000"/>
+          <a:off x="5122163" y="3579975"/>
+          <a:ext cx="447675" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -6690,6 +7012,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -6713,20 +7040,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="447675" cy="400050"/>
+    <xdr:ext cx="466725" cy="419100"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="Shape 67"/>
+        <xdr:cNvPr id="63" name="Shape 63"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5131688" y="3589500"/>
-          <a:ext cx="428625" cy="381000"/>
+          <a:off x="5122163" y="3579975"/>
+          <a:ext cx="447675" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -6759,6 +7086,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -6782,20 +7114,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="419100" cy="438150"/>
+    <xdr:ext cx="438150" cy="457200"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="68" name="Shape 68"/>
+        <xdr:cNvPr id="64" name="Shape 64"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5145975" y="3575213"/>
-          <a:ext cx="400050" cy="409575"/>
+          <a:off x="5136450" y="3560925"/>
+          <a:ext cx="419100" cy="438150"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -6828,6 +7160,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -6851,20 +7188,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
+      <xdr:colOff>314325</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="390525" cy="428625"/>
+    <xdr:ext cx="409575" cy="447675"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="69" name="Shape 69"/>
+        <xdr:cNvPr id="65" name="Shape 65"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5160263" y="3579975"/>
-          <a:ext cx="371475" cy="400050"/>
+          <a:off x="5150738" y="3565688"/>
+          <a:ext cx="390525" cy="428625"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -6897,6 +7234,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -6920,20 +7262,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>209550</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2714625" cy="371475"/>
+    <xdr:ext cx="2733675" cy="390525"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="70" name="Shape 70"/>
+        <xdr:cNvPr id="66" name="Shape 66"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3998213" y="3603788"/>
-          <a:ext cx="2695575" cy="352425"/>
+          <a:off x="3988688" y="3594263"/>
+          <a:ext cx="2714625" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -6966,6 +7308,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -6989,20 +7336,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
+      <xdr:colOff>390525</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="409575" cy="447675"/>
+    <xdr:ext cx="428625" cy="466725"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="71" name="Shape 71"/>
+        <xdr:cNvPr id="67" name="Shape 67"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5155500" y="3565688"/>
-          <a:ext cx="381000" cy="428625"/>
+          <a:off x="5141213" y="3556163"/>
+          <a:ext cx="409575" cy="447675"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -7035,6 +7382,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -7058,20 +7410,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
+      <xdr:colOff>609600</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="95250" cy="428625"/>
+    <xdr:ext cx="114300" cy="447675"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="72" name="Shape 72"/>
+        <xdr:cNvPr id="68" name="Shape 68"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5312663" y="3575213"/>
-          <a:ext cx="66675" cy="409575"/>
+          <a:off x="5298375" y="3565688"/>
+          <a:ext cx="95250" cy="428625"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -7104,6 +7456,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -7127,20 +7484,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>-9525</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>-9525</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3162300" cy="2000250"/>
+    <xdr:ext cx="3181350" cy="2019300"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="73" name="Shape 73"/>
+        <xdr:cNvPr id="3" name="Shape 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3774375" y="2794163"/>
-          <a:ext cx="3143250" cy="1971675"/>
+          <a:off x="3764850" y="2779875"/>
+          <a:ext cx="3162300" cy="2000250"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -7173,6 +7530,8 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Arial"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -7187,20 +7546,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2647950" cy="1628775"/>
+    <xdr:ext cx="2667000" cy="1647825"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="74" name="Shape 74"/>
+        <xdr:cNvPr id="69" name="Shape 69"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4031550" y="2975138"/>
-          <a:ext cx="2628900" cy="1609725"/>
+          <a:off x="4022025" y="2965613"/>
+          <a:ext cx="2647950" cy="1628775"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -7233,6 +7592,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -7256,20 +7620,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="390525" cy="400050"/>
+    <xdr:ext cx="409575" cy="419100"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="75" name="Shape 75"/>
+        <xdr:cNvPr id="70" name="Shape 70"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5165025" y="3589500"/>
-          <a:ext cx="361950" cy="381000"/>
+          <a:off x="5150738" y="3579975"/>
+          <a:ext cx="390525" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -7302,6 +7666,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -7325,20 +7694,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="447675" cy="400050"/>
+    <xdr:ext cx="466725" cy="419100"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="76" name="Shape 76"/>
+        <xdr:cNvPr id="71" name="Shape 71"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5131688" y="3589500"/>
-          <a:ext cx="428625" cy="381000"/>
+          <a:off x="5122163" y="3579975"/>
+          <a:ext cx="447675" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -7371,6 +7740,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -7394,20 +7768,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="447675" cy="400050"/>
+    <xdr:ext cx="466725" cy="419100"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="77" name="Shape 77"/>
+        <xdr:cNvPr id="72" name="Shape 72"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5131688" y="3589500"/>
-          <a:ext cx="428625" cy="381000"/>
+          <a:off x="5122163" y="3579975"/>
+          <a:ext cx="447675" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -7440,6 +7814,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -7463,20 +7842,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
+      <xdr:colOff>200025</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="419100" cy="361950"/>
+    <xdr:ext cx="438150" cy="381000"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="78" name="Shape 78"/>
+        <xdr:cNvPr id="73" name="Shape 73"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5145975" y="3613313"/>
-          <a:ext cx="400050" cy="333375"/>
+          <a:off x="5136450" y="3599025"/>
+          <a:ext cx="419100" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -7509,6 +7888,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -7532,20 +7916,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:colOff>323850</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="390525" cy="428625"/>
+    <xdr:ext cx="409575" cy="447675"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="79" name="Shape 79"/>
+        <xdr:cNvPr id="74" name="Shape 74"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5160263" y="3579975"/>
-          <a:ext cx="371475" cy="400050"/>
+          <a:off x="5150738" y="3565688"/>
+          <a:ext cx="390525" cy="428625"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -7578,6 +7962,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -7601,20 +7990,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2714625" cy="371475"/>
+    <xdr:ext cx="2733675" cy="390525"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="80" name="Shape 80"/>
+        <xdr:cNvPr id="75" name="Shape 75"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3998213" y="3608550"/>
-          <a:ext cx="2695575" cy="342900"/>
+          <a:off x="3988688" y="3594263"/>
+          <a:ext cx="2714625" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -7647,6 +8036,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -7670,20 +8064,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:colOff>400050</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>-9525</xdr:rowOff>
+      <xdr:rowOff>-19050</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="409575" cy="447675"/>
+    <xdr:ext cx="428625" cy="466725"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="81" name="Shape 81"/>
+        <xdr:cNvPr id="76" name="Shape 76"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5155500" y="3570450"/>
-          <a:ext cx="381000" cy="419100"/>
+          <a:off x="5141213" y="3556163"/>
+          <a:ext cx="409575" cy="447675"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -7716,6 +8110,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -7739,20 +8138,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>-9525</xdr:colOff>
+      <xdr:colOff>-19050</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1257300" cy="438150"/>
+    <xdr:ext cx="1276350" cy="457200"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="82" name="Shape 82"/>
+        <xdr:cNvPr id="77" name="Shape 77"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4731638" y="3575213"/>
-          <a:ext cx="1228725" cy="409575"/>
+          <a:off x="4717350" y="3560925"/>
+          <a:ext cx="1257300" cy="438150"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -7785,6 +8184,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -7808,20 +8212,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="238125" cy="257175"/>
+    <xdr:ext cx="257175" cy="276225"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="83" name="Shape 83"/>
+        <xdr:cNvPr id="78" name="Shape 78"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5241225" y="3660938"/>
-          <a:ext cx="209550" cy="238125"/>
+          <a:off x="5226938" y="3651413"/>
+          <a:ext cx="238125" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -7854,6 +8258,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -7877,20 +8286,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="238125" cy="219075"/>
+    <xdr:ext cx="257175" cy="238125"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="84" name="Shape 84"/>
+        <xdr:cNvPr id="79" name="Shape 79"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5241225" y="3679988"/>
-          <a:ext cx="209550" cy="200025"/>
+          <a:off x="5226938" y="3670463"/>
+          <a:ext cx="238125" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -7923,6 +8332,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -7946,20 +8360,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="371475" cy="295275"/>
+    <xdr:ext cx="390525" cy="314325"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="85" name="Shape 85"/>
+        <xdr:cNvPr id="80" name="Shape 80"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5169788" y="3641888"/>
-          <a:ext cx="352425" cy="276225"/>
+          <a:off x="5160263" y="3632363"/>
+          <a:ext cx="371475" cy="295275"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -7992,6 +8406,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -8015,20 +8434,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
+      <xdr:colOff>542925</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="95250" cy="466725"/>
+    <xdr:ext cx="114300" cy="485775"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="86" name="Shape 86"/>
+        <xdr:cNvPr id="81" name="Shape 81"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5312663" y="3560925"/>
-          <a:ext cx="66675" cy="438150"/>
+          <a:off x="5298375" y="3546638"/>
+          <a:ext cx="95250" cy="466725"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -8061,6 +8480,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -8084,20 +8508,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>-9525</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>-9525</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3162300" cy="2000250"/>
+    <xdr:ext cx="3181350" cy="2019300"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="87" name="Shape 87"/>
+        <xdr:cNvPr id="3" name="Shape 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3774375" y="2794163"/>
-          <a:ext cx="3143250" cy="1971675"/>
+          <a:off x="3764850" y="2779875"/>
+          <a:ext cx="3162300" cy="2000250"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -8130,6 +8554,8 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Arial"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -8144,20 +8570,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2647950" cy="1628775"/>
+    <xdr:ext cx="2667000" cy="1647825"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="88" name="Shape 88"/>
+        <xdr:cNvPr id="82" name="Shape 82"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4031550" y="2975138"/>
-          <a:ext cx="2628900" cy="1609725"/>
+          <a:off x="4022025" y="2965613"/>
+          <a:ext cx="2647950" cy="1628775"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -8190,6 +8616,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -8213,20 +8644,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="390525" cy="400050"/>
+    <xdr:ext cx="409575" cy="419100"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="89" name="Shape 89"/>
+        <xdr:cNvPr id="83" name="Shape 83"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5165025" y="3589500"/>
-          <a:ext cx="361950" cy="381000"/>
+          <a:off x="5150738" y="3579975"/>
+          <a:ext cx="390525" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -8259,6 +8690,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -8282,20 +8718,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="447675" cy="400050"/>
+    <xdr:ext cx="466725" cy="419100"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="90" name="Shape 90"/>
+        <xdr:cNvPr id="84" name="Shape 84"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5131688" y="3589500"/>
-          <a:ext cx="428625" cy="381000"/>
+          <a:off x="5122163" y="3579975"/>
+          <a:ext cx="447675" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -8328,6 +8764,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -8351,20 +8792,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="447675" cy="400050"/>
+    <xdr:ext cx="466725" cy="419100"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="91" name="Shape 91"/>
+        <xdr:cNvPr id="85" name="Shape 85"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5131688" y="3589500"/>
-          <a:ext cx="428625" cy="381000"/>
+          <a:off x="5122163" y="3579975"/>
+          <a:ext cx="447675" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -8397,6 +8838,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -8420,20 +8866,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
+      <xdr:colOff>200025</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>-9525</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="419100" cy="428625"/>
+    <xdr:ext cx="438150" cy="447675"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="92" name="Shape 92"/>
+        <xdr:cNvPr id="86" name="Shape 86"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5145975" y="3575213"/>
-          <a:ext cx="400050" cy="409575"/>
+          <a:off x="5136450" y="3565688"/>
+          <a:ext cx="419100" cy="428625"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -8466,6 +8912,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -8489,20 +8940,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:colOff>323850</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="390525" cy="428625"/>
+    <xdr:ext cx="409575" cy="447675"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="93" name="Shape 93"/>
+        <xdr:cNvPr id="87" name="Shape 87"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5160263" y="3579975"/>
-          <a:ext cx="371475" cy="400050"/>
+          <a:off x="5150738" y="3565688"/>
+          <a:ext cx="390525" cy="428625"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -8535,6 +8986,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -8558,20 +9014,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2714625" cy="371475"/>
+    <xdr:ext cx="2733675" cy="390525"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="94" name="Shape 94"/>
+        <xdr:cNvPr id="88" name="Shape 88"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3998213" y="3608550"/>
-          <a:ext cx="2695575" cy="342900"/>
+          <a:off x="3988688" y="3594263"/>
+          <a:ext cx="2714625" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -8604,6 +9060,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -8627,20 +9088,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:colOff>400050</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>-9525</xdr:rowOff>
+      <xdr:rowOff>-19050</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="409575" cy="447675"/>
+    <xdr:ext cx="428625" cy="466725"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="95" name="Shape 95"/>
+        <xdr:cNvPr id="89" name="Shape 89"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5155500" y="3570450"/>
-          <a:ext cx="381000" cy="419100"/>
+          <a:off x="5141213" y="3556163"/>
+          <a:ext cx="409575" cy="447675"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -8673,6 +9134,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -8696,20 +9162,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>-9525</xdr:colOff>
+      <xdr:colOff>-19050</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="152400" cy="438150"/>
+    <xdr:ext cx="171450" cy="457200"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="96" name="Shape 96"/>
+        <xdr:cNvPr id="90" name="Shape 90"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5279325" y="3575213"/>
-          <a:ext cx="133350" cy="409575"/>
+          <a:off x="5269800" y="3560925"/>
+          <a:ext cx="152400" cy="438150"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -8742,6 +9208,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -8765,20 +9236,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:colOff>476250</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2238375" cy="942975"/>
+    <xdr:ext cx="2257425" cy="962025"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="97" name="Shape 97"/>
+        <xdr:cNvPr id="91" name="Shape 91"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4236338" y="3322800"/>
-          <a:ext cx="2219325" cy="914400"/>
+          <a:off x="4226813" y="3308513"/>
+          <a:ext cx="2238375" cy="942975"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -8811,6 +9282,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -8834,20 +9310,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="771525" cy="257175"/>
+    <xdr:ext cx="790575" cy="276225"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="98" name="Shape 98"/>
+        <xdr:cNvPr id="92" name="Shape 92"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4969763" y="3660938"/>
-          <a:ext cx="752475" cy="238125"/>
+          <a:off x="4960238" y="3651413"/>
+          <a:ext cx="771525" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -8880,6 +9356,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -8903,20 +9384,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>-9525</xdr:colOff>
+      <xdr:colOff>-19050</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="809625" cy="457200"/>
+    <xdr:ext cx="828675" cy="476250"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="99" name="Shape 99"/>
+        <xdr:cNvPr id="93" name="Shape 93"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4950713" y="3560925"/>
-          <a:ext cx="790575" cy="438150"/>
+          <a:off x="4941188" y="3551400"/>
+          <a:ext cx="809625" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="leftArrowCallout">
           <a:avLst>
@@ -8952,6 +9433,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -8975,20 +9461,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
+      <xdr:colOff>609600</xdr:colOff>
       <xdr:row>87</xdr:row>
-      <xdr:rowOff>-9525</xdr:rowOff>
+      <xdr:rowOff>-19050</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="752475" cy="457200"/>
+    <xdr:ext cx="771525" cy="476250"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="100" name="Shape 100"/>
+        <xdr:cNvPr id="94" name="Shape 94"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4984050" y="3560925"/>
-          <a:ext cx="723900" cy="438150"/>
+          <a:off x="4969763" y="3551400"/>
+          <a:ext cx="752475" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="leftArrowCallout">
           <a:avLst>
@@ -9024,6 +9510,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -9047,20 +9538,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>83</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="600075" cy="485775"/>
+    <xdr:ext cx="619125" cy="504825"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="101" name="Shape 101"/>
+        <xdr:cNvPr id="95" name="Shape 95"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5055488" y="3541875"/>
-          <a:ext cx="581025" cy="476250"/>
+          <a:off x="5045963" y="3537113"/>
+          <a:ext cx="600075" cy="485775"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrowCallout">
           <a:avLst>
@@ -9096,6 +9587,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -9119,20 +9615,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="419100" cy="514350"/>
+    <xdr:ext cx="438150" cy="533400"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="102" name="Shape 102"/>
+        <xdr:cNvPr id="96" name="Shape 96"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5150738" y="3532350"/>
-          <a:ext cx="390525" cy="495300"/>
+          <a:off x="5136450" y="3522825"/>
+          <a:ext cx="419100" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="downArrowCallout">
           <a:avLst>
@@ -9168,6 +9664,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -9224,20 +9725,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>-9525</xdr:colOff>
+      <xdr:colOff>-19050</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>-9525</xdr:rowOff>
+      <xdr:rowOff>-19050</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3162300" cy="2000250"/>
+    <xdr:ext cx="3181350" cy="2019300"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="103" name="Shape 103"/>
+        <xdr:cNvPr id="97" name="Shape 97"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3774375" y="2794163"/>
-          <a:ext cx="3143250" cy="1971675"/>
+          <a:off x="3764850" y="2779875"/>
+          <a:ext cx="3162300" cy="2000250"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -9270,6 +9771,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -9293,20 +9799,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1819275" cy="1790700"/>
+    <xdr:ext cx="1838325" cy="1809750"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="104" name="Shape 104"/>
+        <xdr:cNvPr id="98" name="Shape 98"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4445888" y="2894175"/>
-          <a:ext cx="1800225" cy="1771650"/>
+          <a:off x="4436363" y="2884650"/>
+          <a:ext cx="1819275" cy="1790700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -9339,6 +9845,11 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="lt1"/>
+            </a:buClr>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Calibri"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -11211,10 +11722,38 @@
         <v>71</v>
       </c>
     </row>
-    <row r="63" ht="12.75" customHeight="1"/>
-    <row r="64" ht="12.75" customHeight="1"/>
-    <row r="65" ht="12.75" customHeight="1"/>
-    <row r="66" ht="12.75" customHeight="1"/>
+    <row r="63" ht="12.75" customHeight="1">
+      <c r="B63" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64" ht="12.75" customHeight="1">
+      <c r="B64" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65" ht="12.75" customHeight="1">
+      <c r="B65" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="66" ht="12.75" customHeight="1">
+      <c r="B66" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
     <row r="67" ht="12.75" customHeight="1"/>
     <row r="68" ht="12.75" customHeight="1"/>
     <row r="69" ht="12.75" customHeight="1"/>
@@ -12175,15 +12714,15 @@
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
       <c r="B2" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1"/>
@@ -13212,13 +13751,13 @@
     </row>
     <row r="2" ht="12.75" customHeight="1">
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1"/>
     <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1"/>
@@ -13315,7 +13854,7 @@
     <row r="26" ht="12.75" customHeight="1"/>
     <row r="27" ht="12.75" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" ht="12.75" customHeight="1"/>
@@ -13389,7 +13928,7 @@
         <v>5.0</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>24</v>
@@ -14368,7 +14907,7 @@
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1"/>
@@ -14468,27 +15007,27 @@
     <row r="26" ht="12.75" customHeight="1"/>
     <row r="27" ht="12.75" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" ht="12.75" customHeight="1">
       <c r="B28" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" ht="12.75" customHeight="1">
       <c r="B29" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" ht="12.75" customHeight="1">
       <c r="B30" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" ht="12.75" customHeight="1">
       <c r="B31" s="5" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" ht="12.75" customHeight="1"/>
@@ -15486,7 +16025,7 @@
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1"/>
@@ -15594,37 +16133,37 @@
     <row r="34" ht="12.75" customHeight="1"/>
     <row r="35" ht="12.75" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" ht="12.75" customHeight="1">
       <c r="B36" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" ht="12.75" customHeight="1">
       <c r="B37" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" ht="12.75" customHeight="1">
       <c r="B38" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" ht="12.75" customHeight="1">
       <c r="B39" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" ht="12.75" customHeight="1">
       <c r="B40" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" ht="12.75" customHeight="1">
       <c r="B41" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" ht="12.75" customHeight="1">
@@ -16621,10 +17160,10 @@
     </row>
     <row r="2" ht="12.75" customHeight="1">
       <c r="B2" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1"/>
@@ -17799,34 +18338,34 @@
     </row>
     <row r="2" ht="12.75" customHeight="1">
       <c r="B2" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
       <c r="C3" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
       <c r="C4" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="C5" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1"/>
     <row r="7" ht="12.75" customHeight="1">
       <c r="C7" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>50</v>
@@ -17835,7 +18374,7 @@
     <row r="8" ht="12.75" customHeight="1"/>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1"/>
@@ -17871,7 +18410,7 @@
         <v>27</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" ht="12.75" customHeight="1">
@@ -17893,7 +18432,7 @@
         <v>31</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" ht="12.75" customHeight="1">
@@ -17908,8 +18447,8 @@
       </c>
     </row>
     <row r="29" ht="12.75" customHeight="1">
-      <c r="A29" s="8" t="s">
-        <v>102</v>
+      <c r="A29" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>35</v>
@@ -17932,7 +18471,7 @@
     <row r="31" ht="12.75" customHeight="1"/>
     <row r="32" ht="12.75" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" ht="12.75" customHeight="1"/>
@@ -17967,7 +18506,7 @@
         <v>27</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" ht="12.75" customHeight="1">
@@ -17989,7 +18528,7 @@
         <v>31</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50" ht="12.75" customHeight="1">
@@ -18004,8 +18543,8 @@
       </c>
     </row>
     <row r="51" ht="12.75" customHeight="1">
-      <c r="A51" s="8" t="s">
-        <v>102</v>
+      <c r="A51" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>35</v>
@@ -18022,7 +18561,7 @@
         <v>40</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="53" ht="12.75" customHeight="1">
@@ -18072,10 +18611,10 @@
     <row r="57" ht="12.75" customHeight="1"/>
     <row r="58" ht="12.75" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59" ht="12.75" customHeight="1"/>
@@ -18110,7 +18649,7 @@
         <v>27</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="74" ht="12.75" customHeight="1">
@@ -18132,7 +18671,7 @@
         <v>31</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="76" ht="12.75" customHeight="1">
@@ -18147,8 +18686,8 @@
       </c>
     </row>
     <row r="77" ht="12.75" customHeight="1">
-      <c r="A77" s="8" t="s">
-        <v>102</v>
+      <c r="A77" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>35</v>
@@ -18193,7 +18732,7 @@
     <row r="81" ht="12.75" customHeight="1"/>
     <row r="82" ht="12.75" customHeight="1">
       <c r="A82" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="83" ht="12.75" customHeight="1"/>
@@ -18209,7 +18748,7 @@
         <v>1.0</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="92" ht="12.75" customHeight="1">
@@ -18217,7 +18756,7 @@
         <v>2.0</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="93" ht="12.75" customHeight="1">
@@ -18225,7 +18764,7 @@
         <v>3.0</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="94" ht="12.75" customHeight="1">
@@ -18233,23 +18772,23 @@
         <v>4.0</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="95" ht="12.75" customHeight="1"/>
     <row r="96" ht="12.75" customHeight="1">
-      <c r="A96" s="9" t="s">
+      <c r="A96" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="97" ht="12.75" customHeight="1">
-      <c r="B97" s="9" t="s">
-        <v>111</v>
+      <c r="B97" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="98" ht="12.75" customHeight="1">
-      <c r="B98" s="9" t="s">
-        <v>112</v>
+      <c r="B98" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="99" ht="12.75" customHeight="1"/>
@@ -19183,13 +19722,13 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1"/>
     <row r="3" ht="12.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1"/>
@@ -19206,15 +19745,15 @@
     <row r="15" ht="12.75" customHeight="1"/>
     <row r="16" ht="12.75" customHeight="1">
       <c r="B16" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
       <c r="C17" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" ht="12.75" customHeight="1">
